--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet 2'!$A$1:$D$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1853</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1868</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="5160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="5199">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -15500,6 +15500,123 @@
   </si>
   <si>
     <t>RP-0516</t>
+  </si>
+  <si>
+    <t>GP-0676</t>
+  </si>
+  <si>
+    <t>So Young</t>
+  </si>
+  <si>
+    <t>GP-0677</t>
+  </si>
+  <si>
+    <t>Breathless</t>
+  </si>
+  <si>
+    <t>GP-0678</t>
+  </si>
+  <si>
+    <t>B*Witched</t>
+  </si>
+  <si>
+    <t>C'est La Vie</t>
+  </si>
+  <si>
+    <t>GP-0679</t>
+  </si>
+  <si>
+    <t>Can't Fight The Moonlight</t>
+  </si>
+  <si>
+    <t>GP-0680</t>
+  </si>
+  <si>
+    <t>Boomtown Rats</t>
+  </si>
+  <si>
+    <t>I Don't Like Mondays</t>
+  </si>
+  <si>
+    <t>GP-0681</t>
+  </si>
+  <si>
+    <t>Jeff Beck</t>
+  </si>
+  <si>
+    <t>Hi Ho Silver Lining</t>
+  </si>
+  <si>
+    <t>GP-0682</t>
+  </si>
+  <si>
+    <t>Fisherman's Blues</t>
+  </si>
+  <si>
+    <t>GP-0683</t>
+  </si>
+  <si>
+    <t>Real Gone Kid</t>
+  </si>
+  <si>
+    <t>GP-0684</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>Walk On The Wild Side</t>
+  </si>
+  <si>
+    <t>GP-0685</t>
+  </si>
+  <si>
+    <t>Stranglers</t>
+  </si>
+  <si>
+    <t>Golden Brown</t>
+  </si>
+  <si>
+    <t>GP-0686</t>
+  </si>
+  <si>
+    <t>Echo And The Bunnymen</t>
+  </si>
+  <si>
+    <t>Nothing Lasts Forever</t>
+  </si>
+  <si>
+    <t>GP-0687</t>
+  </si>
+  <si>
+    <t>Sunday Girl</t>
+  </si>
+  <si>
+    <t>GP-0688</t>
+  </si>
+  <si>
+    <t>Mumford And Sons</t>
+  </si>
+  <si>
+    <t>I Will Wait</t>
+  </si>
+  <si>
+    <t>GP-0689</t>
+  </si>
+  <si>
+    <t>Andra Day</t>
+  </si>
+  <si>
+    <t>Rise Up</t>
+  </si>
+  <si>
+    <t>GP-0690</t>
+  </si>
+  <si>
+    <t>Candi Staton</t>
+  </si>
+  <si>
+    <t>Young Hearts Run Free</t>
   </si>
 </sst>
 </file>
@@ -15912,10 +16029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1971"/>
+  <dimension ref="A1:E1986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A1501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1510" sqref="B1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -23389,7 +23506,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" ht="31.5">
       <c r="A628" s="9" t="s">
         <v>4048</v>
       </c>
@@ -33043,5146 +33160,5311 @@
       </c>
     </row>
     <row r="1505" spans="1:3">
-      <c r="A1505" s="9" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B1505" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1505" s="9" t="s">
-        <v>1</v>
+      <c r="A1505" s="10" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B1505" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1505" s="16" t="s">
+        <v>5161</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
-      <c r="A1506" s="11" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B1506" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1506" s="9" t="s">
-        <v>8</v>
+      <c r="A1506" s="10" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B1506" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1506" s="16" t="s">
+        <v>5163</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
-      <c r="A1507" s="9" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B1507" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1507" s="9" t="s">
-        <v>9</v>
+      <c r="A1507" s="10" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B1507" s="16" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C1507" s="16" t="s">
+        <v>5166</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
-      <c r="A1508" s="11" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B1508" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1508" s="9" t="s">
-        <v>10</v>
+      <c r="A1508" s="10" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B1508" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1508" s="16" t="s">
+        <v>5168</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
-      <c r="A1509" s="11" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B1509" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1509" s="9" t="s">
-        <v>12</v>
+      <c r="A1509" s="10" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B1509" s="16" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C1509" s="16" t="s">
+        <v>5171</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
-      <c r="A1510" s="9" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B1510" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1510" s="9" t="s">
-        <v>15</v>
+      <c r="A1510" s="10" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B1510" s="16" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C1510" s="16" t="s">
+        <v>5174</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
-      <c r="A1511" s="9" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B1511" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1511" s="9" t="s">
-        <v>16</v>
+      <c r="A1511" s="10" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B1511" s="16" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C1511" s="16" t="s">
+        <v>5176</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
-      <c r="A1512" s="9" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B1512" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1512" s="9" t="s">
-        <v>17</v>
+      <c r="A1512" s="10" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B1512" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1512" s="16" t="s">
+        <v>5178</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
-      <c r="A1513" s="9" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B1513" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1513" s="9" t="s">
-        <v>20</v>
+      <c r="A1513" s="10" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B1513" s="16" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C1513" s="16" t="s">
+        <v>5181</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
-      <c r="A1514" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B1514" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1514" s="9" t="s">
-        <v>24</v>
+      <c r="A1514" s="10" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B1514" s="16" t="s">
+        <v>5183</v>
+      </c>
+      <c r="C1514" s="16" t="s">
+        <v>5184</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
-      <c r="A1515" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1515" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1515" s="9" t="s">
-        <v>28</v>
+      <c r="A1515" s="10" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B1515" s="16" t="s">
+        <v>5186</v>
+      </c>
+      <c r="C1515" s="16" t="s">
+        <v>5187</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
-      <c r="A1516" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B1516" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1516" s="9" t="s">
-        <v>31</v>
+      <c r="A1516" s="10" t="s">
+        <v>5188</v>
+      </c>
+      <c r="B1516" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1516" s="16" t="s">
+        <v>5189</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
-      <c r="A1517" s="9" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B1517" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1517" s="9" t="s">
-        <v>33</v>
+      <c r="A1517" s="10" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B1517" s="16" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C1517" s="16" t="s">
+        <v>5192</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
-      <c r="A1518" s="9" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B1518" s="9" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C1518" s="9" t="s">
-        <v>34</v>
+      <c r="A1518" s="10" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B1518" s="16" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C1518" s="16" t="s">
+        <v>5195</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
-      <c r="A1519" s="9" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B1519" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1519" s="9" t="s">
-        <v>36</v>
+      <c r="A1519" s="10" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B1519" s="16" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C1519" s="16" t="s">
+        <v>5198</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
       <c r="A1520" s="9" t="s">
-        <v>3073</v>
+        <v>2956</v>
       </c>
       <c r="B1520" s="9" t="s">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="C1520" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
-      <c r="A1521" s="9" t="s">
-        <v>3088</v>
+      <c r="A1521" s="11" t="s">
+        <v>2957</v>
       </c>
       <c r="B1521" s="9" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C1521" s="9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
       <c r="A1522" s="9" t="s">
-        <v>3100</v>
+        <v>2958</v>
       </c>
       <c r="B1522" s="9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C1522" s="9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
-      <c r="A1523" s="9" t="s">
-        <v>3111</v>
+      <c r="A1523" s="11" t="s">
+        <v>2959</v>
       </c>
       <c r="B1523" s="9" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C1523" s="9" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
-      <c r="A1524" s="9" t="s">
-        <v>3119</v>
+      <c r="A1524" s="11" t="s">
+        <v>2960</v>
       </c>
       <c r="B1524" s="9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C1524" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
       <c r="A1525" s="9" t="s">
-        <v>3126</v>
+        <v>2965</v>
       </c>
       <c r="B1525" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1525" s="9" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
       <c r="A1526" s="9" t="s">
-        <v>3133</v>
+        <v>2973</v>
       </c>
       <c r="B1526" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1526" s="9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
       <c r="A1527" s="9" t="s">
-        <v>3139</v>
+        <v>2976</v>
       </c>
       <c r="B1527" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1527" s="9" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528" s="9" t="s">
-        <v>3156</v>
+        <v>2986</v>
       </c>
       <c r="B1528" s="9" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C1528" s="9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
       <c r="A1529" s="9" t="s">
-        <v>3163</v>
+        <v>3008</v>
       </c>
       <c r="B1529" s="9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C1529" s="9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
       <c r="A1530" s="9" t="s">
-        <v>3164</v>
+        <v>3028</v>
       </c>
       <c r="B1530" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C1530" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
       <c r="A1531" s="9" t="s">
-        <v>3165</v>
+        <v>3039</v>
       </c>
       <c r="B1531" s="9" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C1531" s="9" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
       <c r="A1532" s="9" t="s">
-        <v>3166</v>
+        <v>3043</v>
       </c>
       <c r="B1532" s="9" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C1532" s="9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
       <c r="A1533" s="9" t="s">
-        <v>3167</v>
+        <v>3060</v>
       </c>
       <c r="B1533" s="9" t="s">
-        <v>68</v>
+        <v>2847</v>
       </c>
       <c r="C1533" s="9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
       <c r="A1534" s="9" t="s">
-        <v>3168</v>
+        <v>3066</v>
       </c>
       <c r="B1534" s="9" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C1534" s="9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="9" t="s">
-        <v>3169</v>
+        <v>3073</v>
       </c>
       <c r="B1535" s="9" t="s">
-        <v>72</v>
+        <v>2798</v>
       </c>
       <c r="C1535" s="9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
       <c r="A1536" s="9" t="s">
-        <v>3170</v>
+        <v>3088</v>
       </c>
       <c r="B1536" s="9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C1536" s="9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
       <c r="A1537" s="9" t="s">
-        <v>3171</v>
+        <v>3100</v>
       </c>
       <c r="B1537" s="9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C1537" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
       <c r="A1538" s="9" t="s">
-        <v>3172</v>
+        <v>3111</v>
       </c>
       <c r="B1538" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C1538" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
       <c r="A1539" s="9" t="s">
-        <v>3173</v>
+        <v>3119</v>
       </c>
       <c r="B1539" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C1539" s="9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
       <c r="A1540" s="9" t="s">
-        <v>3174</v>
+        <v>3126</v>
       </c>
       <c r="B1540" s="9" t="s">
-        <v>81</v>
+        <v>2285</v>
       </c>
       <c r="C1540" s="9" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
       <c r="A1541" s="9" t="s">
-        <v>3175</v>
+        <v>3133</v>
       </c>
       <c r="B1541" s="9" t="s">
-        <v>83</v>
+        <v>2285</v>
       </c>
       <c r="C1541" s="9" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
       <c r="A1542" s="9" t="s">
-        <v>3176</v>
+        <v>3139</v>
       </c>
       <c r="B1542" s="9" t="s">
-        <v>85</v>
+        <v>2285</v>
       </c>
       <c r="C1542" s="9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
       <c r="A1543" s="9" t="s">
-        <v>3177</v>
+        <v>3156</v>
       </c>
       <c r="B1543" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C1543" s="9" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
       <c r="A1544" s="9" t="s">
-        <v>3178</v>
+        <v>3163</v>
       </c>
       <c r="B1544" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C1544" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545" s="9" t="s">
-        <v>3179</v>
+        <v>3164</v>
       </c>
       <c r="B1545" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C1545" s="9" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="9" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="B1546" s="9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C1546" s="9" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="9" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="B1547" s="9" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C1547" s="9" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="9" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="B1548" s="9" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C1548" s="9" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="9" t="s">
-        <v>3412</v>
+        <v>3168</v>
       </c>
       <c r="B1549" s="9" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C1549" s="9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="9" t="s">
-        <v>3413</v>
+        <v>3169</v>
       </c>
       <c r="B1550" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1550" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="9" t="s">
-        <v>3414</v>
+        <v>3170</v>
       </c>
       <c r="B1551" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1551" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="9" t="s">
-        <v>3415</v>
+        <v>3171</v>
       </c>
       <c r="B1552" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C1552" s="9" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="9" t="s">
-        <v>3416</v>
+        <v>3172</v>
       </c>
       <c r="B1553" s="9" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C1553" s="9" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="9" t="s">
-        <v>3417</v>
+        <v>3173</v>
       </c>
       <c r="B1554" s="9" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C1554" s="9" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="9" t="s">
-        <v>3418</v>
+        <v>3174</v>
       </c>
       <c r="B1555" s="9" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C1555" s="9" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="9" t="s">
-        <v>3419</v>
+        <v>3175</v>
       </c>
       <c r="B1556" s="9" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C1556" s="9" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="9" t="s">
-        <v>3420</v>
+        <v>3176</v>
       </c>
       <c r="B1557" s="9" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C1557" s="9" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="9" t="s">
-        <v>3421</v>
+        <v>3177</v>
       </c>
       <c r="B1558" s="9" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C1558" s="9" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
       <c r="A1559" s="9" t="s">
-        <v>2961</v>
+        <v>3178</v>
       </c>
       <c r="B1559" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C1559" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="9" t="s">
-        <v>2962</v>
+        <v>3179</v>
       </c>
       <c r="B1560" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C1560" s="9" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="9" t="s">
-        <v>2963</v>
+        <v>3180</v>
       </c>
       <c r="B1561" s="9" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C1561" s="9" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="9" t="s">
-        <v>2964</v>
+        <v>3181</v>
       </c>
       <c r="B1562" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C1562" s="9" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="9" t="s">
-        <v>2966</v>
+        <v>3182</v>
       </c>
       <c r="B1563" s="9" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C1563" s="9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="9" t="s">
-        <v>2967</v>
+        <v>3412</v>
       </c>
       <c r="B1564" s="9" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C1564" s="9" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="9" t="s">
-        <v>2968</v>
+        <v>3413</v>
       </c>
       <c r="B1565" s="9" t="s">
-        <v>2849</v>
+        <v>106</v>
       </c>
       <c r="C1565" s="9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="9" t="s">
-        <v>2969</v>
+        <v>3414</v>
       </c>
       <c r="B1566" s="9" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C1566" s="9" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="9" t="s">
-        <v>2970</v>
+        <v>3415</v>
       </c>
       <c r="B1567" s="9" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C1567" s="9" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="9" t="s">
-        <v>2971</v>
+        <v>3416</v>
       </c>
       <c r="B1568" s="9" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C1568" s="9" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="9" t="s">
-        <v>2972</v>
+        <v>3417</v>
       </c>
       <c r="B1569" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C1569" s="9" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="9" t="s">
-        <v>2974</v>
+        <v>3418</v>
       </c>
       <c r="B1570" s="9" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C1570" s="9" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="9" t="s">
-        <v>2975</v>
+        <v>3419</v>
       </c>
       <c r="B1571" s="9" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C1571" s="9" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="9" t="s">
-        <v>2977</v>
+        <v>3420</v>
       </c>
       <c r="B1572" s="9" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C1572" s="9" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="9" t="s">
-        <v>2978</v>
+        <v>3421</v>
       </c>
       <c r="B1573" s="9" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C1573" s="9" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="9" t="s">
-        <v>2979</v>
+        <v>2961</v>
       </c>
       <c r="B1574" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C1574" s="9" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="9" t="s">
-        <v>2980</v>
+        <v>2962</v>
       </c>
       <c r="B1575" s="9" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C1575" s="9" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
       <c r="A1576" s="9" t="s">
-        <v>2981</v>
+        <v>2963</v>
       </c>
       <c r="B1576" s="9" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C1576" s="9" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="9" t="s">
-        <v>2982</v>
+        <v>2964</v>
       </c>
       <c r="B1577" s="9" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C1577" s="9" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
       <c r="A1578" s="9" t="s">
-        <v>2983</v>
+        <v>2966</v>
       </c>
       <c r="B1578" s="9" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C1578" s="9" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
       <c r="A1579" s="9" t="s">
-        <v>2984</v>
+        <v>2967</v>
       </c>
       <c r="B1579" s="9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C1579" s="9" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
       <c r="A1580" s="9" t="s">
-        <v>2985</v>
+        <v>2968</v>
       </c>
       <c r="B1580" s="9" t="s">
-        <v>198</v>
+        <v>2849</v>
       </c>
       <c r="C1580" s="9" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
       <c r="A1581" s="9" t="s">
-        <v>2987</v>
+        <v>2969</v>
       </c>
       <c r="B1581" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1581" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
       <c r="A1582" s="9" t="s">
-        <v>2988</v>
+        <v>2970</v>
       </c>
       <c r="B1582" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1582" s="9" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1583" spans="1:3">
       <c r="A1583" s="9" t="s">
-        <v>2989</v>
+        <v>2971</v>
       </c>
       <c r="B1583" s="9" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C1583" s="9" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
       <c r="A1584" s="9" t="s">
-        <v>2990</v>
+        <v>2972</v>
       </c>
       <c r="B1584" s="9" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C1584" s="9" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
       <c r="A1585" s="9" t="s">
-        <v>2991</v>
+        <v>2974</v>
       </c>
       <c r="B1585" s="9" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C1585" s="9" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
       <c r="A1586" s="9" t="s">
-        <v>2992</v>
+        <v>2975</v>
       </c>
       <c r="B1586" s="9" t="s">
-        <v>2926</v>
+        <v>166</v>
       </c>
       <c r="C1586" s="9" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
       <c r="A1587" s="9" t="s">
-        <v>2993</v>
+        <v>2977</v>
       </c>
       <c r="B1587" s="9" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C1587" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
       <c r="A1588" s="9" t="s">
-        <v>2994</v>
+        <v>2978</v>
       </c>
       <c r="B1588" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1588" s="9" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
       <c r="A1589" s="9" t="s">
-        <v>2995</v>
+        <v>2979</v>
       </c>
       <c r="B1589" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1589" s="9" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
       <c r="A1590" s="9" t="s">
-        <v>2996</v>
+        <v>2980</v>
       </c>
       <c r="B1590" s="9" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C1590" s="9" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
       <c r="A1591" s="9" t="s">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="B1591" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C1591" s="9" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
       <c r="A1592" s="9" t="s">
-        <v>2998</v>
+        <v>2982</v>
       </c>
       <c r="B1592" s="9" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C1592" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
       <c r="A1593" s="9" t="s">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="B1593" s="9" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C1593" s="9" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
       <c r="A1594" s="9" t="s">
-        <v>3000</v>
+        <v>2984</v>
       </c>
       <c r="B1594" s="9" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C1594" s="9" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
       <c r="A1595" s="9" t="s">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="B1595" s="9" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C1595" s="9" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
       <c r="A1596" s="9" t="s">
-        <v>3002</v>
+        <v>2987</v>
       </c>
       <c r="B1596" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C1596" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
       <c r="A1597" s="9" t="s">
-        <v>3003</v>
+        <v>2988</v>
       </c>
       <c r="B1597" s="9" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C1597" s="9" t="s">
-        <v>1136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
       <c r="A1598" s="9" t="s">
-        <v>3004</v>
+        <v>2989</v>
       </c>
       <c r="B1598" s="9" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C1598" s="9" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1599" spans="1:3">
       <c r="A1599" s="9" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="B1599" s="9" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C1599" s="9" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
       <c r="A1600" s="9" t="s">
-        <v>3006</v>
+        <v>2991</v>
       </c>
       <c r="B1600" s="9" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C1600" s="9" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
       <c r="A1601" s="9" t="s">
-        <v>3007</v>
+        <v>2992</v>
       </c>
       <c r="B1601" s="9" t="s">
-        <v>248</v>
+        <v>2926</v>
       </c>
       <c r="C1601" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
       <c r="A1602" s="9" t="s">
-        <v>3009</v>
+        <v>2993</v>
       </c>
       <c r="B1602" s="9" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C1602" s="9" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
       <c r="A1603" s="9" t="s">
-        <v>3010</v>
+        <v>2994</v>
       </c>
       <c r="B1603" s="9" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C1603" s="9" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604" s="9" t="s">
-        <v>3011</v>
+        <v>2995</v>
       </c>
       <c r="B1604" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1604" s="9" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
       <c r="A1605" s="9" t="s">
-        <v>3012</v>
+        <v>2996</v>
       </c>
       <c r="B1605" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1605" s="9" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
       <c r="A1606" s="9" t="s">
-        <v>3013</v>
+        <v>2997</v>
       </c>
       <c r="B1606" s="9" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C1606" s="9" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
       <c r="A1607" s="9" t="s">
-        <v>3014</v>
+        <v>2998</v>
       </c>
       <c r="B1607" s="9" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C1607" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
       <c r="A1608" s="9" t="s">
-        <v>3015</v>
+        <v>2999</v>
       </c>
       <c r="B1608" s="9" t="s">
-        <v>2803</v>
+        <v>227</v>
       </c>
       <c r="C1608" s="9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
       <c r="A1609" s="9" t="s">
-        <v>3016</v>
+        <v>3000</v>
       </c>
       <c r="B1609" s="9" t="s">
-        <v>2890</v>
+        <v>231</v>
       </c>
       <c r="C1609" s="9" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1610" spans="1:3">
       <c r="A1610" s="9" t="s">
-        <v>3017</v>
+        <v>3001</v>
       </c>
       <c r="B1610" s="9" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C1610" s="9" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1611" spans="1:3">
       <c r="A1611" s="9" t="s">
-        <v>3018</v>
+        <v>3002</v>
       </c>
       <c r="B1611" s="9" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C1611" s="9" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1612" spans="1:3">
       <c r="A1612" s="9" t="s">
-        <v>3019</v>
+        <v>3003</v>
       </c>
       <c r="B1612" s="9" t="s">
-        <v>2805</v>
+        <v>239</v>
       </c>
       <c r="C1612" s="9" t="s">
-        <v>2939</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1613" spans="1:3">
       <c r="A1613" s="9" t="s">
-        <v>3020</v>
+        <v>3004</v>
       </c>
       <c r="B1613" s="9" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C1613" s="9" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
       <c r="A1614" s="9" t="s">
-        <v>3021</v>
+        <v>3005</v>
       </c>
       <c r="B1614" s="9" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C1614" s="9" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
       <c r="A1615" s="9" t="s">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="B1615" s="9" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C1615" s="9" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
       <c r="A1616" s="9" t="s">
-        <v>3023</v>
+        <v>3007</v>
       </c>
       <c r="B1616" s="9" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C1616" s="9" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617" s="9" t="s">
-        <v>3024</v>
+        <v>3009</v>
       </c>
       <c r="B1617" s="9" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C1617" s="9" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
       <c r="A1618" s="9" t="s">
-        <v>3025</v>
+        <v>3010</v>
       </c>
       <c r="B1618" s="9" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C1618" s="9" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1619" spans="1:3">
       <c r="A1619" s="9" t="s">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="B1619" s="9" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C1619" s="9" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
       <c r="A1620" s="9" t="s">
-        <v>3027</v>
+        <v>3012</v>
       </c>
       <c r="B1620" s="9" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C1620" s="9" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621" s="9" t="s">
-        <v>3029</v>
+        <v>3013</v>
       </c>
       <c r="B1621" s="9" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C1621" s="9" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
       <c r="A1622" s="9" t="s">
-        <v>3030</v>
+        <v>3014</v>
       </c>
       <c r="B1622" s="9" t="s">
-        <v>2894</v>
+        <v>263</v>
       </c>
       <c r="C1622" s="9" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
       <c r="A1623" s="9" t="s">
-        <v>3031</v>
+        <v>3015</v>
       </c>
       <c r="B1623" s="9" t="s">
-        <v>309</v>
+        <v>2803</v>
       </c>
       <c r="C1623" s="9" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1624" spans="1:3">
       <c r="A1624" s="9" t="s">
-        <v>3032</v>
+        <v>3016</v>
       </c>
       <c r="B1624" s="9" t="s">
-        <v>313</v>
+        <v>2890</v>
       </c>
       <c r="C1624" s="9" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
       <c r="A1625" s="9" t="s">
-        <v>3033</v>
+        <v>3017</v>
       </c>
       <c r="B1625" s="9" t="s">
-        <v>2896</v>
+        <v>270</v>
       </c>
       <c r="C1625" s="9" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
       <c r="A1626" s="9" t="s">
-        <v>3034</v>
+        <v>3018</v>
       </c>
       <c r="B1626" s="9" t="s">
-        <v>2896</v>
+        <v>272</v>
       </c>
       <c r="C1626" s="9" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
       <c r="A1627" s="9" t="s">
-        <v>3035</v>
+        <v>3019</v>
       </c>
       <c r="B1627" s="9" t="s">
-        <v>2896</v>
+        <v>2805</v>
       </c>
       <c r="C1627" s="9" t="s">
-        <v>320</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1628" spans="1:3">
       <c r="A1628" s="9" t="s">
-        <v>3036</v>
+        <v>3020</v>
       </c>
       <c r="B1628" s="9" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="C1628" s="9" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
       <c r="A1629" s="9" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="B1629" s="9" t="s">
-        <v>2897</v>
+        <v>281</v>
       </c>
       <c r="C1629" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
       <c r="A1630" s="9" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="B1630" s="9" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C1630" s="9" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
       <c r="A1631" s="9" t="s">
-        <v>3040</v>
+        <v>3023</v>
       </c>
       <c r="B1631" s="9" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C1631" s="9" t="s">
-        <v>2941</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
       <c r="A1632" s="9" t="s">
-        <v>3041</v>
+        <v>3024</v>
       </c>
       <c r="B1632" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C1632" s="9" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
       <c r="A1633" s="9" t="s">
-        <v>3042</v>
+        <v>3025</v>
       </c>
       <c r="B1633" s="9" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="C1633" s="9" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1634" spans="1:3">
       <c r="A1634" s="9" t="s">
-        <v>3044</v>
+        <v>3026</v>
       </c>
       <c r="B1634" s="9" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="C1634" s="9" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
       <c r="A1635" s="9" t="s">
-        <v>3045</v>
+        <v>3027</v>
       </c>
       <c r="B1635" s="9" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="C1635" s="9" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
       <c r="A1636" s="9" t="s">
-        <v>3046</v>
+        <v>3029</v>
       </c>
       <c r="B1636" s="9" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C1636" s="9" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
       <c r="A1637" s="9" t="s">
-        <v>3047</v>
+        <v>3030</v>
       </c>
       <c r="B1637" s="9" t="s">
-        <v>363</v>
+        <v>2894</v>
       </c>
       <c r="C1637" s="9" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
       <c r="A1638" s="9" t="s">
-        <v>3048</v>
+        <v>3031</v>
       </c>
       <c r="B1638" s="9" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C1638" s="9" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
       <c r="A1639" s="9" t="s">
-        <v>3049</v>
+        <v>3032</v>
       </c>
       <c r="B1639" s="9" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C1639" s="9" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1640" spans="1:3">
       <c r="A1640" s="9" t="s">
-        <v>3050</v>
+        <v>3033</v>
       </c>
       <c r="B1640" s="9" t="s">
-        <v>367</v>
+        <v>2896</v>
       </c>
       <c r="C1640" s="9" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
       <c r="A1641" s="9" t="s">
-        <v>3051</v>
+        <v>3034</v>
       </c>
       <c r="B1641" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1641" s="9" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
       <c r="A1642" s="9" t="s">
-        <v>3052</v>
+        <v>3035</v>
       </c>
       <c r="B1642" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1642" s="9" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1643" spans="1:3">
       <c r="A1643" s="9" t="s">
-        <v>3053</v>
+        <v>3036</v>
       </c>
       <c r="B1643" s="9" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C1643" s="9" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
       <c r="A1644" s="9" t="s">
-        <v>3054</v>
+        <v>3037</v>
       </c>
       <c r="B1644" s="9" t="s">
-        <v>374</v>
+        <v>2897</v>
       </c>
       <c r="C1644" s="9" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
       <c r="A1645" s="9" t="s">
-        <v>3055</v>
+        <v>3038</v>
       </c>
       <c r="B1645" s="9" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="C1645" s="9" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
       <c r="A1646" s="9" t="s">
-        <v>3056</v>
+        <v>3040</v>
       </c>
       <c r="B1646" s="9" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C1646" s="9" t="s">
-        <v>379</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
       <c r="A1647" s="9" t="s">
-        <v>3057</v>
+        <v>3041</v>
       </c>
       <c r="B1647" s="9" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C1647" s="9" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
       <c r="A1648" s="9" t="s">
-        <v>3058</v>
+        <v>3042</v>
       </c>
       <c r="B1648" s="9" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C1648" s="9" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
       <c r="A1649" s="9" t="s">
-        <v>3059</v>
+        <v>3044</v>
       </c>
       <c r="B1649" s="9" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C1649" s="9" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
       <c r="A1650" s="9" t="s">
-        <v>3061</v>
+        <v>3045</v>
       </c>
       <c r="B1650" s="9" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C1650" s="9" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1651" spans="1:3">
       <c r="A1651" s="9" t="s">
-        <v>3062</v>
+        <v>3046</v>
       </c>
       <c r="B1651" s="9" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C1651" s="9" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
       <c r="A1652" s="9" t="s">
-        <v>3063</v>
+        <v>3047</v>
       </c>
       <c r="B1652" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1652" s="9" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
       <c r="A1653" s="9" t="s">
-        <v>3064</v>
+        <v>3048</v>
       </c>
       <c r="B1653" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1653" s="9" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
       <c r="A1654" s="9" t="s">
-        <v>3065</v>
+        <v>3049</v>
       </c>
       <c r="B1654" s="9" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C1654" s="9" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
       <c r="A1655" s="9" t="s">
-        <v>3067</v>
+        <v>3050</v>
       </c>
       <c r="B1655" s="9" t="s">
-        <v>2916</v>
+        <v>367</v>
       </c>
       <c r="C1655" s="9" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
       <c r="A1656" s="9" t="s">
-        <v>3068</v>
+        <v>3051</v>
       </c>
       <c r="B1656" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1656" s="9" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
       <c r="A1657" s="9" t="s">
-        <v>3069</v>
+        <v>3052</v>
       </c>
       <c r="B1657" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1657" s="9" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
       <c r="A1658" s="9" t="s">
-        <v>3070</v>
+        <v>3053</v>
       </c>
       <c r="B1658" s="9" t="s">
-        <v>2809</v>
+        <v>374</v>
       </c>
       <c r="C1658" s="9" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
       <c r="A1659" s="9" t="s">
-        <v>3071</v>
+        <v>3054</v>
       </c>
       <c r="B1659" s="9" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C1659" s="9" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
       <c r="A1660" s="9" t="s">
-        <v>3072</v>
+        <v>3055</v>
       </c>
       <c r="B1660" s="9" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C1660" s="9" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
       <c r="A1661" s="9" t="s">
-        <v>3074</v>
+        <v>3056</v>
       </c>
       <c r="B1661" s="9" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C1661" s="9" t="s">
-        <v>2953</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
       <c r="A1662" s="9" t="s">
-        <v>3075</v>
+        <v>3057</v>
       </c>
       <c r="B1662" s="9" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C1662" s="9" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
       <c r="A1663" s="9" t="s">
-        <v>3076</v>
+        <v>3058</v>
       </c>
       <c r="B1663" s="9" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C1663" s="9" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
       <c r="A1664" s="9" t="s">
-        <v>3077</v>
+        <v>3059</v>
       </c>
       <c r="B1664" s="9" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="C1664" s="9" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1665" spans="1:3">
       <c r="A1665" s="9" t="s">
-        <v>3078</v>
+        <v>3061</v>
       </c>
       <c r="B1665" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1665" s="9" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
       <c r="A1666" s="9" t="s">
-        <v>3079</v>
+        <v>3062</v>
       </c>
       <c r="B1666" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1666" s="9" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1667" spans="1:3">
       <c r="A1667" s="9" t="s">
-        <v>3080</v>
+        <v>3063</v>
       </c>
       <c r="B1667" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1667" s="9" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1668" spans="1:3">
       <c r="A1668" s="9" t="s">
-        <v>3081</v>
+        <v>3064</v>
       </c>
       <c r="B1668" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1668" s="9" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1669" spans="1:3">
       <c r="A1669" s="9" t="s">
-        <v>3082</v>
+        <v>3065</v>
       </c>
       <c r="B1669" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C1669" s="9" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1670" spans="1:3">
       <c r="A1670" s="9" t="s">
-        <v>3083</v>
+        <v>3067</v>
       </c>
       <c r="B1670" s="9" t="s">
-        <v>425</v>
+        <v>2916</v>
       </c>
       <c r="C1670" s="9" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1671" spans="1:3">
       <c r="A1671" s="9" t="s">
-        <v>3084</v>
+        <v>3068</v>
       </c>
       <c r="B1671" s="9" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C1671" s="9" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1672" spans="1:3">
       <c r="A1672" s="9" t="s">
-        <v>3085</v>
+        <v>3069</v>
       </c>
       <c r="B1672" s="9" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C1672" s="9" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1673" spans="1:3">
       <c r="A1673" s="9" t="s">
-        <v>3086</v>
+        <v>3070</v>
       </c>
       <c r="B1673" s="9" t="s">
-        <v>430</v>
+        <v>2809</v>
       </c>
       <c r="C1673" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1674" spans="1:3">
       <c r="A1674" s="9" t="s">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="B1674" s="9" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C1674" s="9" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1675" spans="1:3">
       <c r="A1675" s="9" t="s">
-        <v>3089</v>
+        <v>3072</v>
       </c>
       <c r="B1675" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1675" s="9" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1676" spans="1:3">
       <c r="A1676" s="9" t="s">
-        <v>3090</v>
+        <v>3074</v>
       </c>
       <c r="B1676" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1676" s="9" t="s">
-        <v>439</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1677" spans="1:3">
       <c r="A1677" s="9" t="s">
-        <v>3091</v>
+        <v>3075</v>
       </c>
       <c r="B1677" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1677" s="9" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1678" spans="1:3">
       <c r="A1678" s="9" t="s">
-        <v>3092</v>
+        <v>3076</v>
       </c>
       <c r="B1678" s="9" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C1678" s="9" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1679" spans="1:3">
       <c r="A1679" s="9" t="s">
-        <v>3093</v>
+        <v>3077</v>
       </c>
       <c r="B1679" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1679" s="9" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1680" spans="1:3">
       <c r="A1680" s="9" t="s">
-        <v>3094</v>
+        <v>3078</v>
       </c>
       <c r="B1680" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1680" s="9" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1681" spans="1:3">
       <c r="A1681" s="9" t="s">
-        <v>3095</v>
+        <v>3079</v>
       </c>
       <c r="B1681" s="9" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C1681" s="9" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1682" spans="1:3">
       <c r="A1682" s="9" t="s">
-        <v>3096</v>
+        <v>3080</v>
       </c>
       <c r="B1682" s="9" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="C1682" s="9" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1683" spans="1:3">
       <c r="A1683" s="9" t="s">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="B1683" s="9" t="s">
-        <v>2850</v>
+        <v>420</v>
       </c>
       <c r="C1683" s="9" t="s">
-        <v>2946</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1684" spans="1:3">
       <c r="A1684" s="9" t="s">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="B1684" s="9" t="s">
-        <v>2814</v>
+        <v>425</v>
       </c>
       <c r="C1684" s="9" t="s">
-        <v>2945</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1685" spans="1:3">
       <c r="A1685" s="9" t="s">
-        <v>3099</v>
+        <v>3083</v>
       </c>
       <c r="B1685" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1685" s="9" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1686" spans="1:3">
       <c r="A1686" s="9" t="s">
-        <v>3101</v>
+        <v>3084</v>
       </c>
       <c r="B1686" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1686" s="9" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1687" spans="1:3">
       <c r="A1687" s="9" t="s">
-        <v>3102</v>
+        <v>3085</v>
       </c>
       <c r="B1687" s="9" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C1687" s="9" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1688" spans="1:3">
       <c r="A1688" s="9" t="s">
-        <v>3103</v>
+        <v>3086</v>
       </c>
       <c r="B1688" s="9" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="C1688" s="9" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1689" spans="1:3">
       <c r="A1689" s="9" t="s">
-        <v>3104</v>
+        <v>3087</v>
       </c>
       <c r="B1689" s="9" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C1689" s="9" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1690" spans="1:3">
       <c r="A1690" s="9" t="s">
-        <v>3105</v>
+        <v>3089</v>
       </c>
       <c r="B1690" s="9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="C1690" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1691" spans="1:3">
       <c r="A1691" s="9" t="s">
-        <v>3106</v>
+        <v>3090</v>
       </c>
       <c r="B1691" s="9" t="s">
-        <v>2852</v>
+        <v>436</v>
       </c>
       <c r="C1691" s="9" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1692" spans="1:3">
       <c r="A1692" s="9" t="s">
-        <v>3107</v>
+        <v>3091</v>
       </c>
       <c r="B1692" s="9" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C1692" s="9" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1693" spans="1:3">
       <c r="A1693" s="9" t="s">
-        <v>3108</v>
+        <v>3092</v>
       </c>
       <c r="B1693" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1693" s="9" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1694" spans="1:3">
       <c r="A1694" s="9" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
       <c r="B1694" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1694" s="9" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1695" spans="1:3">
       <c r="A1695" s="9" t="s">
-        <v>3110</v>
+        <v>3094</v>
       </c>
       <c r="B1695" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1695" s="9" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1696" spans="1:3">
       <c r="A1696" s="9" t="s">
-        <v>3112</v>
+        <v>3095</v>
       </c>
       <c r="B1696" s="9" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C1696" s="9" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1697" spans="1:3">
       <c r="A1697" s="9" t="s">
-        <v>3113</v>
+        <v>3096</v>
       </c>
       <c r="B1697" s="9" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="C1697" s="9" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
       <c r="A1698" s="9" t="s">
-        <v>3114</v>
+        <v>3097</v>
       </c>
       <c r="B1698" s="9" t="s">
-        <v>487</v>
+        <v>2850</v>
       </c>
       <c r="C1698" s="9" t="s">
-        <v>488</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
       <c r="A1699" s="9" t="s">
-        <v>3115</v>
+        <v>3098</v>
       </c>
       <c r="B1699" s="9" t="s">
-        <v>490</v>
+        <v>2814</v>
       </c>
       <c r="C1699" s="9" t="s">
-        <v>491</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
       <c r="A1700" s="9" t="s">
-        <v>3116</v>
+        <v>3099</v>
       </c>
       <c r="B1700" s="9" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C1700" s="9" t="s">
-        <v>2948</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
       <c r="A1701" s="9" t="s">
-        <v>3117</v>
+        <v>3101</v>
       </c>
       <c r="B1701" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1701" s="9" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
       <c r="A1702" s="9" t="s">
-        <v>3118</v>
+        <v>3102</v>
       </c>
       <c r="B1702" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1702" s="9" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
       <c r="A1703" s="9" t="s">
-        <v>3120</v>
+        <v>3103</v>
       </c>
       <c r="B1703" s="9" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C1703" s="9" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
       <c r="A1704" s="9" t="s">
-        <v>3121</v>
+        <v>3104</v>
       </c>
       <c r="B1704" s="9" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C1704" s="9" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="9" t="s">
-        <v>3122</v>
+        <v>3105</v>
       </c>
       <c r="B1705" s="9" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="C1705" s="9" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="9" t="s">
-        <v>3123</v>
+        <v>3106</v>
       </c>
       <c r="B1706" s="9" t="s">
-        <v>500</v>
+        <v>2852</v>
       </c>
       <c r="C1706" s="9" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="9" t="s">
-        <v>3124</v>
+        <v>3107</v>
       </c>
       <c r="B1707" s="9" t="s">
-        <v>2818</v>
+        <v>475</v>
       </c>
       <c r="C1707" s="9" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="9" t="s">
-        <v>3125</v>
+        <v>3108</v>
       </c>
       <c r="B1708" s="9" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C1708" s="9" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="9" t="s">
-        <v>3127</v>
+        <v>3109</v>
       </c>
       <c r="B1709" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1709" s="9" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="9" t="s">
-        <v>3128</v>
+        <v>3110</v>
       </c>
       <c r="B1710" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1710" s="9" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="9" t="s">
-        <v>3129</v>
+        <v>3112</v>
       </c>
       <c r="B1711" s="9" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="C1711" s="9" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="9" t="s">
-        <v>3130</v>
+        <v>3113</v>
       </c>
       <c r="B1712" s="9" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C1712" s="9" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
       <c r="A1713" s="9" t="s">
-        <v>3131</v>
+        <v>3114</v>
       </c>
       <c r="B1713" s="9" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="C1713" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
       <c r="A1714" s="9" t="s">
-        <v>3132</v>
+        <v>3115</v>
       </c>
       <c r="B1714" s="9" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C1714" s="9" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
       <c r="A1715" s="9" t="s">
-        <v>3134</v>
+        <v>3116</v>
       </c>
       <c r="B1715" s="9" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C1715" s="9" t="s">
-        <v>528</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
       <c r="A1716" s="9" t="s">
-        <v>3135</v>
+        <v>3117</v>
       </c>
       <c r="B1716" s="9" t="s">
-        <v>2913</v>
+        <v>495</v>
       </c>
       <c r="C1716" s="9" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
       <c r="A1717" s="9" t="s">
-        <v>3136</v>
+        <v>3118</v>
       </c>
       <c r="B1717" s="9" t="s">
-        <v>2820</v>
+        <v>495</v>
       </c>
       <c r="C1717" s="9" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
       <c r="A1718" s="9" t="s">
-        <v>3137</v>
+        <v>3120</v>
       </c>
       <c r="B1718" s="9" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C1718" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
       <c r="A1719" s="9" t="s">
-        <v>3138</v>
+        <v>3121</v>
       </c>
       <c r="B1719" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1719" s="9" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
       <c r="A1720" s="9" t="s">
-        <v>3140</v>
+        <v>3122</v>
       </c>
       <c r="B1720" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1720" s="9" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
       <c r="A1721" s="9" t="s">
-        <v>3141</v>
+        <v>3123</v>
       </c>
       <c r="B1721" s="9" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C1721" s="9" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
       <c r="A1722" s="9" t="s">
-        <v>3142</v>
+        <v>3124</v>
       </c>
       <c r="B1722" s="9" t="s">
-        <v>541</v>
+        <v>2818</v>
       </c>
       <c r="C1722" s="9" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
       <c r="A1723" s="9" t="s">
-        <v>3143</v>
+        <v>3125</v>
       </c>
       <c r="B1723" s="9" t="s">
-        <v>2842</v>
+        <v>507</v>
       </c>
       <c r="C1723" s="9" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
       <c r="A1724" s="9" t="s">
-        <v>3144</v>
+        <v>3127</v>
       </c>
       <c r="B1724" s="9" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="C1724" s="9" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
       <c r="A1725" s="9" t="s">
-        <v>3145</v>
+        <v>3128</v>
       </c>
       <c r="B1725" s="9" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C1725" s="9" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1726" spans="1:3">
       <c r="A1726" s="9" t="s">
-        <v>3146</v>
+        <v>3129</v>
       </c>
       <c r="B1726" s="9" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="C1726" s="9" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
       <c r="A1727" s="9" t="s">
-        <v>3147</v>
+        <v>3130</v>
       </c>
       <c r="B1727" s="9" t="s">
-        <v>2843</v>
+        <v>516</v>
       </c>
       <c r="C1727" s="9" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
       <c r="A1728" s="9" t="s">
-        <v>3148</v>
+        <v>3131</v>
       </c>
       <c r="B1728" s="9" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="C1728" s="9" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
       <c r="A1729" s="9" t="s">
-        <v>3149</v>
+        <v>3132</v>
       </c>
       <c r="B1729" s="9" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C1729" s="9" t="s">
-        <v>2950</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
       <c r="A1730" s="9" t="s">
-        <v>3150</v>
+        <v>3134</v>
       </c>
       <c r="B1730" s="9" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="C1730" s="9" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
       <c r="A1731" s="9" t="s">
-        <v>3151</v>
+        <v>3135</v>
       </c>
       <c r="B1731" s="9" t="s">
-        <v>560</v>
+        <v>2913</v>
       </c>
       <c r="C1731" s="9" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
       <c r="A1732" s="9" t="s">
-        <v>3152</v>
+        <v>3136</v>
       </c>
       <c r="B1732" s="9" t="s">
-        <v>565</v>
+        <v>2820</v>
       </c>
       <c r="C1732" s="9" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
       <c r="A1733" s="9" t="s">
-        <v>3153</v>
+        <v>3137</v>
       </c>
       <c r="B1733" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="C1733" s="9" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
       <c r="A1734" s="9" t="s">
-        <v>3154</v>
+        <v>3138</v>
       </c>
       <c r="B1734" s="9" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="C1734" s="9" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
       <c r="A1735" s="9" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="B1735" s="9" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C1735" s="9" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
       <c r="A1736" s="9" t="s">
-        <v>3157</v>
+        <v>3141</v>
       </c>
       <c r="B1736" s="9" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C1736" s="9" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
       <c r="A1737" s="9" t="s">
-        <v>3158</v>
+        <v>3142</v>
       </c>
       <c r="B1737" s="9" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="C1737" s="9" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
       <c r="A1738" s="9" t="s">
-        <v>3159</v>
+        <v>3143</v>
       </c>
       <c r="B1738" s="9" t="s">
-        <v>584</v>
+        <v>2842</v>
       </c>
       <c r="C1738" s="9" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
       <c r="A1739" s="9" t="s">
-        <v>3160</v>
+        <v>3144</v>
       </c>
       <c r="B1739" s="9" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C1739" s="9" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
       <c r="A1740" s="9" t="s">
-        <v>3161</v>
+        <v>3145</v>
       </c>
       <c r="B1740" s="9" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C1740" s="9" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
       <c r="A1741" s="9" t="s">
-        <v>3162</v>
+        <v>3146</v>
       </c>
       <c r="B1741" s="9" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="C1741" s="9" t="s">
-        <v>591</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
       <c r="A1742" s="9" t="s">
-        <v>3183</v>
+        <v>3147</v>
       </c>
       <c r="B1742" s="9" t="s">
-        <v>594</v>
+        <v>2843</v>
       </c>
       <c r="C1742" s="9" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
       <c r="A1743" s="9" t="s">
-        <v>3184</v>
+        <v>3148</v>
       </c>
       <c r="B1743" s="9" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C1743" s="9" t="s">
-        <v>5158</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
       <c r="A1744" s="9" t="s">
-        <v>3185</v>
+        <v>3149</v>
       </c>
       <c r="B1744" s="9" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="C1744" s="9" t="s">
-        <v>597</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
       <c r="A1745" s="9" t="s">
-        <v>3186</v>
+        <v>3150</v>
       </c>
       <c r="B1745" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1745" s="9" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
       <c r="A1746" s="9" t="s">
-        <v>3187</v>
+        <v>3151</v>
       </c>
       <c r="B1746" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1746" s="9" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
       <c r="A1747" s="9" t="s">
-        <v>3188</v>
+        <v>3152</v>
       </c>
       <c r="B1747" s="9" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="C1747" s="9" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
       <c r="A1748" s="9" t="s">
-        <v>3189</v>
+        <v>3153</v>
       </c>
       <c r="B1748" s="9" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="C1748" s="9" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
       <c r="A1749" s="9" t="s">
-        <v>3190</v>
+        <v>3154</v>
       </c>
       <c r="B1749" s="9" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="C1749" s="9" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
       <c r="A1750" s="9" t="s">
-        <v>3191</v>
+        <v>3155</v>
       </c>
       <c r="B1750" s="9" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="C1750" s="9" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
       <c r="A1751" s="9" t="s">
-        <v>3192</v>
+        <v>3157</v>
       </c>
       <c r="B1751" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1751" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
       <c r="A1752" s="9" t="s">
-        <v>3193</v>
+        <v>3158</v>
       </c>
       <c r="B1752" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1752" s="9" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
       <c r="A1753" s="9" t="s">
-        <v>3194</v>
+        <v>3159</v>
       </c>
       <c r="B1753" s="9" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C1753" s="9" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
       <c r="A1754" s="9" t="s">
-        <v>3195</v>
+        <v>3160</v>
       </c>
       <c r="B1754" s="9" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="C1754" s="9" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755" s="9" t="s">
-        <v>3196</v>
+        <v>3161</v>
       </c>
       <c r="B1755" s="9" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="C1755" s="9" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
       <c r="A1756" s="9" t="s">
-        <v>3197</v>
+        <v>3162</v>
       </c>
       <c r="B1756" s="9" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="C1756" s="9" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
       <c r="A1757" s="9" t="s">
-        <v>3198</v>
+        <v>3183</v>
       </c>
       <c r="B1757" s="9" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C1757" s="9" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
       <c r="A1758" s="9" t="s">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="B1758" s="9" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="C1758" s="9" t="s">
-        <v>630</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
       <c r="A1759" s="9" t="s">
-        <v>3200</v>
+        <v>3185</v>
       </c>
       <c r="B1759" s="9" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="C1759" s="9" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
       <c r="A1760" s="9" t="s">
-        <v>3201</v>
+        <v>3186</v>
       </c>
       <c r="B1760" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1760" s="9" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
       <c r="A1761" s="9" t="s">
-        <v>3202</v>
+        <v>3187</v>
       </c>
       <c r="B1761" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1761" s="9" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
       <c r="A1762" s="9" t="s">
-        <v>3203</v>
+        <v>3188</v>
       </c>
       <c r="B1762" s="9" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C1762" s="9" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
       <c r="A1763" s="9" t="s">
-        <v>3204</v>
+        <v>3189</v>
       </c>
       <c r="B1763" s="9" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C1763" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
       <c r="A1764" s="9" t="s">
-        <v>3205</v>
+        <v>3190</v>
       </c>
       <c r="B1764" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C1764" s="12" t="s">
-        <v>917</v>
+        <v>608</v>
+      </c>
+      <c r="C1764" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
       <c r="A1765" s="9" t="s">
-        <v>3206</v>
+        <v>3191</v>
       </c>
       <c r="B1765" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1765" s="12" t="s">
-        <v>466</v>
+        <v>608</v>
+      </c>
+      <c r="C1765" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
       <c r="A1766" s="9" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1766" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="C1766" s="12" t="s">
-        <v>920</v>
+        <v>608</v>
+      </c>
+      <c r="C1766" s="9" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
       <c r="A1767" s="9" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="B1767" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="C1767" s="14" t="s">
-        <v>922</v>
+        <v>608</v>
+      </c>
+      <c r="C1767" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
       <c r="A1768" s="9" t="s">
-        <v>3209</v>
+        <v>3194</v>
       </c>
       <c r="B1768" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="C1768" s="12" t="s">
-        <v>924</v>
+        <v>608</v>
+      </c>
+      <c r="C1768" s="9" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
       <c r="A1769" s="9" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="B1769" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1769" s="14" t="s">
-        <v>926</v>
+        <v>615</v>
+      </c>
+      <c r="C1769" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
       <c r="A1770" s="9" t="s">
-        <v>3211</v>
+        <v>3196</v>
       </c>
       <c r="B1770" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C1770" s="12" t="s">
-        <v>928</v>
+        <v>618</v>
+      </c>
+      <c r="C1770" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
       <c r="A1771" s="9" t="s">
-        <v>3212</v>
+        <v>3197</v>
       </c>
       <c r="B1771" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C1771" s="12" t="s">
-        <v>930</v>
+        <v>624</v>
+      </c>
+      <c r="C1771" s="9" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
       <c r="A1772" s="9" t="s">
-        <v>3213</v>
+        <v>3198</v>
       </c>
       <c r="B1772" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="C1772" s="12" t="s">
-        <v>932</v>
+        <v>626</v>
+      </c>
+      <c r="C1772" s="9" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
       <c r="A1773" s="9" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="B1773" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1773" s="14" t="s">
-        <v>934</v>
+        <v>628</v>
+      </c>
+      <c r="C1773" s="9" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
       <c r="A1774" s="9" t="s">
-        <v>3215</v>
+        <v>3200</v>
       </c>
       <c r="B1774" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1774" s="14" t="s">
-        <v>935</v>
+        <v>636</v>
+      </c>
+      <c r="C1774" s="9" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
       <c r="A1775" s="9" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1775" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1775" s="14" t="s">
-        <v>936</v>
+        <v>638</v>
+      </c>
+      <c r="C1775" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
       <c r="A1776" s="9" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B1776" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1776" s="12" t="s">
-        <v>938</v>
+        <v>3202</v>
+      </c>
+      <c r="B1776" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1776" s="9" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
       <c r="A1777" s="9" t="s">
-        <v>3218</v>
+        <v>3203</v>
       </c>
       <c r="B1777" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1777" s="12" t="s">
-        <v>940</v>
+        <v>642</v>
+      </c>
+      <c r="C1777" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
       <c r="A1778" s="9" t="s">
-        <v>3219</v>
+        <v>3204</v>
       </c>
       <c r="B1778" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="C1778" s="12" t="s">
-        <v>942</v>
+        <v>644</v>
+      </c>
+      <c r="C1778" s="9" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
       <c r="A1779" s="9" t="s">
-        <v>3220</v>
+        <v>3205</v>
       </c>
       <c r="B1779" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="C1779" s="14" t="s">
-        <v>944</v>
+        <v>916</v>
+      </c>
+      <c r="C1779" s="12" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
       <c r="A1780" s="9" t="s">
-        <v>3221</v>
+        <v>3206</v>
       </c>
       <c r="B1780" s="9" t="s">
-        <v>4953</v>
-      </c>
-      <c r="C1780" s="9" t="s">
-        <v>945</v>
+        <v>918</v>
+      </c>
+      <c r="C1780" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
       <c r="A1781" s="9" t="s">
-        <v>3222</v>
+        <v>3207</v>
       </c>
       <c r="B1781" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C1781" s="14" t="s">
-        <v>947</v>
+        <v>919</v>
+      </c>
+      <c r="C1781" s="12" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
       <c r="A1782" s="9" t="s">
-        <v>3223</v>
+        <v>3208</v>
       </c>
       <c r="B1782" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1782" s="12" t="s">
-        <v>949</v>
+        <v>921</v>
+      </c>
+      <c r="C1782" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
       <c r="A1783" s="9" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="B1783" s="9" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="C1783" s="12" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
       <c r="A1784" s="9" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="B1784" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1784" s="12" t="s">
-        <v>951</v>
+        <v>925</v>
+      </c>
+      <c r="C1784" s="14" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
       <c r="A1785" s="9" t="s">
-        <v>3226</v>
+        <v>3211</v>
       </c>
       <c r="B1785" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1785" s="14" t="s">
-        <v>953</v>
+        <v>927</v>
+      </c>
+      <c r="C1785" s="12" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
       <c r="A1786" s="9" t="s">
-        <v>3227</v>
+        <v>3212</v>
       </c>
       <c r="B1786" s="9" t="s">
-        <v>2833</v>
+        <v>929</v>
       </c>
       <c r="C1786" s="12" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
       <c r="A1787" s="9" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1787" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1787" s="14" t="s">
-        <v>955</v>
+        <v>931</v>
+      </c>
+      <c r="C1787" s="12" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
       <c r="A1788" s="9" t="s">
-        <v>3229</v>
+        <v>3214</v>
       </c>
       <c r="B1788" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1788" s="12" t="s">
-        <v>957</v>
+        <v>933</v>
+      </c>
+      <c r="C1788" s="14" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
       <c r="A1789" s="9" t="s">
-        <v>3230</v>
+        <v>3215</v>
       </c>
       <c r="B1789" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1789" s="12" t="s">
-        <v>958</v>
+        <v>933</v>
+      </c>
+      <c r="C1789" s="14" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
       <c r="A1790" s="9" t="s">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="B1790" s="9" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C1790" s="12" t="s">
-        <v>959</v>
+        <v>933</v>
+      </c>
+      <c r="C1790" s="14" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
       <c r="A1791" s="9" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B1791" s="9" t="s">
-        <v>960</v>
+        <v>3217</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>937</v>
       </c>
       <c r="C1791" s="12" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792" s="9" t="s">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="B1792" s="9" t="s">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="C1792" s="12" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="9" t="s">
-        <v>3234</v>
+        <v>3219</v>
       </c>
       <c r="B1793" s="9" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C1793" s="14" t="s">
-        <v>963</v>
+        <v>941</v>
+      </c>
+      <c r="C1793" s="12" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="9" t="s">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="B1794" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1794" s="12" t="s">
-        <v>964</v>
+        <v>943</v>
+      </c>
+      <c r="C1794" s="14" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="9" t="s">
-        <v>5159</v>
+        <v>3221</v>
       </c>
       <c r="B1795" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1795" s="12" t="s">
-        <v>966</v>
+        <v>4953</v>
+      </c>
+      <c r="C1795" s="9" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="9" t="s">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="B1796" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="C1796" s="12" t="s">
-        <v>968</v>
+        <v>946</v>
+      </c>
+      <c r="C1796" s="14" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="9" t="s">
-        <v>3237</v>
+        <v>3223</v>
       </c>
       <c r="B1797" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1797" s="14" t="s">
-        <v>969</v>
+        <v>948</v>
+      </c>
+      <c r="C1797" s="12" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
       <c r="A1798" s="9" t="s">
-        <v>3238</v>
+        <v>3224</v>
       </c>
       <c r="B1798" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1798" s="14" t="s">
-        <v>970</v>
+        <v>948</v>
+      </c>
+      <c r="C1798" s="12" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
       <c r="A1799" s="9" t="s">
-        <v>3239</v>
+        <v>3225</v>
       </c>
       <c r="B1799" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1799" s="14" t="s">
-        <v>972</v>
+        <v>948</v>
+      </c>
+      <c r="C1799" s="12" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
       <c r="A1800" s="9" t="s">
-        <v>3240</v>
+        <v>3226</v>
       </c>
       <c r="B1800" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1800" s="12" t="s">
-        <v>974</v>
+        <v>952</v>
+      </c>
+      <c r="C1800" s="14" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
       <c r="A1801" s="9" t="s">
-        <v>3241</v>
+        <v>3227</v>
       </c>
       <c r="B1801" s="9" t="s">
-        <v>973</v>
+        <v>2833</v>
       </c>
       <c r="C1801" s="12" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="9" t="s">
-        <v>3242</v>
+        <v>3228</v>
       </c>
       <c r="B1802" s="9" t="s">
-        <v>952</v>
+        <v>2826</v>
       </c>
       <c r="C1802" s="14" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="9" t="s">
-        <v>3243</v>
+        <v>3229</v>
       </c>
       <c r="B1803" s="9" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C1803" s="12" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
       <c r="A1804" s="9" t="s">
-        <v>3244</v>
+        <v>3230</v>
       </c>
       <c r="B1804" s="9" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="C1804" s="12" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
       <c r="A1805" s="9" t="s">
-        <v>3245</v>
+        <v>3231</v>
       </c>
       <c r="B1805" s="9" t="s">
-        <v>981</v>
+        <v>2845</v>
       </c>
       <c r="C1805" s="12" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="9" t="s">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="B1806" s="9" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C1806" s="12" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="9" t="s">
-        <v>3247</v>
+        <v>3233</v>
       </c>
       <c r="B1807" s="9" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="C1807" s="12" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
       <c r="A1808" s="9" t="s">
-        <v>3248</v>
+        <v>3234</v>
       </c>
       <c r="B1808" s="9" t="s">
-        <v>952</v>
+        <v>2829</v>
       </c>
       <c r="C1808" s="14" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
       <c r="A1809" s="9" t="s">
-        <v>3249</v>
+        <v>3235</v>
       </c>
       <c r="B1809" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1809" s="14" t="s">
-        <v>989</v>
+        <v>956</v>
+      </c>
+      <c r="C1809" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
       <c r="A1810" s="9" t="s">
-        <v>3250</v>
+        <v>5159</v>
       </c>
       <c r="B1810" s="9" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="C1810" s="12" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
       <c r="A1811" s="9" t="s">
-        <v>3251</v>
+        <v>3236</v>
       </c>
       <c r="B1811" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="C1811" s="14" t="s">
-        <v>993</v>
+        <v>967</v>
+      </c>
+      <c r="C1811" s="12" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
       <c r="A1812" s="9" t="s">
-        <v>3252</v>
+        <v>3237</v>
       </c>
       <c r="B1812" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1812" s="12" t="s">
-        <v>994</v>
+        <v>933</v>
+      </c>
+      <c r="C1812" s="14" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
       <c r="A1813" s="9" t="s">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="B1813" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1813" s="12" t="s">
-        <v>996</v>
+        <v>933</v>
+      </c>
+      <c r="C1813" s="14" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814" s="9" t="s">
-        <v>3254</v>
+        <v>3239</v>
       </c>
       <c r="B1814" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1814" s="12" t="s">
-        <v>997</v>
+        <v>971</v>
+      </c>
+      <c r="C1814" s="14" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
       <c r="A1815" s="9" t="s">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="B1815" s="9" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C1815" s="12" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
       <c r="A1816" s="9" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B1816" s="12" t="s">
-        <v>1002</v>
+        <v>3241</v>
+      </c>
+      <c r="B1816" s="9" t="s">
+        <v>973</v>
       </c>
       <c r="C1816" s="12" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
       <c r="A1817" s="9" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="B1817" s="9" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C1817" s="12" t="s">
-        <v>1005</v>
+        <v>952</v>
+      </c>
+      <c r="C1817" s="14" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
       <c r="A1818" s="9" t="s">
-        <v>3258</v>
+        <v>3243</v>
       </c>
       <c r="B1818" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C1818" s="14" t="s">
-        <v>1008</v>
+        <v>977</v>
+      </c>
+      <c r="C1818" s="12" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
       <c r="A1819" s="9" t="s">
-        <v>3259</v>
+        <v>3244</v>
       </c>
       <c r="B1819" s="9" t="s">
-        <v>2836</v>
+        <v>979</v>
       </c>
       <c r="C1819" s="12" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
       <c r="A1820" s="9" t="s">
-        <v>3260</v>
+        <v>3245</v>
       </c>
       <c r="B1820" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1820" s="14" t="s">
-        <v>1010</v>
+        <v>981</v>
+      </c>
+      <c r="C1820" s="12" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
       <c r="A1821" s="9" t="s">
-        <v>3261</v>
+        <v>3246</v>
       </c>
       <c r="B1821" s="9" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C1821" s="14" t="s">
-        <v>1011</v>
+        <v>984</v>
+      </c>
+      <c r="C1821" s="12" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822" s="9" t="s">
-        <v>3262</v>
+        <v>3247</v>
       </c>
       <c r="B1822" s="9" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="C1822" s="12" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
       <c r="A1823" s="9" t="s">
-        <v>3263</v>
+        <v>3248</v>
       </c>
       <c r="B1823" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1823" s="14" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
       <c r="A1824" s="9" t="s">
-        <v>3264</v>
+        <v>3249</v>
       </c>
       <c r="B1824" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1824" s="14" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
       <c r="A1825" s="9" t="s">
-        <v>3265</v>
+        <v>3250</v>
       </c>
       <c r="B1825" s="9" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="C1825" s="12" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="9" t="s">
-        <v>3266</v>
+        <v>3251</v>
       </c>
       <c r="B1826" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C1826" s="12" t="s">
-        <v>1020</v>
+        <v>992</v>
+      </c>
+      <c r="C1826" s="14" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="9" t="s">
-        <v>3267</v>
+        <v>3252</v>
       </c>
       <c r="B1827" s="9" t="s">
-        <v>1019</v>
+        <v>960</v>
       </c>
       <c r="C1827" s="12" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828" s="9" t="s">
-        <v>3268</v>
+        <v>3253</v>
       </c>
       <c r="B1828" s="9" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="C1828" s="12" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
       <c r="A1829" s="9" t="s">
-        <v>3269</v>
+        <v>3254</v>
       </c>
       <c r="B1829" s="9" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="C1829" s="12" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
       <c r="A1830" s="9" t="s">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="B1830" s="9" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="C1830" s="12" t="s">
-        <v>630</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831" s="9" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B1831" s="9" t="s">
-        <v>1026</v>
+        <v>3256</v>
+      </c>
+      <c r="B1831" s="12" t="s">
+        <v>1002</v>
       </c>
       <c r="C1831" s="12" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="9" t="s">
-        <v>3272</v>
+        <v>3257</v>
       </c>
       <c r="B1832" s="9" t="s">
-        <v>1028</v>
+        <v>2841</v>
       </c>
       <c r="C1832" s="12" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="9" t="s">
-        <v>3273</v>
+        <v>3258</v>
       </c>
       <c r="B1833" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C1833" s="12" t="s">
-        <v>1030</v>
+        <v>1006</v>
+      </c>
+      <c r="C1833" s="14" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="9" t="s">
-        <v>3274</v>
+        <v>3259</v>
       </c>
       <c r="B1834" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C1834" s="14" t="s">
-        <v>1032</v>
+        <v>2836</v>
+      </c>
+      <c r="C1834" s="12" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="9" t="s">
-        <v>3275</v>
+        <v>3260</v>
       </c>
       <c r="B1835" s="9" t="s">
-        <v>1031</v>
+        <v>925</v>
       </c>
       <c r="C1835" s="14" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="9" t="s">
-        <v>3276</v>
+        <v>3261</v>
       </c>
       <c r="B1836" s="9" t="s">
-        <v>1031</v>
+        <v>2831</v>
       </c>
       <c r="C1836" s="14" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="9" t="s">
-        <v>3277</v>
+        <v>3262</v>
       </c>
       <c r="B1837" s="9" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="C1837" s="12" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="9" t="s">
-        <v>3278</v>
+        <v>3263</v>
       </c>
       <c r="B1838" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C1838" s="12" t="s">
-        <v>1038</v>
+        <v>861</v>
+      </c>
+      <c r="C1838" s="14" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839" s="9" t="s">
-        <v>3279</v>
+        <v>3264</v>
       </c>
       <c r="B1839" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C1839" s="9" t="s">
-        <v>1040</v>
+        <v>861</v>
+      </c>
+      <c r="C1839" s="14" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
       <c r="A1840" s="9" t="s">
-        <v>3280</v>
+        <v>3265</v>
       </c>
       <c r="B1840" s="9" t="s">
-        <v>2840</v>
+        <v>1016</v>
       </c>
       <c r="C1840" s="12" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
       <c r="A1841" s="9" t="s">
-        <v>3281</v>
+        <v>3266</v>
       </c>
       <c r="B1841" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C1841" s="14" t="s">
-        <v>1043</v>
+        <v>1019</v>
+      </c>
+      <c r="C1841" s="12" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
       <c r="A1842" s="9" t="s">
-        <v>3282</v>
+        <v>3267</v>
       </c>
       <c r="B1842" s="9" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="C1842" s="12" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
       <c r="A1843" s="9" t="s">
-        <v>3283</v>
+        <v>3268</v>
       </c>
       <c r="B1843" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1843" s="14" t="s">
-        <v>1046</v>
+        <v>1019</v>
+      </c>
+      <c r="C1843" s="12" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
       <c r="A1844" s="9" t="s">
-        <v>3284</v>
+        <v>3269</v>
       </c>
       <c r="B1844" s="9" t="s">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="C1844" s="12" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
       <c r="A1845" s="9" t="s">
-        <v>3285</v>
+        <v>3270</v>
       </c>
       <c r="B1845" s="9" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
       <c r="C1845" s="12" t="s">
-        <v>1048</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
       <c r="A1846" s="9" t="s">
-        <v>3286</v>
+        <v>3271</v>
       </c>
       <c r="B1846" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1846" s="14" t="s">
-        <v>1049</v>
+        <v>1026</v>
+      </c>
+      <c r="C1846" s="12" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
       <c r="A1847" s="9" t="s">
-        <v>3287</v>
+        <v>3272</v>
       </c>
       <c r="B1847" s="9" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="C1847" s="12" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1848" spans="1:3">
       <c r="A1848" s="9" t="s">
-        <v>3288</v>
+        <v>3273</v>
       </c>
       <c r="B1848" s="9" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="C1848" s="12" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849" s="9" t="s">
-        <v>3289</v>
+        <v>3274</v>
       </c>
       <c r="B1849" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1849" s="12" t="s">
-        <v>1055</v>
+        <v>1031</v>
+      </c>
+      <c r="C1849" s="14" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
       <c r="A1850" s="9" t="s">
-        <v>3290</v>
+        <v>3275</v>
       </c>
       <c r="B1850" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1850" s="12" t="s">
-        <v>1057</v>
+        <v>1031</v>
+      </c>
+      <c r="C1850" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851" s="9" t="s">
-        <v>3291</v>
+        <v>3276</v>
       </c>
       <c r="B1851" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1851" s="12" t="s">
-        <v>1058</v>
+        <v>1031</v>
+      </c>
+      <c r="C1851" s="14" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
       <c r="A1852" s="9" t="s">
-        <v>3292</v>
+        <v>3277</v>
       </c>
       <c r="B1852" s="9" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C1852" s="12" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
       <c r="A1853" s="9" t="s">
-        <v>3293</v>
+        <v>3278</v>
       </c>
       <c r="B1853" s="9" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="C1853" s="12" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
       <c r="A1854" s="9" t="s">
-        <v>3294</v>
+        <v>3279</v>
       </c>
       <c r="B1854" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C1854" s="12" t="s">
-        <v>1062</v>
+        <v>1039</v>
+      </c>
+      <c r="C1854" s="9" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855" s="9" t="s">
-        <v>3295</v>
+        <v>3280</v>
       </c>
       <c r="B1855" s="9" t="s">
-        <v>1063</v>
+        <v>2840</v>
       </c>
       <c r="C1855" s="12" t="s">
-        <v>501</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
       <c r="A1856" s="9" t="s">
-        <v>3296</v>
-      </c>
-      <c r="B1856" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1856" s="12" t="s">
-        <v>515</v>
+        <v>3281</v>
+      </c>
+      <c r="B1856" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1856" s="14" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857" s="9" t="s">
-        <v>3297</v>
+        <v>3282</v>
       </c>
       <c r="B1857" s="9" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C1857" s="12" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
       <c r="A1858" s="9" t="s">
-        <v>3298</v>
+        <v>3283</v>
       </c>
       <c r="B1858" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1858" s="12" t="s">
-        <v>1068</v>
+        <v>933</v>
+      </c>
+      <c r="C1858" s="14" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
       <c r="A1859" s="9" t="s">
-        <v>3299</v>
+        <v>3284</v>
       </c>
       <c r="B1859" s="9" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="C1859" s="12" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
       <c r="A1860" s="9" t="s">
-        <v>3300</v>
+        <v>3285</v>
       </c>
       <c r="B1860" s="9" t="s">
-        <v>1071</v>
+        <v>986</v>
       </c>
       <c r="C1860" s="12" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
       <c r="A1861" s="9" t="s">
-        <v>3301</v>
+        <v>3286</v>
       </c>
       <c r="B1861" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1861" s="12" t="s">
-        <v>1073</v>
+        <v>971</v>
+      </c>
+      <c r="C1861" s="14" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
       <c r="A1862" s="9" t="s">
-        <v>3302</v>
+        <v>3287</v>
       </c>
       <c r="B1862" s="9" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="C1862" s="12" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
       <c r="A1863" s="9" t="s">
-        <v>3303</v>
+        <v>3288</v>
       </c>
       <c r="B1863" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1863" s="9" t="s">
-        <v>1076</v>
+        <v>1052</v>
+      </c>
+      <c r="C1863" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
       <c r="A1864" s="9" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="B1864" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1864" s="9" t="s">
-        <v>1077</v>
+        <v>965</v>
+      </c>
+      <c r="C1864" s="12" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865" s="9" t="s">
-        <v>3305</v>
+        <v>3290</v>
       </c>
       <c r="B1865" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1865" s="12" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
       <c r="A1866" s="9" t="s">
-        <v>3306</v>
+        <v>3291</v>
       </c>
       <c r="B1866" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1866" s="12" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
       <c r="A1867" s="9" t="s">
-        <v>3307</v>
+        <v>3292</v>
       </c>
       <c r="B1867" s="9" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="C1867" s="12" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
       <c r="A1868" s="9" t="s">
-        <v>3308</v>
+        <v>3293</v>
       </c>
       <c r="B1868" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1868" s="14" t="s">
-        <v>1083</v>
+        <v>1050</v>
+      </c>
+      <c r="C1868" s="12" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
       <c r="A1869" s="9" t="s">
-        <v>3309</v>
+        <v>3294</v>
       </c>
       <c r="B1869" s="9" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="C1869" s="12" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
       <c r="A1870" s="9" t="s">
-        <v>3310</v>
+        <v>3295</v>
       </c>
       <c r="B1870" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1870" s="14" t="s">
-        <v>1088</v>
+        <v>1063</v>
+      </c>
+      <c r="C1870" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
       <c r="A1871" s="9" t="s">
-        <v>3311</v>
-      </c>
-      <c r="B1871" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C1871" s="14" t="s">
-        <v>1090</v>
+        <v>3296</v>
+      </c>
+      <c r="B1871" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1871" s="12" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
       <c r="A1872" s="9" t="s">
-        <v>3312</v>
+        <v>3297</v>
       </c>
       <c r="B1872" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1872" s="9" t="s">
-        <v>1091</v>
+        <v>1065</v>
+      </c>
+      <c r="C1872" s="12" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="9" t="s">
-        <v>3313</v>
+        <v>3298</v>
       </c>
       <c r="B1873" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1873" s="14" t="s">
-        <v>1093</v>
+        <v>1067</v>
+      </c>
+      <c r="C1873" s="12" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
       <c r="A1874" s="9" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B1874" s="12" t="s">
-        <v>1094</v>
+        <v>3299</v>
+      </c>
+      <c r="B1874" s="9" t="s">
+        <v>1069</v>
       </c>
       <c r="C1874" s="12" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875" s="9" t="s">
-        <v>3315</v>
+        <v>3300</v>
       </c>
       <c r="B1875" s="9" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="C1875" s="12" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
       <c r="A1876" s="9" t="s">
-        <v>3316</v>
+        <v>3301</v>
       </c>
       <c r="B1876" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C1876" s="14" t="s">
-        <v>1099</v>
+        <v>1071</v>
+      </c>
+      <c r="C1876" s="12" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
       <c r="A1877" s="9" t="s">
-        <v>3317</v>
+        <v>3302</v>
       </c>
       <c r="B1877" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C1877" s="14" t="s">
-        <v>1101</v>
+        <v>1074</v>
+      </c>
+      <c r="C1877" s="12" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
       <c r="A1878" s="9" t="s">
-        <v>3318</v>
+        <v>3303</v>
       </c>
       <c r="B1878" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1878" s="12" t="s">
-        <v>1103</v>
+        <v>2024</v>
+      </c>
+      <c r="C1878" s="9" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
       <c r="A1879" s="9" t="s">
-        <v>3319</v>
+        <v>3304</v>
       </c>
       <c r="B1879" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C1879" s="14" t="s">
-        <v>1105</v>
+        <v>2024</v>
+      </c>
+      <c r="C1879" s="9" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
       <c r="A1880" s="9" t="s">
-        <v>3320</v>
+        <v>3305</v>
       </c>
       <c r="B1880" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1880" s="14" t="s">
-        <v>1109</v>
+        <v>1078</v>
+      </c>
+      <c r="C1880" s="12" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
       <c r="A1881" s="9" t="s">
-        <v>3321</v>
+        <v>3306</v>
       </c>
       <c r="B1881" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1881" s="14" t="s">
-        <v>1110</v>
+        <v>1078</v>
+      </c>
+      <c r="C1881" s="12" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
       <c r="A1882" s="9" t="s">
-        <v>3322</v>
+        <v>3307</v>
       </c>
       <c r="B1882" s="9" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="C1882" s="12" t="s">
-        <v>1112</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
       <c r="A1883" s="9" t="s">
-        <v>3323</v>
+        <v>3308</v>
       </c>
       <c r="B1883" s="9" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C1883" s="12" t="s">
-        <v>1113</v>
+        <v>1081</v>
+      </c>
+      <c r="C1883" s="14" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
       <c r="A1884" s="9" t="s">
-        <v>3324</v>
+        <v>3309</v>
       </c>
       <c r="B1884" s="9" t="s">
-        <v>1114</v>
+        <v>1084</v>
       </c>
       <c r="C1884" s="12" t="s">
-        <v>1115</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
       <c r="A1885" s="9" t="s">
-        <v>3325</v>
+        <v>3310</v>
       </c>
       <c r="B1885" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C1885" s="12" t="s">
-        <v>1117</v>
+        <v>1087</v>
+      </c>
+      <c r="C1885" s="14" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
       <c r="A1886" s="9" t="s">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="B1886" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C1886" s="12" t="s">
-        <v>1119</v>
+        <v>1089</v>
+      </c>
+      <c r="C1886" s="14" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
       <c r="A1887" s="9" t="s">
-        <v>3327</v>
+        <v>3312</v>
       </c>
       <c r="B1887" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1887" s="12" t="s">
-        <v>1121</v>
+        <v>649</v>
+      </c>
+      <c r="C1887" s="9" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
       <c r="A1888" s="9" t="s">
-        <v>3328</v>
+        <v>3313</v>
       </c>
       <c r="B1888" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1888" s="12" t="s">
-        <v>1122</v>
+        <v>1092</v>
+      </c>
+      <c r="C1888" s="14" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
       <c r="A1889" s="9" t="s">
-        <v>3329</v>
-      </c>
-      <c r="B1889" s="9" t="s">
-        <v>1124</v>
+        <v>3314</v>
+      </c>
+      <c r="B1889" s="12" t="s">
+        <v>1094</v>
       </c>
       <c r="C1889" s="12" t="s">
-        <v>1125</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
       <c r="A1890" s="9" t="s">
-        <v>3330</v>
+        <v>3315</v>
       </c>
       <c r="B1890" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1890" s="14" t="s">
-        <v>1130</v>
+        <v>1096</v>
+      </c>
+      <c r="C1890" s="12" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
       <c r="A1891" s="9" t="s">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="B1891" s="9" t="s">
-        <v>2827</v>
+        <v>1098</v>
       </c>
       <c r="C1891" s="14" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
       <c r="A1892" s="9" t="s">
-        <v>3332</v>
+        <v>3317</v>
       </c>
       <c r="B1892" s="9" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="C1892" s="14" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
       <c r="A1893" s="9" t="s">
-        <v>3333</v>
-      </c>
-      <c r="B1893" s="12" t="s">
-        <v>1135</v>
+        <v>3318</v>
+      </c>
+      <c r="B1893" s="9" t="s">
+        <v>1102</v>
       </c>
       <c r="C1893" s="12" t="s">
-        <v>88</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
       <c r="A1894" s="9" t="s">
-        <v>3334</v>
+        <v>3319</v>
       </c>
       <c r="B1894" s="9" t="s">
-        <v>2837</v>
-      </c>
-      <c r="C1894" s="12" t="s">
-        <v>1137</v>
+        <v>1104</v>
+      </c>
+      <c r="C1894" s="14" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
       <c r="A1895" s="9" t="s">
-        <v>3335</v>
+        <v>3320</v>
       </c>
       <c r="B1895" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C1895" s="12" t="s">
-        <v>1139</v>
+        <v>1108</v>
+      </c>
+      <c r="C1895" s="14" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
       <c r="A1896" s="9" t="s">
-        <v>3336</v>
+        <v>3321</v>
       </c>
       <c r="B1896" s="9" t="s">
-        <v>2830</v>
+        <v>662</v>
       </c>
       <c r="C1896" s="14" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
       <c r="A1897" s="9" t="s">
-        <v>3337</v>
+        <v>3322</v>
       </c>
       <c r="B1897" s="9" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C1897" s="14" t="s">
-        <v>1141</v>
+        <v>1111</v>
+      </c>
+      <c r="C1897" s="12" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
       <c r="A1898" s="9" t="s">
-        <v>3338</v>
+        <v>3323</v>
       </c>
       <c r="B1898" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C1898" s="14" t="s">
-        <v>1143</v>
+        <v>2844</v>
+      </c>
+      <c r="C1898" s="12" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
       <c r="A1899" s="9" t="s">
-        <v>3339</v>
+        <v>3324</v>
       </c>
       <c r="B1899" s="9" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="C1899" s="12" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
       <c r="A1900" s="9" t="s">
-        <v>3340</v>
+        <v>3325</v>
       </c>
       <c r="B1900" s="9" t="s">
-        <v>2835</v>
+        <v>1116</v>
       </c>
       <c r="C1900" s="12" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
       <c r="A1901" s="9" t="s">
-        <v>3341</v>
+        <v>3326</v>
       </c>
       <c r="B1901" s="9" t="s">
-        <v>1149</v>
+        <v>1118</v>
       </c>
       <c r="C1901" s="12" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
       <c r="A1902" s="9" t="s">
-        <v>3342</v>
+        <v>3327</v>
       </c>
       <c r="B1902" s="9" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="C1902" s="12" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
       <c r="A1903" s="9" t="s">
-        <v>3343</v>
+        <v>3328</v>
       </c>
       <c r="B1903" s="9" t="s">
-        <v>705</v>
+        <v>1120</v>
       </c>
       <c r="C1903" s="12" t="s">
-        <v>2938</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
       <c r="A1904" s="9" t="s">
-        <v>3344</v>
+        <v>3329</v>
       </c>
       <c r="B1904" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C1904" s="14" t="s">
-        <v>1153</v>
+        <v>1124</v>
+      </c>
+      <c r="C1904" s="12" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
       <c r="A1905" s="9" t="s">
-        <v>3345</v>
+        <v>3330</v>
       </c>
       <c r="B1905" s="9" t="s">
-        <v>1154</v>
+        <v>660</v>
       </c>
       <c r="C1905" s="14" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
       <c r="A1906" s="9" t="s">
-        <v>3346</v>
+        <v>3331</v>
       </c>
       <c r="B1906" s="9" t="s">
-        <v>1154</v>
+        <v>2827</v>
       </c>
       <c r="C1906" s="14" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
       <c r="A1907" s="9" t="s">
-        <v>3347</v>
-      </c>
-      <c r="B1907" s="12" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C1907" s="12" t="s">
-        <v>1159</v>
+        <v>3332</v>
+      </c>
+      <c r="B1907" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1907" s="14" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
       <c r="A1908" s="9" t="s">
-        <v>3348</v>
-      </c>
-      <c r="B1908" s="9" t="s">
-        <v>1138</v>
+        <v>3333</v>
+      </c>
+      <c r="B1908" s="12" t="s">
+        <v>1135</v>
       </c>
       <c r="C1908" s="12" t="s">
-        <v>1160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1909" spans="1:3">
       <c r="A1909" s="9" t="s">
-        <v>3349</v>
+        <v>3334</v>
       </c>
       <c r="B1909" s="9" t="s">
-        <v>1161</v>
+        <v>2837</v>
       </c>
       <c r="C1909" s="12" t="s">
-        <v>2935</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
       <c r="A1910" s="9" t="s">
-        <v>3350</v>
+        <v>3335</v>
       </c>
       <c r="B1910" s="9" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="C1910" s="12" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
       <c r="A1911" s="9" t="s">
-        <v>3351</v>
+        <v>3336</v>
       </c>
       <c r="B1911" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1911" s="12" t="s">
-        <v>1166</v>
+        <v>2830</v>
+      </c>
+      <c r="C1911" s="14" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
       <c r="A1912" s="9" t="s">
-        <v>3352</v>
+        <v>3337</v>
       </c>
       <c r="B1912" s="9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1912" s="12" t="s">
-        <v>1168</v>
+        <v>2828</v>
+      </c>
+      <c r="C1912" s="14" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
       <c r="A1913" s="9" t="s">
-        <v>3353</v>
+        <v>3338</v>
       </c>
       <c r="B1913" s="9" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="C1913" s="14" t="s">
-        <v>1170</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
       <c r="A1914" s="9" t="s">
-        <v>3354</v>
+        <v>3339</v>
       </c>
       <c r="B1914" s="9" t="s">
-        <v>1171</v>
+        <v>1144</v>
       </c>
       <c r="C1914" s="12" t="s">
-        <v>1172</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
       <c r="A1915" s="9" t="s">
-        <v>3355</v>
-      </c>
-      <c r="B1915" s="12" t="s">
-        <v>1173</v>
+        <v>3340</v>
+      </c>
+      <c r="B1915" s="9" t="s">
+        <v>2835</v>
       </c>
       <c r="C1915" s="12" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
       <c r="A1916" s="9" t="s">
-        <v>3356</v>
+        <v>3341</v>
       </c>
       <c r="B1916" s="9" t="s">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="C1916" s="12" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
       <c r="A1917" s="9" t="s">
-        <v>3357</v>
+        <v>3342</v>
       </c>
       <c r="B1917" s="9" t="s">
-        <v>1179</v>
+        <v>1151</v>
       </c>
       <c r="C1917" s="12" t="s">
-        <v>1180</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
       <c r="A1918" s="9" t="s">
-        <v>3358</v>
+        <v>3343</v>
       </c>
       <c r="B1918" s="9" t="s">
-        <v>2842</v>
+        <v>705</v>
       </c>
       <c r="C1918" s="12" t="s">
-        <v>1183</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
       <c r="A1919" s="9" t="s">
-        <v>3359</v>
+        <v>3344</v>
       </c>
       <c r="B1919" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C1919" s="12" t="s">
-        <v>1186</v>
+        <v>705</v>
+      </c>
+      <c r="C1919" s="14" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
       <c r="A1920" s="9" t="s">
-        <v>3360</v>
+        <v>3345</v>
       </c>
       <c r="B1920" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C1920" s="12" t="s">
-        <v>1190</v>
+        <v>1154</v>
+      </c>
+      <c r="C1920" s="14" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1921" spans="1:3">
       <c r="A1921" s="9" t="s">
-        <v>3361</v>
+        <v>3346</v>
       </c>
       <c r="B1921" s="9" t="s">
-        <v>2839</v>
-      </c>
-      <c r="C1921" s="12" t="s">
-        <v>1191</v>
+        <v>1154</v>
+      </c>
+      <c r="C1921" s="14" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1922" spans="1:3">
       <c r="A1922" s="9" t="s">
-        <v>3362</v>
-      </c>
-      <c r="B1922" s="9" t="s">
-        <v>1192</v>
+        <v>3347</v>
+      </c>
+      <c r="B1922" s="12" t="s">
+        <v>1158</v>
       </c>
       <c r="C1922" s="12" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
       <c r="A1923" s="9" t="s">
-        <v>3363</v>
+        <v>3348</v>
       </c>
       <c r="B1923" s="9" t="s">
-        <v>1194</v>
+        <v>1138</v>
       </c>
       <c r="C1923" s="12" t="s">
-        <v>1195</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
       <c r="A1924" s="9" t="s">
-        <v>3364</v>
+        <v>3349</v>
       </c>
       <c r="B1924" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1924" s="14" t="s">
-        <v>1197</v>
+        <v>1161</v>
+      </c>
+      <c r="C1924" s="12" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
       <c r="A1925" s="9" t="s">
-        <v>3365</v>
+        <v>3350</v>
       </c>
       <c r="B1925" s="9" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C1925" s="14" t="s">
-        <v>1198</v>
+        <v>1162</v>
+      </c>
+      <c r="C1925" s="12" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
       <c r="A1926" s="9" t="s">
-        <v>3366</v>
+        <v>3351</v>
       </c>
       <c r="B1926" s="9" t="s">
-        <v>1200</v>
+        <v>1165</v>
       </c>
       <c r="C1926" s="12" t="s">
-        <v>1201</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
       <c r="A1927" s="9" t="s">
-        <v>3367</v>
+        <v>3352</v>
       </c>
       <c r="B1927" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C1927" s="14" t="s">
-        <v>1203</v>
+        <v>1167</v>
+      </c>
+      <c r="C1927" s="12" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
       <c r="A1928" s="9" t="s">
-        <v>3368</v>
+        <v>3353</v>
       </c>
       <c r="B1928" s="9" t="s">
-        <v>1202</v>
+        <v>1169</v>
       </c>
       <c r="C1928" s="14" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
       <c r="A1929" s="9" t="s">
-        <v>3369</v>
+        <v>3354</v>
       </c>
       <c r="B1929" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C1929" s="14" t="s">
-        <v>1209</v>
+        <v>1171</v>
+      </c>
+      <c r="C1929" s="12" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
       <c r="A1930" s="9" t="s">
-        <v>3370</v>
-      </c>
-      <c r="B1930" s="9" t="s">
-        <v>1210</v>
+        <v>3355</v>
+      </c>
+      <c r="B1930" s="12" t="s">
+        <v>1173</v>
       </c>
       <c r="C1930" s="12" t="s">
-        <v>738</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
       <c r="A1931" s="9" t="s">
-        <v>3371</v>
+        <v>3356</v>
       </c>
       <c r="B1931" s="9" t="s">
-        <v>2838</v>
+        <v>1177</v>
       </c>
       <c r="C1931" s="12" t="s">
-        <v>1211</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
       <c r="A1932" s="9" t="s">
-        <v>3372</v>
+        <v>3357</v>
       </c>
       <c r="B1932" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1932" s="14" t="s">
-        <v>1213</v>
+        <v>1179</v>
+      </c>
+      <c r="C1932" s="12" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
       <c r="A1933" s="9" t="s">
-        <v>3373</v>
+        <v>3358</v>
       </c>
       <c r="B1933" s="9" t="s">
-        <v>1214</v>
+        <v>2842</v>
       </c>
       <c r="C1933" s="12" t="s">
-        <v>1215</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
       <c r="A1934" s="9" t="s">
-        <v>3374</v>
+        <v>3359</v>
       </c>
       <c r="B1934" s="9" t="s">
-        <v>2285</v>
+        <v>1185</v>
       </c>
       <c r="C1934" s="12" t="s">
-        <v>1216</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
       <c r="A1935" s="9" t="s">
-        <v>3375</v>
+        <v>3360</v>
       </c>
       <c r="B1935" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1935" s="14" t="s">
-        <v>1217</v>
+        <v>1189</v>
+      </c>
+      <c r="C1935" s="12" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
       <c r="A1936" s="9" t="s">
-        <v>3376</v>
+        <v>3361</v>
       </c>
       <c r="B1936" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1936" s="14" t="s">
-        <v>1218</v>
+        <v>2839</v>
+      </c>
+      <c r="C1936" s="12" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
       <c r="A1937" s="9" t="s">
-        <v>3377</v>
+        <v>3362</v>
       </c>
       <c r="B1937" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1937" s="14" t="s">
-        <v>1219</v>
+        <v>1192</v>
+      </c>
+      <c r="C1937" s="12" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
       <c r="A1938" s="9" t="s">
-        <v>3378</v>
+        <v>3363</v>
       </c>
       <c r="B1938" s="9" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C1938" s="14" t="s">
-        <v>1221</v>
+        <v>1194</v>
+      </c>
+      <c r="C1938" s="12" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
       <c r="A1939" s="9" t="s">
-        <v>3379</v>
+        <v>3364</v>
       </c>
       <c r="B1939" s="9" t="s">
-        <v>833</v>
+        <v>1196</v>
       </c>
       <c r="C1939" s="14" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
       <c r="A1940" s="9" t="s">
-        <v>3380</v>
+        <v>3365</v>
       </c>
       <c r="B1940" s="9" t="s">
-        <v>1225</v>
+        <v>2832</v>
       </c>
       <c r="C1940" s="14" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
       <c r="A1941" s="9" t="s">
-        <v>3381</v>
+        <v>3366</v>
       </c>
       <c r="B1941" s="9" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C1941" s="14" t="s">
-        <v>1227</v>
+        <v>1200</v>
+      </c>
+      <c r="C1941" s="12" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
       <c r="A1942" s="9" t="s">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="B1942" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C1942" s="12" t="s">
-        <v>1229</v>
+        <v>1202</v>
+      </c>
+      <c r="C1942" s="14" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
       <c r="A1943" s="9" t="s">
-        <v>3383</v>
+        <v>3368</v>
       </c>
       <c r="B1943" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1943" s="12" t="s">
-        <v>1230</v>
+        <v>1202</v>
+      </c>
+      <c r="C1943" s="14" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
       <c r="A1944" s="9" t="s">
-        <v>3384</v>
+        <v>3369</v>
       </c>
       <c r="B1944" s="9" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="C1944" s="14" t="s">
-        <v>419</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
       <c r="A1945" s="9" t="s">
-        <v>3385</v>
+        <v>3370</v>
       </c>
       <c r="B1945" s="9" t="s">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="C1945" s="12" t="s">
-        <v>1233</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
       <c r="A1946" s="9" t="s">
-        <v>3386</v>
+        <v>3371</v>
       </c>
       <c r="B1946" s="9" t="s">
-        <v>1000</v>
+        <v>2838</v>
       </c>
       <c r="C1946" s="12" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
       <c r="A1947" s="9" t="s">
-        <v>3387</v>
+        <v>3372</v>
       </c>
       <c r="B1947" s="9" t="s">
-        <v>925</v>
+        <v>1212</v>
       </c>
       <c r="C1947" s="14" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
       <c r="A1948" s="9" t="s">
-        <v>3388</v>
+        <v>3373</v>
       </c>
       <c r="B1948" s="9" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="C1948" s="12" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
       <c r="A1949" s="9" t="s">
-        <v>3389</v>
+        <v>3374</v>
       </c>
       <c r="B1949" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C1949" s="14" t="s">
-        <v>1239</v>
+        <v>2285</v>
+      </c>
+      <c r="C1949" s="12" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
       <c r="A1950" s="9" t="s">
-        <v>3390</v>
+        <v>3375</v>
       </c>
       <c r="B1950" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C1950" s="12" t="s">
-        <v>1241</v>
+        <v>872</v>
+      </c>
+      <c r="C1950" s="14" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
       <c r="A1951" s="9" t="s">
-        <v>3391</v>
+        <v>3376</v>
       </c>
       <c r="B1951" s="9" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="C1951" s="14" t="s">
-        <v>1242</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
       <c r="A1952" s="9" t="s">
-        <v>3392</v>
+        <v>3377</v>
       </c>
       <c r="B1952" s="9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C1952" s="12" t="s">
-        <v>1244</v>
+        <v>872</v>
+      </c>
+      <c r="C1952" s="14" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
       <c r="A1953" s="9" t="s">
-        <v>3393</v>
+        <v>3378</v>
       </c>
       <c r="B1953" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C1953" s="12" t="s">
-        <v>1245</v>
+        <v>1220</v>
+      </c>
+      <c r="C1953" s="14" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
       <c r="A1954" s="9" t="s">
-        <v>3394</v>
+        <v>3379</v>
       </c>
       <c r="B1954" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1954" s="12" t="s">
-        <v>1247</v>
+        <v>833</v>
+      </c>
+      <c r="C1954" s="14" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
       <c r="A1955" s="9" t="s">
-        <v>3395</v>
+        <v>3380</v>
       </c>
       <c r="B1955" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C1955" s="12" t="s">
-        <v>986</v>
+        <v>1225</v>
+      </c>
+      <c r="C1955" s="14" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
       <c r="A1956" s="9" t="s">
-        <v>3396</v>
+        <v>3381</v>
       </c>
       <c r="B1956" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1956" s="12" t="s">
-        <v>499</v>
+        <v>1225</v>
+      </c>
+      <c r="C1956" s="14" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
       <c r="A1957" s="9" t="s">
-        <v>3397</v>
+        <v>3382</v>
       </c>
       <c r="B1957" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1957" s="14" t="s">
-        <v>1248</v>
+        <v>1228</v>
+      </c>
+      <c r="C1957" s="12" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
       <c r="A1958" s="9" t="s">
-        <v>3398</v>
+        <v>3383</v>
       </c>
       <c r="B1958" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1958" s="14" t="s">
-        <v>1249</v>
+        <v>998</v>
+      </c>
+      <c r="C1958" s="12" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
       <c r="A1959" s="9" t="s">
-        <v>3399</v>
+        <v>3384</v>
       </c>
       <c r="B1959" s="9" t="s">
-        <v>933</v>
+        <v>1231</v>
       </c>
       <c r="C1959" s="14" t="s">
-        <v>1250</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
       <c r="A1960" s="9" t="s">
-        <v>3400</v>
+        <v>3385</v>
       </c>
       <c r="B1960" s="9" t="s">
-        <v>956</v>
+        <v>1232</v>
       </c>
       <c r="C1960" s="12" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
       <c r="A1961" s="9" t="s">
-        <v>3401</v>
+        <v>3386</v>
       </c>
       <c r="B1961" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1961" s="14" t="s">
-        <v>1252</v>
+        <v>1000</v>
+      </c>
+      <c r="C1961" s="12" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
       <c r="A1962" s="9" t="s">
-        <v>3402</v>
+        <v>3387</v>
       </c>
       <c r="B1962" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1962" s="12" t="s">
-        <v>1254</v>
+        <v>925</v>
+      </c>
+      <c r="C1962" s="14" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
       <c r="A1963" s="9" t="s">
-        <v>3403</v>
+        <v>3388</v>
       </c>
       <c r="B1963" s="9" t="s">
-        <v>1255</v>
+        <v>1236</v>
       </c>
       <c r="C1963" s="12" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
       <c r="A1964" s="9" t="s">
-        <v>3404</v>
+        <v>3389</v>
       </c>
       <c r="B1964" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1964" s="12" t="s">
-        <v>1257</v>
+        <v>1238</v>
+      </c>
+      <c r="C1964" s="14" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
       <c r="A1965" s="9" t="s">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="B1965" s="9" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="C1965" s="12" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
       <c r="A1966" s="9" t="s">
-        <v>3406</v>
+        <v>3391</v>
       </c>
       <c r="B1966" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C1966" s="12" t="s">
-        <v>1261</v>
+        <v>1006</v>
+      </c>
+      <c r="C1966" s="14" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
       <c r="A1967" s="9" t="s">
-        <v>3407</v>
+        <v>3392</v>
       </c>
       <c r="B1967" s="9" t="s">
-        <v>984</v>
+        <v>1243</v>
       </c>
       <c r="C1967" s="12" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
       <c r="A1968" s="9" t="s">
-        <v>3408</v>
+        <v>3393</v>
       </c>
       <c r="B1968" s="9" t="s">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="C1968" s="12" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
       <c r="A1969" s="9" t="s">
-        <v>3409</v>
+        <v>3394</v>
       </c>
       <c r="B1969" s="9" t="s">
-        <v>979</v>
+        <v>1246</v>
       </c>
       <c r="C1969" s="12" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
       <c r="A1970" s="9" t="s">
-        <v>3410</v>
+        <v>3395</v>
       </c>
       <c r="B1970" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C1970" s="14" t="s">
-        <v>1265</v>
+        <v>1421</v>
+      </c>
+      <c r="C1970" s="12" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
       <c r="A1971" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1971" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1971" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3">
+      <c r="A1972" s="9" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1972" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1972" s="14" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3">
+      <c r="A1973" s="9" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1973" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1973" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3">
+      <c r="A1974" s="9" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1974" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1974" s="14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3">
+      <c r="A1975" s="9" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1975" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1975" s="12" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3">
+      <c r="A1976" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1976" s="9" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1976" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3">
+      <c r="A1977" s="9" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1977" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1977" s="12" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3">
+      <c r="A1978" s="9" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1978" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1978" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3">
+      <c r="A1979" s="9" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1979" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1979" s="12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3">
+      <c r="A1980" s="9" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1980" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1980" s="12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3">
+      <c r="A1981" s="9" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1981" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1981" s="12" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3">
+      <c r="A1982" s="9" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1982" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1982" s="12" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3">
+      <c r="A1983" s="9" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1983" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1983" s="12" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3">
+      <c r="A1984" s="9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1984" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1984" s="12" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3">
+      <c r="A1985" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1985" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1985" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3">
+      <c r="A1986" s="9" t="s">
         <v>3411</v>
       </c>
-      <c r="B1971" s="9" t="s">
+      <c r="B1986" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C1971" s="14" t="s">
+      <c r="C1986" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1853">
-    <sortState ref="A2:C1895">
-      <sortCondition ref="A1:A1777"/>
+  <autoFilter ref="A1:C1868">
+    <sortState ref="A2:C1971">
+      <sortCondition ref="A1:A1853"/>
     </sortState>
   </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet 2'!$A$1:$D$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1868</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1883</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="5199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="5238">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -15617,6 +15617,123 @@
   </si>
   <si>
     <t>Young Hearts Run Free</t>
+  </si>
+  <si>
+    <t>Hounds of Love</t>
+  </si>
+  <si>
+    <t>Laura Branigan</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Only You</t>
+  </si>
+  <si>
+    <t>Bing Crosby &amp; David Bowie</t>
+  </si>
+  <si>
+    <t>Peace On Earth / Little Drummer Boy</t>
+  </si>
+  <si>
+    <t>Saint PHNX</t>
+  </si>
+  <si>
+    <t>Happy Place</t>
+  </si>
+  <si>
+    <t>The Kinks</t>
+  </si>
+  <si>
+    <t>Sunny Afternoon</t>
+  </si>
+  <si>
+    <t>Mr Blue Sky</t>
+  </si>
+  <si>
+    <t>Talking Heads</t>
+  </si>
+  <si>
+    <t>Burning Down The House</t>
+  </si>
+  <si>
+    <t>Fern Kinney</t>
+  </si>
+  <si>
+    <t>Together We Are Beautiful</t>
+  </si>
+  <si>
+    <t>Danny Wilson</t>
+  </si>
+  <si>
+    <t>Mary's Prayer</t>
+  </si>
+  <si>
+    <t>Newton Faulkner</t>
+  </si>
+  <si>
+    <t>Dream Catch Me</t>
+  </si>
+  <si>
+    <t>Roger Miller</t>
+  </si>
+  <si>
+    <t>King Of The Road</t>
+  </si>
+  <si>
+    <t>Next To Me</t>
+  </si>
+  <si>
+    <t>Frankie Miller</t>
+  </si>
+  <si>
+    <t>Darlin'</t>
+  </si>
+  <si>
+    <t>GP-0691</t>
+  </si>
+  <si>
+    <t>GP-0692</t>
+  </si>
+  <si>
+    <t>GP-0693</t>
+  </si>
+  <si>
+    <t>GP-0694</t>
+  </si>
+  <si>
+    <t>GP-0695</t>
+  </si>
+  <si>
+    <t>GP-0696</t>
+  </si>
+  <si>
+    <t>GP-0697</t>
+  </si>
+  <si>
+    <t>GP-0698</t>
+  </si>
+  <si>
+    <t>GP-0699</t>
+  </si>
+  <si>
+    <t>GP-0700</t>
+  </si>
+  <si>
+    <t>GP-0701</t>
+  </si>
+  <si>
+    <t>GP-0702</t>
+  </si>
+  <si>
+    <t>GP-0703</t>
+  </si>
+  <si>
+    <t>GP-0704</t>
+  </si>
+  <si>
+    <t>GP-0705</t>
   </si>
 </sst>
 </file>
@@ -16029,10 +16146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1986"/>
+  <dimension ref="A1:E2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1510" sqref="B1510"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -23506,7 +23623,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="31.5">
+    <row r="628" spans="1:3">
       <c r="A628" s="9" t="s">
         <v>4048</v>
       </c>
@@ -33325,5148 +33442,5308 @@
       </c>
     </row>
     <row r="1520" spans="1:3">
-      <c r="A1520" s="9" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B1520" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1520" s="9" t="s">
-        <v>1</v>
+      <c r="A1520" s="10" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B1520" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1520" s="16" t="s">
+        <v>5199</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
-      <c r="A1521" s="11" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B1521" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1521" s="9" t="s">
-        <v>8</v>
+      <c r="A1521" s="10" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B1521" s="16" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C1521" s="16" t="s">
+        <v>5201</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
-      <c r="A1522" s="9" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B1522" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1522" s="9" t="s">
-        <v>9</v>
+      <c r="A1522" s="10" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B1522" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1522" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
-      <c r="A1523" s="11" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B1523" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1523" s="9" t="s">
-        <v>10</v>
+      <c r="A1523" s="10" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B1523" s="16" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1523" s="16" t="s">
+        <v>5202</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
-      <c r="A1524" s="11" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B1524" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1524" s="9" t="s">
-        <v>12</v>
+      <c r="A1524" s="10" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B1524" s="16" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C1524" s="16" t="s">
+        <v>5204</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
-      <c r="A1525" s="9" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B1525" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1525" s="9" t="s">
-        <v>15</v>
+      <c r="A1525" s="10" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B1525" s="16" t="s">
+        <v>5205</v>
+      </c>
+      <c r="C1525" s="16" t="s">
+        <v>5206</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
-      <c r="A1526" s="9" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B1526" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1526" s="9" t="s">
-        <v>16</v>
+      <c r="A1526" s="10" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B1526" s="16" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C1526" s="16" t="s">
+        <v>5208</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
-      <c r="A1527" s="9" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B1527" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1527" s="9" t="s">
-        <v>17</v>
+      <c r="A1527" s="10" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B1527" s="16" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1527" s="16" t="s">
+        <v>5209</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
-      <c r="A1528" s="9" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B1528" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1528" s="9" t="s">
-        <v>20</v>
+      <c r="A1528" s="10" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B1528" s="16" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C1528" s="16" t="s">
+        <v>5211</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
-      <c r="A1529" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B1529" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1529" s="9" t="s">
-        <v>24</v>
+      <c r="A1529" s="10" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B1529" s="16" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C1529" s="16" t="s">
+        <v>5213</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
-      <c r="A1530" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1530" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1530" s="9" t="s">
-        <v>28</v>
+      <c r="A1530" s="10" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B1530" s="16" t="s">
+        <v>5214</v>
+      </c>
+      <c r="C1530" s="16" t="s">
+        <v>5215</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
-      <c r="A1531" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B1531" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1531" s="9" t="s">
-        <v>31</v>
+      <c r="A1531" s="10" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B1531" s="16" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C1531" s="16" t="s">
+        <v>5217</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
-      <c r="A1532" s="9" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B1532" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1532" s="9" t="s">
-        <v>33</v>
+      <c r="A1532" s="10" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B1532" s="16" t="s">
+        <v>5218</v>
+      </c>
+      <c r="C1532" s="16" t="s">
+        <v>5219</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
-      <c r="A1533" s="9" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B1533" s="9" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C1533" s="9" t="s">
-        <v>34</v>
+      <c r="A1533" s="10" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B1533" s="16" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1533" s="16" t="s">
+        <v>5220</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
-      <c r="A1534" s="9" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B1534" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1534" s="9" t="s">
-        <v>36</v>
+      <c r="A1534" s="10" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B1534" s="16" t="s">
+        <v>5221</v>
+      </c>
+      <c r="C1534" s="16" t="s">
+        <v>5222</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="9" t="s">
-        <v>3073</v>
+        <v>2956</v>
       </c>
       <c r="B1535" s="9" t="s">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="C1535" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
-      <c r="A1536" s="9" t="s">
-        <v>3088</v>
+      <c r="A1536" s="11" t="s">
+        <v>2957</v>
       </c>
       <c r="B1536" s="9" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C1536" s="9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
       <c r="A1537" s="9" t="s">
-        <v>3100</v>
+        <v>2958</v>
       </c>
       <c r="B1537" s="9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C1537" s="9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
-      <c r="A1538" s="9" t="s">
-        <v>3111</v>
+      <c r="A1538" s="11" t="s">
+        <v>2959</v>
       </c>
       <c r="B1538" s="9" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C1538" s="9" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
-      <c r="A1539" s="9" t="s">
-        <v>3119</v>
+      <c r="A1539" s="11" t="s">
+        <v>2960</v>
       </c>
       <c r="B1539" s="9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C1539" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
       <c r="A1540" s="9" t="s">
-        <v>3126</v>
+        <v>2965</v>
       </c>
       <c r="B1540" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1540" s="9" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
       <c r="A1541" s="9" t="s">
-        <v>3133</v>
+        <v>2973</v>
       </c>
       <c r="B1541" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1541" s="9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
       <c r="A1542" s="9" t="s">
-        <v>3139</v>
+        <v>2976</v>
       </c>
       <c r="B1542" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1542" s="9" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
       <c r="A1543" s="9" t="s">
-        <v>3156</v>
+        <v>2986</v>
       </c>
       <c r="B1543" s="9" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C1543" s="9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
       <c r="A1544" s="9" t="s">
-        <v>3163</v>
+        <v>3008</v>
       </c>
       <c r="B1544" s="9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C1544" s="9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545" s="9" t="s">
-        <v>3164</v>
+        <v>3028</v>
       </c>
       <c r="B1545" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C1545" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="9" t="s">
-        <v>3165</v>
+        <v>3039</v>
       </c>
       <c r="B1546" s="9" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C1546" s="9" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="9" t="s">
-        <v>3166</v>
+        <v>3043</v>
       </c>
       <c r="B1547" s="9" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C1547" s="9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="9" t="s">
-        <v>3167</v>
+        <v>3060</v>
       </c>
       <c r="B1548" s="9" t="s">
-        <v>68</v>
+        <v>2847</v>
       </c>
       <c r="C1548" s="9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="9" t="s">
-        <v>3168</v>
+        <v>3066</v>
       </c>
       <c r="B1549" s="9" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C1549" s="9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="9" t="s">
-        <v>3169</v>
+        <v>3073</v>
       </c>
       <c r="B1550" s="9" t="s">
-        <v>72</v>
+        <v>2798</v>
       </c>
       <c r="C1550" s="9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="9" t="s">
-        <v>3170</v>
+        <v>3088</v>
       </c>
       <c r="B1551" s="9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C1551" s="9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="9" t="s">
-        <v>3171</v>
+        <v>3100</v>
       </c>
       <c r="B1552" s="9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C1552" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="9" t="s">
-        <v>3172</v>
+        <v>3111</v>
       </c>
       <c r="B1553" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C1553" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="9" t="s">
-        <v>3173</v>
+        <v>3119</v>
       </c>
       <c r="B1554" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C1554" s="9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="9" t="s">
-        <v>3174</v>
+        <v>3126</v>
       </c>
       <c r="B1555" s="9" t="s">
-        <v>81</v>
+        <v>2285</v>
       </c>
       <c r="C1555" s="9" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="9" t="s">
-        <v>3175</v>
+        <v>3133</v>
       </c>
       <c r="B1556" s="9" t="s">
-        <v>83</v>
+        <v>2285</v>
       </c>
       <c r="C1556" s="9" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="9" t="s">
-        <v>3176</v>
+        <v>3139</v>
       </c>
       <c r="B1557" s="9" t="s">
-        <v>85</v>
+        <v>2285</v>
       </c>
       <c r="C1557" s="9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="9" t="s">
-        <v>3177</v>
+        <v>3156</v>
       </c>
       <c r="B1558" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C1558" s="9" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
       <c r="A1559" s="9" t="s">
-        <v>3178</v>
+        <v>3163</v>
       </c>
       <c r="B1559" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C1559" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="9" t="s">
-        <v>3179</v>
+        <v>3164</v>
       </c>
       <c r="B1560" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C1560" s="9" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="9" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="B1561" s="9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C1561" s="9" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="9" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="B1562" s="9" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C1562" s="9" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="9" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="B1563" s="9" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C1563" s="9" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="9" t="s">
-        <v>3412</v>
+        <v>3168</v>
       </c>
       <c r="B1564" s="9" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C1564" s="9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="9" t="s">
-        <v>3413</v>
+        <v>3169</v>
       </c>
       <c r="B1565" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1565" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="9" t="s">
-        <v>3414</v>
+        <v>3170</v>
       </c>
       <c r="B1566" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1566" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="9" t="s">
-        <v>3415</v>
+        <v>3171</v>
       </c>
       <c r="B1567" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C1567" s="9" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="9" t="s">
-        <v>3416</v>
+        <v>3172</v>
       </c>
       <c r="B1568" s="9" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C1568" s="9" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="9" t="s">
-        <v>3417</v>
+        <v>3173</v>
       </c>
       <c r="B1569" s="9" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C1569" s="9" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="9" t="s">
-        <v>3418</v>
+        <v>3174</v>
       </c>
       <c r="B1570" s="9" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C1570" s="9" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="9" t="s">
-        <v>3419</v>
+        <v>3175</v>
       </c>
       <c r="B1571" s="9" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C1571" s="9" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="9" t="s">
-        <v>3420</v>
+        <v>3176</v>
       </c>
       <c r="B1572" s="9" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C1572" s="9" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="9" t="s">
-        <v>3421</v>
+        <v>3177</v>
       </c>
       <c r="B1573" s="9" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C1573" s="9" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="9" t="s">
-        <v>2961</v>
+        <v>3178</v>
       </c>
       <c r="B1574" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C1574" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="9" t="s">
-        <v>2962</v>
+        <v>3179</v>
       </c>
       <c r="B1575" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C1575" s="9" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
       <c r="A1576" s="9" t="s">
-        <v>2963</v>
+        <v>3180</v>
       </c>
       <c r="B1576" s="9" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C1576" s="9" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="9" t="s">
-        <v>2964</v>
+        <v>3181</v>
       </c>
       <c r="B1577" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C1577" s="9" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
       <c r="A1578" s="9" t="s">
-        <v>2966</v>
+        <v>3182</v>
       </c>
       <c r="B1578" s="9" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C1578" s="9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
       <c r="A1579" s="9" t="s">
-        <v>2967</v>
+        <v>3412</v>
       </c>
       <c r="B1579" s="9" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C1579" s="9" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
       <c r="A1580" s="9" t="s">
-        <v>2968</v>
+        <v>3413</v>
       </c>
       <c r="B1580" s="9" t="s">
-        <v>2849</v>
+        <v>106</v>
       </c>
       <c r="C1580" s="9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
       <c r="A1581" s="9" t="s">
-        <v>2969</v>
+        <v>3414</v>
       </c>
       <c r="B1581" s="9" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C1581" s="9" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
       <c r="A1582" s="9" t="s">
-        <v>2970</v>
+        <v>3415</v>
       </c>
       <c r="B1582" s="9" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C1582" s="9" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1583" spans="1:3">
       <c r="A1583" s="9" t="s">
-        <v>2971</v>
+        <v>3416</v>
       </c>
       <c r="B1583" s="9" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C1583" s="9" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
       <c r="A1584" s="9" t="s">
-        <v>2972</v>
+        <v>3417</v>
       </c>
       <c r="B1584" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C1584" s="9" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
       <c r="A1585" s="9" t="s">
-        <v>2974</v>
+        <v>3418</v>
       </c>
       <c r="B1585" s="9" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C1585" s="9" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
       <c r="A1586" s="9" t="s">
-        <v>2975</v>
+        <v>3419</v>
       </c>
       <c r="B1586" s="9" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C1586" s="9" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
       <c r="A1587" s="9" t="s">
-        <v>2977</v>
+        <v>3420</v>
       </c>
       <c r="B1587" s="9" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C1587" s="9" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
       <c r="A1588" s="9" t="s">
-        <v>2978</v>
+        <v>3421</v>
       </c>
       <c r="B1588" s="9" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C1588" s="9" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
       <c r="A1589" s="9" t="s">
-        <v>2979</v>
+        <v>2961</v>
       </c>
       <c r="B1589" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C1589" s="9" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
       <c r="A1590" s="9" t="s">
-        <v>2980</v>
+        <v>2962</v>
       </c>
       <c r="B1590" s="9" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C1590" s="9" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
       <c r="A1591" s="9" t="s">
-        <v>2981</v>
+        <v>2963</v>
       </c>
       <c r="B1591" s="9" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C1591" s="9" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
       <c r="A1592" s="9" t="s">
-        <v>2982</v>
+        <v>2964</v>
       </c>
       <c r="B1592" s="9" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C1592" s="9" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
       <c r="A1593" s="9" t="s">
-        <v>2983</v>
+        <v>2966</v>
       </c>
       <c r="B1593" s="9" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C1593" s="9" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
       <c r="A1594" s="9" t="s">
-        <v>2984</v>
+        <v>2967</v>
       </c>
       <c r="B1594" s="9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C1594" s="9" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
       <c r="A1595" s="9" t="s">
-        <v>2985</v>
+        <v>2968</v>
       </c>
       <c r="B1595" s="9" t="s">
-        <v>198</v>
+        <v>2849</v>
       </c>
       <c r="C1595" s="9" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
       <c r="A1596" s="9" t="s">
-        <v>2987</v>
+        <v>2969</v>
       </c>
       <c r="B1596" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1596" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
       <c r="A1597" s="9" t="s">
-        <v>2988</v>
+        <v>2970</v>
       </c>
       <c r="B1597" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1597" s="9" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
       <c r="A1598" s="9" t="s">
-        <v>2989</v>
+        <v>2971</v>
       </c>
       <c r="B1598" s="9" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C1598" s="9" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1599" spans="1:3">
       <c r="A1599" s="9" t="s">
-        <v>2990</v>
+        <v>2972</v>
       </c>
       <c r="B1599" s="9" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C1599" s="9" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
       <c r="A1600" s="9" t="s">
-        <v>2991</v>
+        <v>2974</v>
       </c>
       <c r="B1600" s="9" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C1600" s="9" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
       <c r="A1601" s="9" t="s">
-        <v>2992</v>
+        <v>2975</v>
       </c>
       <c r="B1601" s="9" t="s">
-        <v>2926</v>
+        <v>166</v>
       </c>
       <c r="C1601" s="9" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
       <c r="A1602" s="9" t="s">
-        <v>2993</v>
+        <v>2977</v>
       </c>
       <c r="B1602" s="9" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C1602" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
       <c r="A1603" s="9" t="s">
-        <v>2994</v>
+        <v>2978</v>
       </c>
       <c r="B1603" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1603" s="9" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604" s="9" t="s">
-        <v>2995</v>
+        <v>2979</v>
       </c>
       <c r="B1604" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1604" s="9" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
       <c r="A1605" s="9" t="s">
-        <v>2996</v>
+        <v>2980</v>
       </c>
       <c r="B1605" s="9" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C1605" s="9" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
       <c r="A1606" s="9" t="s">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="B1606" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C1606" s="9" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
       <c r="A1607" s="9" t="s">
-        <v>2998</v>
+        <v>2982</v>
       </c>
       <c r="B1607" s="9" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C1607" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
       <c r="A1608" s="9" t="s">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="B1608" s="9" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C1608" s="9" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
       <c r="A1609" s="9" t="s">
-        <v>3000</v>
+        <v>2984</v>
       </c>
       <c r="B1609" s="9" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C1609" s="9" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1610" spans="1:3">
       <c r="A1610" s="9" t="s">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="B1610" s="9" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C1610" s="9" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1611" spans="1:3">
       <c r="A1611" s="9" t="s">
-        <v>3002</v>
+        <v>2987</v>
       </c>
       <c r="B1611" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C1611" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1612" spans="1:3">
       <c r="A1612" s="9" t="s">
-        <v>3003</v>
+        <v>2988</v>
       </c>
       <c r="B1612" s="9" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C1612" s="9" t="s">
-        <v>1136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1613" spans="1:3">
       <c r="A1613" s="9" t="s">
-        <v>3004</v>
+        <v>2989</v>
       </c>
       <c r="B1613" s="9" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C1613" s="9" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
       <c r="A1614" s="9" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="B1614" s="9" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C1614" s="9" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
       <c r="A1615" s="9" t="s">
-        <v>3006</v>
+        <v>2991</v>
       </c>
       <c r="B1615" s="9" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C1615" s="9" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
       <c r="A1616" s="9" t="s">
-        <v>3007</v>
+        <v>2992</v>
       </c>
       <c r="B1616" s="9" t="s">
-        <v>248</v>
+        <v>2926</v>
       </c>
       <c r="C1616" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617" s="9" t="s">
-        <v>3009</v>
+        <v>2993</v>
       </c>
       <c r="B1617" s="9" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C1617" s="9" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
       <c r="A1618" s="9" t="s">
-        <v>3010</v>
+        <v>2994</v>
       </c>
       <c r="B1618" s="9" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C1618" s="9" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1619" spans="1:3">
       <c r="A1619" s="9" t="s">
-        <v>3011</v>
+        <v>2995</v>
       </c>
       <c r="B1619" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1619" s="9" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
       <c r="A1620" s="9" t="s">
-        <v>3012</v>
+        <v>2996</v>
       </c>
       <c r="B1620" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1620" s="9" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621" s="9" t="s">
-        <v>3013</v>
+        <v>2997</v>
       </c>
       <c r="B1621" s="9" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C1621" s="9" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
       <c r="A1622" s="9" t="s">
-        <v>3014</v>
+        <v>2998</v>
       </c>
       <c r="B1622" s="9" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C1622" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
       <c r="A1623" s="9" t="s">
-        <v>3015</v>
+        <v>2999</v>
       </c>
       <c r="B1623" s="9" t="s">
-        <v>2803</v>
+        <v>227</v>
       </c>
       <c r="C1623" s="9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1624" spans="1:3">
       <c r="A1624" s="9" t="s">
-        <v>3016</v>
+        <v>3000</v>
       </c>
       <c r="B1624" s="9" t="s">
-        <v>2890</v>
+        <v>231</v>
       </c>
       <c r="C1624" s="9" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
       <c r="A1625" s="9" t="s">
-        <v>3017</v>
+        <v>3001</v>
       </c>
       <c r="B1625" s="9" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C1625" s="9" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
       <c r="A1626" s="9" t="s">
-        <v>3018</v>
+        <v>3002</v>
       </c>
       <c r="B1626" s="9" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C1626" s="9" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
       <c r="A1627" s="9" t="s">
-        <v>3019</v>
+        <v>3003</v>
       </c>
       <c r="B1627" s="9" t="s">
-        <v>2805</v>
+        <v>239</v>
       </c>
       <c r="C1627" s="9" t="s">
-        <v>2939</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1628" spans="1:3">
       <c r="A1628" s="9" t="s">
-        <v>3020</v>
+        <v>3004</v>
       </c>
       <c r="B1628" s="9" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C1628" s="9" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
       <c r="A1629" s="9" t="s">
-        <v>3021</v>
+        <v>3005</v>
       </c>
       <c r="B1629" s="9" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C1629" s="9" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
       <c r="A1630" s="9" t="s">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="B1630" s="9" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C1630" s="9" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
       <c r="A1631" s="9" t="s">
-        <v>3023</v>
+        <v>3007</v>
       </c>
       <c r="B1631" s="9" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C1631" s="9" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
       <c r="A1632" s="9" t="s">
-        <v>3024</v>
+        <v>3009</v>
       </c>
       <c r="B1632" s="9" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C1632" s="9" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
       <c r="A1633" s="9" t="s">
-        <v>3025</v>
+        <v>3010</v>
       </c>
       <c r="B1633" s="9" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C1633" s="9" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1634" spans="1:3">
       <c r="A1634" s="9" t="s">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="B1634" s="9" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C1634" s="9" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
       <c r="A1635" s="9" t="s">
-        <v>3027</v>
+        <v>3012</v>
       </c>
       <c r="B1635" s="9" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C1635" s="9" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
       <c r="A1636" s="9" t="s">
-        <v>3029</v>
+        <v>3013</v>
       </c>
       <c r="B1636" s="9" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C1636" s="9" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
       <c r="A1637" s="9" t="s">
-        <v>3030</v>
+        <v>3014</v>
       </c>
       <c r="B1637" s="9" t="s">
-        <v>2894</v>
+        <v>263</v>
       </c>
       <c r="C1637" s="9" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
       <c r="A1638" s="9" t="s">
-        <v>3031</v>
+        <v>3015</v>
       </c>
       <c r="B1638" s="9" t="s">
-        <v>309</v>
+        <v>2803</v>
       </c>
       <c r="C1638" s="9" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
       <c r="A1639" s="9" t="s">
-        <v>3032</v>
+        <v>3016</v>
       </c>
       <c r="B1639" s="9" t="s">
-        <v>313</v>
+        <v>2890</v>
       </c>
       <c r="C1639" s="9" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1640" spans="1:3">
       <c r="A1640" s="9" t="s">
-        <v>3033</v>
+        <v>3017</v>
       </c>
       <c r="B1640" s="9" t="s">
-        <v>2896</v>
+        <v>270</v>
       </c>
       <c r="C1640" s="9" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
       <c r="A1641" s="9" t="s">
-        <v>3034</v>
+        <v>3018</v>
       </c>
       <c r="B1641" s="9" t="s">
-        <v>2896</v>
+        <v>272</v>
       </c>
       <c r="C1641" s="9" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
       <c r="A1642" s="9" t="s">
-        <v>3035</v>
+        <v>3019</v>
       </c>
       <c r="B1642" s="9" t="s">
-        <v>2896</v>
+        <v>2805</v>
       </c>
       <c r="C1642" s="9" t="s">
-        <v>320</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1643" spans="1:3">
       <c r="A1643" s="9" t="s">
-        <v>3036</v>
+        <v>3020</v>
       </c>
       <c r="B1643" s="9" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="C1643" s="9" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
       <c r="A1644" s="9" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="B1644" s="9" t="s">
-        <v>2897</v>
+        <v>281</v>
       </c>
       <c r="C1644" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
       <c r="A1645" s="9" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="B1645" s="9" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C1645" s="9" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
       <c r="A1646" s="9" t="s">
-        <v>3040</v>
+        <v>3023</v>
       </c>
       <c r="B1646" s="9" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C1646" s="9" t="s">
-        <v>2941</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
       <c r="A1647" s="9" t="s">
-        <v>3041</v>
+        <v>3024</v>
       </c>
       <c r="B1647" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C1647" s="9" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
       <c r="A1648" s="9" t="s">
-        <v>3042</v>
+        <v>3025</v>
       </c>
       <c r="B1648" s="9" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="C1648" s="9" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
       <c r="A1649" s="9" t="s">
-        <v>3044</v>
+        <v>3026</v>
       </c>
       <c r="B1649" s="9" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="C1649" s="9" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
       <c r="A1650" s="9" t="s">
-        <v>3045</v>
+        <v>3027</v>
       </c>
       <c r="B1650" s="9" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="C1650" s="9" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1651" spans="1:3">
       <c r="A1651" s="9" t="s">
-        <v>3046</v>
+        <v>3029</v>
       </c>
       <c r="B1651" s="9" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C1651" s="9" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
       <c r="A1652" s="9" t="s">
-        <v>3047</v>
+        <v>3030</v>
       </c>
       <c r="B1652" s="9" t="s">
-        <v>363</v>
+        <v>2894</v>
       </c>
       <c r="C1652" s="9" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
       <c r="A1653" s="9" t="s">
-        <v>3048</v>
+        <v>3031</v>
       </c>
       <c r="B1653" s="9" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C1653" s="9" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
       <c r="A1654" s="9" t="s">
-        <v>3049</v>
+        <v>3032</v>
       </c>
       <c r="B1654" s="9" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C1654" s="9" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
       <c r="A1655" s="9" t="s">
-        <v>3050</v>
+        <v>3033</v>
       </c>
       <c r="B1655" s="9" t="s">
-        <v>367</v>
+        <v>2896</v>
       </c>
       <c r="C1655" s="9" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
       <c r="A1656" s="9" t="s">
-        <v>3051</v>
+        <v>3034</v>
       </c>
       <c r="B1656" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1656" s="9" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
       <c r="A1657" s="9" t="s">
-        <v>3052</v>
+        <v>3035</v>
       </c>
       <c r="B1657" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1657" s="9" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
       <c r="A1658" s="9" t="s">
-        <v>3053</v>
+        <v>3036</v>
       </c>
       <c r="B1658" s="9" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C1658" s="9" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
       <c r="A1659" s="9" t="s">
-        <v>3054</v>
+        <v>3037</v>
       </c>
       <c r="B1659" s="9" t="s">
-        <v>374</v>
+        <v>2897</v>
       </c>
       <c r="C1659" s="9" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
       <c r="A1660" s="9" t="s">
-        <v>3055</v>
+        <v>3038</v>
       </c>
       <c r="B1660" s="9" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="C1660" s="9" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
       <c r="A1661" s="9" t="s">
-        <v>3056</v>
+        <v>3040</v>
       </c>
       <c r="B1661" s="9" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C1661" s="9" t="s">
-        <v>379</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
       <c r="A1662" s="9" t="s">
-        <v>3057</v>
+        <v>3041</v>
       </c>
       <c r="B1662" s="9" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C1662" s="9" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
       <c r="A1663" s="9" t="s">
-        <v>3058</v>
+        <v>3042</v>
       </c>
       <c r="B1663" s="9" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C1663" s="9" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
       <c r="A1664" s="9" t="s">
-        <v>3059</v>
+        <v>3044</v>
       </c>
       <c r="B1664" s="9" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C1664" s="9" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1665" spans="1:3">
       <c r="A1665" s="9" t="s">
-        <v>3061</v>
+        <v>3045</v>
       </c>
       <c r="B1665" s="9" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C1665" s="9" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
       <c r="A1666" s="9" t="s">
-        <v>3062</v>
+        <v>3046</v>
       </c>
       <c r="B1666" s="9" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C1666" s="9" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1667" spans="1:3">
       <c r="A1667" s="9" t="s">
-        <v>3063</v>
+        <v>3047</v>
       </c>
       <c r="B1667" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1667" s="9" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1668" spans="1:3">
       <c r="A1668" s="9" t="s">
-        <v>3064</v>
+        <v>3048</v>
       </c>
       <c r="B1668" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1668" s="9" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1669" spans="1:3">
       <c r="A1669" s="9" t="s">
-        <v>3065</v>
+        <v>3049</v>
       </c>
       <c r="B1669" s="9" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C1669" s="9" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1670" spans="1:3">
       <c r="A1670" s="9" t="s">
-        <v>3067</v>
+        <v>3050</v>
       </c>
       <c r="B1670" s="9" t="s">
-        <v>2916</v>
+        <v>367</v>
       </c>
       <c r="C1670" s="9" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1671" spans="1:3">
       <c r="A1671" s="9" t="s">
-        <v>3068</v>
+        <v>3051</v>
       </c>
       <c r="B1671" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1671" s="9" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1672" spans="1:3">
       <c r="A1672" s="9" t="s">
-        <v>3069</v>
+        <v>3052</v>
       </c>
       <c r="B1672" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1672" s="9" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1673" spans="1:3">
       <c r="A1673" s="9" t="s">
-        <v>3070</v>
+        <v>3053</v>
       </c>
       <c r="B1673" s="9" t="s">
-        <v>2809</v>
+        <v>374</v>
       </c>
       <c r="C1673" s="9" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1674" spans="1:3">
       <c r="A1674" s="9" t="s">
-        <v>3071</v>
+        <v>3054</v>
       </c>
       <c r="B1674" s="9" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C1674" s="9" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1675" spans="1:3">
       <c r="A1675" s="9" t="s">
-        <v>3072</v>
+        <v>3055</v>
       </c>
       <c r="B1675" s="9" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C1675" s="9" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1676" spans="1:3">
       <c r="A1676" s="9" t="s">
-        <v>3074</v>
+        <v>3056</v>
       </c>
       <c r="B1676" s="9" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C1676" s="9" t="s">
-        <v>2953</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1677" spans="1:3">
       <c r="A1677" s="9" t="s">
-        <v>3075</v>
+        <v>3057</v>
       </c>
       <c r="B1677" s="9" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C1677" s="9" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1678" spans="1:3">
       <c r="A1678" s="9" t="s">
-        <v>3076</v>
+        <v>3058</v>
       </c>
       <c r="B1678" s="9" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C1678" s="9" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1679" spans="1:3">
       <c r="A1679" s="9" t="s">
-        <v>3077</v>
+        <v>3059</v>
       </c>
       <c r="B1679" s="9" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="C1679" s="9" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1680" spans="1:3">
       <c r="A1680" s="9" t="s">
-        <v>3078</v>
+        <v>3061</v>
       </c>
       <c r="B1680" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1680" s="9" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1681" spans="1:3">
       <c r="A1681" s="9" t="s">
-        <v>3079</v>
+        <v>3062</v>
       </c>
       <c r="B1681" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1681" s="9" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1682" spans="1:3">
       <c r="A1682" s="9" t="s">
-        <v>3080</v>
+        <v>3063</v>
       </c>
       <c r="B1682" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1682" s="9" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1683" spans="1:3">
       <c r="A1683" s="9" t="s">
-        <v>3081</v>
+        <v>3064</v>
       </c>
       <c r="B1683" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1683" s="9" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1684" spans="1:3">
       <c r="A1684" s="9" t="s">
-        <v>3082</v>
+        <v>3065</v>
       </c>
       <c r="B1684" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C1684" s="9" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1685" spans="1:3">
       <c r="A1685" s="9" t="s">
-        <v>3083</v>
+        <v>3067</v>
       </c>
       <c r="B1685" s="9" t="s">
-        <v>425</v>
+        <v>2916</v>
       </c>
       <c r="C1685" s="9" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1686" spans="1:3">
       <c r="A1686" s="9" t="s">
-        <v>3084</v>
+        <v>3068</v>
       </c>
       <c r="B1686" s="9" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C1686" s="9" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1687" spans="1:3">
       <c r="A1687" s="9" t="s">
-        <v>3085</v>
+        <v>3069</v>
       </c>
       <c r="B1687" s="9" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C1687" s="9" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1688" spans="1:3">
       <c r="A1688" s="9" t="s">
-        <v>3086</v>
+        <v>3070</v>
       </c>
       <c r="B1688" s="9" t="s">
-        <v>430</v>
+        <v>2809</v>
       </c>
       <c r="C1688" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1689" spans="1:3">
       <c r="A1689" s="9" t="s">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="B1689" s="9" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C1689" s="9" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1690" spans="1:3">
       <c r="A1690" s="9" t="s">
-        <v>3089</v>
+        <v>3072</v>
       </c>
       <c r="B1690" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1690" s="9" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1691" spans="1:3">
       <c r="A1691" s="9" t="s">
-        <v>3090</v>
+        <v>3074</v>
       </c>
       <c r="B1691" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1691" s="9" t="s">
-        <v>439</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1692" spans="1:3">
       <c r="A1692" s="9" t="s">
-        <v>3091</v>
+        <v>3075</v>
       </c>
       <c r="B1692" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1692" s="9" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1693" spans="1:3">
       <c r="A1693" s="9" t="s">
-        <v>3092</v>
+        <v>3076</v>
       </c>
       <c r="B1693" s="9" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C1693" s="9" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1694" spans="1:3">
       <c r="A1694" s="9" t="s">
-        <v>3093</v>
+        <v>3077</v>
       </c>
       <c r="B1694" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1694" s="9" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1695" spans="1:3">
       <c r="A1695" s="9" t="s">
-        <v>3094</v>
+        <v>3078</v>
       </c>
       <c r="B1695" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1695" s="9" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1696" spans="1:3">
       <c r="A1696" s="9" t="s">
-        <v>3095</v>
+        <v>3079</v>
       </c>
       <c r="B1696" s="9" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C1696" s="9" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1697" spans="1:3">
       <c r="A1697" s="9" t="s">
-        <v>3096</v>
+        <v>3080</v>
       </c>
       <c r="B1697" s="9" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="C1697" s="9" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
       <c r="A1698" s="9" t="s">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="B1698" s="9" t="s">
-        <v>2850</v>
+        <v>420</v>
       </c>
       <c r="C1698" s="9" t="s">
-        <v>2946</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
       <c r="A1699" s="9" t="s">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="B1699" s="9" t="s">
-        <v>2814</v>
+        <v>425</v>
       </c>
       <c r="C1699" s="9" t="s">
-        <v>2945</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
       <c r="A1700" s="9" t="s">
-        <v>3099</v>
+        <v>3083</v>
       </c>
       <c r="B1700" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1700" s="9" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
       <c r="A1701" s="9" t="s">
-        <v>3101</v>
+        <v>3084</v>
       </c>
       <c r="B1701" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1701" s="9" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
       <c r="A1702" s="9" t="s">
-        <v>3102</v>
+        <v>3085</v>
       </c>
       <c r="B1702" s="9" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C1702" s="9" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
       <c r="A1703" s="9" t="s">
-        <v>3103</v>
+        <v>3086</v>
       </c>
       <c r="B1703" s="9" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="C1703" s="9" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
       <c r="A1704" s="9" t="s">
-        <v>3104</v>
+        <v>3087</v>
       </c>
       <c r="B1704" s="9" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C1704" s="9" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="9" t="s">
-        <v>3105</v>
+        <v>3089</v>
       </c>
       <c r="B1705" s="9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="C1705" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="9" t="s">
-        <v>3106</v>
+        <v>3090</v>
       </c>
       <c r="B1706" s="9" t="s">
-        <v>2852</v>
+        <v>436</v>
       </c>
       <c r="C1706" s="9" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="9" t="s">
-        <v>3107</v>
+        <v>3091</v>
       </c>
       <c r="B1707" s="9" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C1707" s="9" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="9" t="s">
-        <v>3108</v>
+        <v>3092</v>
       </c>
       <c r="B1708" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1708" s="9" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="9" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
       <c r="B1709" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1709" s="9" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="9" t="s">
-        <v>3110</v>
+        <v>3094</v>
       </c>
       <c r="B1710" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1710" s="9" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="9" t="s">
-        <v>3112</v>
+        <v>3095</v>
       </c>
       <c r="B1711" s="9" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C1711" s="9" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="9" t="s">
-        <v>3113</v>
+        <v>3096</v>
       </c>
       <c r="B1712" s="9" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="C1712" s="9" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
       <c r="A1713" s="9" t="s">
-        <v>3114</v>
+        <v>3097</v>
       </c>
       <c r="B1713" s="9" t="s">
-        <v>487</v>
+        <v>2850</v>
       </c>
       <c r="C1713" s="9" t="s">
-        <v>488</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
       <c r="A1714" s="9" t="s">
-        <v>3115</v>
+        <v>3098</v>
       </c>
       <c r="B1714" s="9" t="s">
-        <v>490</v>
+        <v>2814</v>
       </c>
       <c r="C1714" s="9" t="s">
-        <v>491</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
       <c r="A1715" s="9" t="s">
-        <v>3116</v>
+        <v>3099</v>
       </c>
       <c r="B1715" s="9" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C1715" s="9" t="s">
-        <v>2948</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
       <c r="A1716" s="9" t="s">
-        <v>3117</v>
+        <v>3101</v>
       </c>
       <c r="B1716" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1716" s="9" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
       <c r="A1717" s="9" t="s">
-        <v>3118</v>
+        <v>3102</v>
       </c>
       <c r="B1717" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1717" s="9" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
       <c r="A1718" s="9" t="s">
-        <v>3120</v>
+        <v>3103</v>
       </c>
       <c r="B1718" s="9" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C1718" s="9" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
       <c r="A1719" s="9" t="s">
-        <v>3121</v>
+        <v>3104</v>
       </c>
       <c r="B1719" s="9" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C1719" s="9" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
       <c r="A1720" s="9" t="s">
-        <v>3122</v>
+        <v>3105</v>
       </c>
       <c r="B1720" s="9" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="C1720" s="9" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
       <c r="A1721" s="9" t="s">
-        <v>3123</v>
+        <v>3106</v>
       </c>
       <c r="B1721" s="9" t="s">
-        <v>500</v>
+        <v>2852</v>
       </c>
       <c r="C1721" s="9" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
       <c r="A1722" s="9" t="s">
-        <v>3124</v>
+        <v>3107</v>
       </c>
       <c r="B1722" s="9" t="s">
-        <v>2818</v>
+        <v>475</v>
       </c>
       <c r="C1722" s="9" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
       <c r="A1723" s="9" t="s">
-        <v>3125</v>
+        <v>3108</v>
       </c>
       <c r="B1723" s="9" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C1723" s="9" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
       <c r="A1724" s="9" t="s">
-        <v>3127</v>
+        <v>3109</v>
       </c>
       <c r="B1724" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1724" s="9" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
       <c r="A1725" s="9" t="s">
-        <v>3128</v>
+        <v>3110</v>
       </c>
       <c r="B1725" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1725" s="9" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1726" spans="1:3">
       <c r="A1726" s="9" t="s">
-        <v>3129</v>
+        <v>3112</v>
       </c>
       <c r="B1726" s="9" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="C1726" s="9" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
       <c r="A1727" s="9" t="s">
-        <v>3130</v>
+        <v>3113</v>
       </c>
       <c r="B1727" s="9" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C1727" s="9" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
       <c r="A1728" s="9" t="s">
-        <v>3131</v>
+        <v>3114</v>
       </c>
       <c r="B1728" s="9" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="C1728" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
       <c r="A1729" s="9" t="s">
-        <v>3132</v>
+        <v>3115</v>
       </c>
       <c r="B1729" s="9" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C1729" s="9" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
       <c r="A1730" s="9" t="s">
-        <v>3134</v>
+        <v>3116</v>
       </c>
       <c r="B1730" s="9" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C1730" s="9" t="s">
-        <v>528</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
       <c r="A1731" s="9" t="s">
-        <v>3135</v>
+        <v>3117</v>
       </c>
       <c r="B1731" s="9" t="s">
-        <v>2913</v>
+        <v>495</v>
       </c>
       <c r="C1731" s="9" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
       <c r="A1732" s="9" t="s">
-        <v>3136</v>
+        <v>3118</v>
       </c>
       <c r="B1732" s="9" t="s">
-        <v>2820</v>
+        <v>495</v>
       </c>
       <c r="C1732" s="9" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
       <c r="A1733" s="9" t="s">
-        <v>3137</v>
+        <v>3120</v>
       </c>
       <c r="B1733" s="9" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C1733" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
       <c r="A1734" s="9" t="s">
-        <v>3138</v>
+        <v>3121</v>
       </c>
       <c r="B1734" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1734" s="9" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
       <c r="A1735" s="9" t="s">
-        <v>3140</v>
+        <v>3122</v>
       </c>
       <c r="B1735" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1735" s="9" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
       <c r="A1736" s="9" t="s">
-        <v>3141</v>
+        <v>3123</v>
       </c>
       <c r="B1736" s="9" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C1736" s="9" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
       <c r="A1737" s="9" t="s">
-        <v>3142</v>
+        <v>3124</v>
       </c>
       <c r="B1737" s="9" t="s">
-        <v>541</v>
+        <v>2818</v>
       </c>
       <c r="C1737" s="9" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
       <c r="A1738" s="9" t="s">
-        <v>3143</v>
+        <v>3125</v>
       </c>
       <c r="B1738" s="9" t="s">
-        <v>2842</v>
+        <v>507</v>
       </c>
       <c r="C1738" s="9" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
       <c r="A1739" s="9" t="s">
-        <v>3144</v>
+        <v>3127</v>
       </c>
       <c r="B1739" s="9" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="C1739" s="9" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
       <c r="A1740" s="9" t="s">
-        <v>3145</v>
+        <v>3128</v>
       </c>
       <c r="B1740" s="9" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C1740" s="9" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
       <c r="A1741" s="9" t="s">
-        <v>3146</v>
+        <v>3129</v>
       </c>
       <c r="B1741" s="9" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="C1741" s="9" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
       <c r="A1742" s="9" t="s">
-        <v>3147</v>
+        <v>3130</v>
       </c>
       <c r="B1742" s="9" t="s">
-        <v>2843</v>
+        <v>516</v>
       </c>
       <c r="C1742" s="9" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
       <c r="A1743" s="9" t="s">
-        <v>3148</v>
+        <v>3131</v>
       </c>
       <c r="B1743" s="9" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="C1743" s="9" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
       <c r="A1744" s="9" t="s">
-        <v>3149</v>
+        <v>3132</v>
       </c>
       <c r="B1744" s="9" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C1744" s="9" t="s">
-        <v>2950</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
       <c r="A1745" s="9" t="s">
-        <v>3150</v>
+        <v>3134</v>
       </c>
       <c r="B1745" s="9" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="C1745" s="9" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
       <c r="A1746" s="9" t="s">
-        <v>3151</v>
+        <v>3135</v>
       </c>
       <c r="B1746" s="9" t="s">
-        <v>560</v>
+        <v>2913</v>
       </c>
       <c r="C1746" s="9" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
       <c r="A1747" s="9" t="s">
-        <v>3152</v>
+        <v>3136</v>
       </c>
       <c r="B1747" s="9" t="s">
-        <v>565</v>
+        <v>2820</v>
       </c>
       <c r="C1747" s="9" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
       <c r="A1748" s="9" t="s">
-        <v>3153</v>
+        <v>3137</v>
       </c>
       <c r="B1748" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="C1748" s="9" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
       <c r="A1749" s="9" t="s">
-        <v>3154</v>
+        <v>3138</v>
       </c>
       <c r="B1749" s="9" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="C1749" s="9" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
       <c r="A1750" s="9" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="B1750" s="9" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C1750" s="9" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
       <c r="A1751" s="9" t="s">
-        <v>3157</v>
+        <v>3141</v>
       </c>
       <c r="B1751" s="9" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C1751" s="9" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
       <c r="A1752" s="9" t="s">
-        <v>3158</v>
+        <v>3142</v>
       </c>
       <c r="B1752" s="9" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="C1752" s="9" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
       <c r="A1753" s="9" t="s">
-        <v>3159</v>
+        <v>3143</v>
       </c>
       <c r="B1753" s="9" t="s">
-        <v>584</v>
+        <v>2842</v>
       </c>
       <c r="C1753" s="9" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
       <c r="A1754" s="9" t="s">
-        <v>3160</v>
+        <v>3144</v>
       </c>
       <c r="B1754" s="9" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C1754" s="9" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755" s="9" t="s">
-        <v>3161</v>
+        <v>3145</v>
       </c>
       <c r="B1755" s="9" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C1755" s="9" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
       <c r="A1756" s="9" t="s">
-        <v>3162</v>
+        <v>3146</v>
       </c>
       <c r="B1756" s="9" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="C1756" s="9" t="s">
-        <v>591</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
       <c r="A1757" s="9" t="s">
-        <v>3183</v>
+        <v>3147</v>
       </c>
       <c r="B1757" s="9" t="s">
-        <v>594</v>
+        <v>2843</v>
       </c>
       <c r="C1757" s="9" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
       <c r="A1758" s="9" t="s">
-        <v>3184</v>
+        <v>3148</v>
       </c>
       <c r="B1758" s="9" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C1758" s="9" t="s">
-        <v>5158</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
       <c r="A1759" s="9" t="s">
-        <v>3185</v>
+        <v>3149</v>
       </c>
       <c r="B1759" s="9" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="C1759" s="9" t="s">
-        <v>597</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
       <c r="A1760" s="9" t="s">
-        <v>3186</v>
+        <v>3150</v>
       </c>
       <c r="B1760" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1760" s="9" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
       <c r="A1761" s="9" t="s">
-        <v>3187</v>
+        <v>3151</v>
       </c>
       <c r="B1761" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1761" s="9" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
       <c r="A1762" s="9" t="s">
-        <v>3188</v>
+        <v>3152</v>
       </c>
       <c r="B1762" s="9" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="C1762" s="9" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
       <c r="A1763" s="9" t="s">
-        <v>3189</v>
+        <v>3153</v>
       </c>
       <c r="B1763" s="9" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="C1763" s="9" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
       <c r="A1764" s="9" t="s">
-        <v>3190</v>
+        <v>3154</v>
       </c>
       <c r="B1764" s="9" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="C1764" s="9" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
       <c r="A1765" s="9" t="s">
-        <v>3191</v>
+        <v>3155</v>
       </c>
       <c r="B1765" s="9" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="C1765" s="9" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
       <c r="A1766" s="9" t="s">
-        <v>3192</v>
+        <v>3157</v>
       </c>
       <c r="B1766" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1766" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
       <c r="A1767" s="9" t="s">
-        <v>3193</v>
+        <v>3158</v>
       </c>
       <c r="B1767" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1767" s="9" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
       <c r="A1768" s="9" t="s">
-        <v>3194</v>
+        <v>3159</v>
       </c>
       <c r="B1768" s="9" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C1768" s="9" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
       <c r="A1769" s="9" t="s">
-        <v>3195</v>
+        <v>3160</v>
       </c>
       <c r="B1769" s="9" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="C1769" s="9" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
       <c r="A1770" s="9" t="s">
-        <v>3196</v>
+        <v>3161</v>
       </c>
       <c r="B1770" s="9" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="C1770" s="9" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
       <c r="A1771" s="9" t="s">
-        <v>3197</v>
+        <v>3162</v>
       </c>
       <c r="B1771" s="9" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="C1771" s="9" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
       <c r="A1772" s="9" t="s">
-        <v>3198</v>
+        <v>3183</v>
       </c>
       <c r="B1772" s="9" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C1772" s="9" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
       <c r="A1773" s="9" t="s">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="B1773" s="9" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="C1773" s="9" t="s">
-        <v>630</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
       <c r="A1774" s="9" t="s">
-        <v>3200</v>
+        <v>3185</v>
       </c>
       <c r="B1774" s="9" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="C1774" s="9" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
       <c r="A1775" s="9" t="s">
-        <v>3201</v>
+        <v>3186</v>
       </c>
       <c r="B1775" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1775" s="9" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
       <c r="A1776" s="9" t="s">
-        <v>3202</v>
+        <v>3187</v>
       </c>
       <c r="B1776" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1776" s="9" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
       <c r="A1777" s="9" t="s">
-        <v>3203</v>
+        <v>3188</v>
       </c>
       <c r="B1777" s="9" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C1777" s="9" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
       <c r="A1778" s="9" t="s">
-        <v>3204</v>
+        <v>3189</v>
       </c>
       <c r="B1778" s="9" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C1778" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
       <c r="A1779" s="9" t="s">
-        <v>3205</v>
+        <v>3190</v>
       </c>
       <c r="B1779" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C1779" s="12" t="s">
-        <v>917</v>
+        <v>608</v>
+      </c>
+      <c r="C1779" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
       <c r="A1780" s="9" t="s">
-        <v>3206</v>
+        <v>3191</v>
       </c>
       <c r="B1780" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1780" s="12" t="s">
-        <v>466</v>
+        <v>608</v>
+      </c>
+      <c r="C1780" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
       <c r="A1781" s="9" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1781" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="C1781" s="12" t="s">
-        <v>920</v>
+        <v>608</v>
+      </c>
+      <c r="C1781" s="9" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
       <c r="A1782" s="9" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="B1782" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="C1782" s="14" t="s">
-        <v>922</v>
+        <v>608</v>
+      </c>
+      <c r="C1782" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
       <c r="A1783" s="9" t="s">
-        <v>3209</v>
+        <v>3194</v>
       </c>
       <c r="B1783" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="C1783" s="12" t="s">
-        <v>924</v>
+        <v>608</v>
+      </c>
+      <c r="C1783" s="9" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
       <c r="A1784" s="9" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="B1784" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1784" s="14" t="s">
-        <v>926</v>
+        <v>615</v>
+      </c>
+      <c r="C1784" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
       <c r="A1785" s="9" t="s">
-        <v>3211</v>
+        <v>3196</v>
       </c>
       <c r="B1785" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C1785" s="12" t="s">
-        <v>928</v>
+        <v>618</v>
+      </c>
+      <c r="C1785" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
       <c r="A1786" s="9" t="s">
-        <v>3212</v>
+        <v>3197</v>
       </c>
       <c r="B1786" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C1786" s="12" t="s">
-        <v>930</v>
+        <v>624</v>
+      </c>
+      <c r="C1786" s="9" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
       <c r="A1787" s="9" t="s">
-        <v>3213</v>
+        <v>3198</v>
       </c>
       <c r="B1787" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="C1787" s="12" t="s">
-        <v>932</v>
+        <v>626</v>
+      </c>
+      <c r="C1787" s="9" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
       <c r="A1788" s="9" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="B1788" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1788" s="14" t="s">
-        <v>934</v>
+        <v>628</v>
+      </c>
+      <c r="C1788" s="9" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
       <c r="A1789" s="9" t="s">
-        <v>3215</v>
+        <v>3200</v>
       </c>
       <c r="B1789" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1789" s="14" t="s">
-        <v>935</v>
+        <v>636</v>
+      </c>
+      <c r="C1789" s="9" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
       <c r="A1790" s="9" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1790" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1790" s="14" t="s">
-        <v>936</v>
+        <v>638</v>
+      </c>
+      <c r="C1790" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
       <c r="A1791" s="9" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B1791" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1791" s="12" t="s">
-        <v>938</v>
+        <v>3202</v>
+      </c>
+      <c r="B1791" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1791" s="9" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792" s="9" t="s">
-        <v>3218</v>
+        <v>3203</v>
       </c>
       <c r="B1792" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1792" s="12" t="s">
-        <v>940</v>
+        <v>642</v>
+      </c>
+      <c r="C1792" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="9" t="s">
-        <v>3219</v>
+        <v>3204</v>
       </c>
       <c r="B1793" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="C1793" s="12" t="s">
-        <v>942</v>
+        <v>644</v>
+      </c>
+      <c r="C1793" s="9" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="9" t="s">
-        <v>3220</v>
+        <v>3205</v>
       </c>
       <c r="B1794" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="C1794" s="14" t="s">
-        <v>944</v>
+        <v>916</v>
+      </c>
+      <c r="C1794" s="12" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="9" t="s">
-        <v>3221</v>
+        <v>3206</v>
       </c>
       <c r="B1795" s="9" t="s">
-        <v>4953</v>
-      </c>
-      <c r="C1795" s="9" t="s">
-        <v>945</v>
+        <v>918</v>
+      </c>
+      <c r="C1795" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="9" t="s">
-        <v>3222</v>
+        <v>3207</v>
       </c>
       <c r="B1796" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C1796" s="14" t="s">
-        <v>947</v>
+        <v>919</v>
+      </c>
+      <c r="C1796" s="12" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="9" t="s">
-        <v>3223</v>
+        <v>3208</v>
       </c>
       <c r="B1797" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1797" s="12" t="s">
-        <v>949</v>
+        <v>921</v>
+      </c>
+      <c r="C1797" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
       <c r="A1798" s="9" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="B1798" s="9" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="C1798" s="12" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
       <c r="A1799" s="9" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="B1799" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1799" s="12" t="s">
-        <v>951</v>
+        <v>925</v>
+      </c>
+      <c r="C1799" s="14" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
       <c r="A1800" s="9" t="s">
-        <v>3226</v>
+        <v>3211</v>
       </c>
       <c r="B1800" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1800" s="14" t="s">
-        <v>953</v>
+        <v>927</v>
+      </c>
+      <c r="C1800" s="12" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
       <c r="A1801" s="9" t="s">
-        <v>3227</v>
+        <v>3212</v>
       </c>
       <c r="B1801" s="9" t="s">
-        <v>2833</v>
+        <v>929</v>
       </c>
       <c r="C1801" s="12" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="9" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1802" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1802" s="14" t="s">
-        <v>955</v>
+        <v>931</v>
+      </c>
+      <c r="C1802" s="12" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="9" t="s">
-        <v>3229</v>
+        <v>3214</v>
       </c>
       <c r="B1803" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1803" s="12" t="s">
-        <v>957</v>
+        <v>933</v>
+      </c>
+      <c r="C1803" s="14" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
       <c r="A1804" s="9" t="s">
-        <v>3230</v>
+        <v>3215</v>
       </c>
       <c r="B1804" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1804" s="12" t="s">
-        <v>958</v>
+        <v>933</v>
+      </c>
+      <c r="C1804" s="14" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
       <c r="A1805" s="9" t="s">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="B1805" s="9" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C1805" s="12" t="s">
-        <v>959</v>
+        <v>933</v>
+      </c>
+      <c r="C1805" s="14" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="9" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B1806" s="9" t="s">
-        <v>960</v>
+        <v>3217</v>
+      </c>
+      <c r="B1806" s="12" t="s">
+        <v>937</v>
       </c>
       <c r="C1806" s="12" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="9" t="s">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="B1807" s="9" t="s">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="C1807" s="12" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
       <c r="A1808" s="9" t="s">
-        <v>3234</v>
+        <v>3219</v>
       </c>
       <c r="B1808" s="9" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C1808" s="14" t="s">
-        <v>963</v>
+        <v>941</v>
+      </c>
+      <c r="C1808" s="12" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
       <c r="A1809" s="9" t="s">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="B1809" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1809" s="12" t="s">
-        <v>964</v>
+        <v>943</v>
+      </c>
+      <c r="C1809" s="14" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
       <c r="A1810" s="9" t="s">
-        <v>5159</v>
+        <v>3221</v>
       </c>
       <c r="B1810" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1810" s="12" t="s">
-        <v>966</v>
+        <v>4953</v>
+      </c>
+      <c r="C1810" s="9" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
       <c r="A1811" s="9" t="s">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="B1811" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="C1811" s="12" t="s">
-        <v>968</v>
+        <v>946</v>
+      </c>
+      <c r="C1811" s="14" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
       <c r="A1812" s="9" t="s">
-        <v>3237</v>
+        <v>3223</v>
       </c>
       <c r="B1812" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1812" s="14" t="s">
-        <v>969</v>
+        <v>948</v>
+      </c>
+      <c r="C1812" s="12" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
       <c r="A1813" s="9" t="s">
-        <v>3238</v>
+        <v>3224</v>
       </c>
       <c r="B1813" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1813" s="14" t="s">
-        <v>970</v>
+        <v>948</v>
+      </c>
+      <c r="C1813" s="12" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814" s="9" t="s">
-        <v>3239</v>
+        <v>3225</v>
       </c>
       <c r="B1814" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1814" s="14" t="s">
-        <v>972</v>
+        <v>948</v>
+      </c>
+      <c r="C1814" s="12" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
       <c r="A1815" s="9" t="s">
-        <v>3240</v>
+        <v>3226</v>
       </c>
       <c r="B1815" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1815" s="12" t="s">
-        <v>974</v>
+        <v>952</v>
+      </c>
+      <c r="C1815" s="14" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
       <c r="A1816" s="9" t="s">
-        <v>3241</v>
+        <v>3227</v>
       </c>
       <c r="B1816" s="9" t="s">
-        <v>973</v>
+        <v>2833</v>
       </c>
       <c r="C1816" s="12" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
       <c r="A1817" s="9" t="s">
-        <v>3242</v>
+        <v>3228</v>
       </c>
       <c r="B1817" s="9" t="s">
-        <v>952</v>
+        <v>2826</v>
       </c>
       <c r="C1817" s="14" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
       <c r="A1818" s="9" t="s">
-        <v>3243</v>
+        <v>3229</v>
       </c>
       <c r="B1818" s="9" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C1818" s="12" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
       <c r="A1819" s="9" t="s">
-        <v>3244</v>
+        <v>3230</v>
       </c>
       <c r="B1819" s="9" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="C1819" s="12" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
       <c r="A1820" s="9" t="s">
-        <v>3245</v>
+        <v>3231</v>
       </c>
       <c r="B1820" s="9" t="s">
-        <v>981</v>
+        <v>2845</v>
       </c>
       <c r="C1820" s="12" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
       <c r="A1821" s="9" t="s">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="B1821" s="9" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C1821" s="12" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822" s="9" t="s">
-        <v>3247</v>
+        <v>3233</v>
       </c>
       <c r="B1822" s="9" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="C1822" s="12" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
       <c r="A1823" s="9" t="s">
-        <v>3248</v>
+        <v>3234</v>
       </c>
       <c r="B1823" s="9" t="s">
-        <v>952</v>
+        <v>2829</v>
       </c>
       <c r="C1823" s="14" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
       <c r="A1824" s="9" t="s">
-        <v>3249</v>
+        <v>3235</v>
       </c>
       <c r="B1824" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1824" s="14" t="s">
-        <v>989</v>
+        <v>956</v>
+      </c>
+      <c r="C1824" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
       <c r="A1825" s="9" t="s">
-        <v>3250</v>
+        <v>5159</v>
       </c>
       <c r="B1825" s="9" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="C1825" s="12" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="9" t="s">
-        <v>3251</v>
+        <v>3236</v>
       </c>
       <c r="B1826" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="C1826" s="14" t="s">
-        <v>993</v>
+        <v>967</v>
+      </c>
+      <c r="C1826" s="12" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="9" t="s">
-        <v>3252</v>
+        <v>3237</v>
       </c>
       <c r="B1827" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1827" s="12" t="s">
-        <v>994</v>
+        <v>933</v>
+      </c>
+      <c r="C1827" s="14" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828" s="9" t="s">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="B1828" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1828" s="12" t="s">
-        <v>996</v>
+        <v>933</v>
+      </c>
+      <c r="C1828" s="14" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
       <c r="A1829" s="9" t="s">
-        <v>3254</v>
+        <v>3239</v>
       </c>
       <c r="B1829" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1829" s="12" t="s">
-        <v>997</v>
+        <v>971</v>
+      </c>
+      <c r="C1829" s="14" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
       <c r="A1830" s="9" t="s">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="B1830" s="9" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C1830" s="12" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831" s="9" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B1831" s="12" t="s">
-        <v>1002</v>
+        <v>3241</v>
+      </c>
+      <c r="B1831" s="9" t="s">
+        <v>973</v>
       </c>
       <c r="C1831" s="12" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="9" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="B1832" s="9" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C1832" s="12" t="s">
-        <v>1005</v>
+        <v>952</v>
+      </c>
+      <c r="C1832" s="14" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="9" t="s">
-        <v>3258</v>
+        <v>3243</v>
       </c>
       <c r="B1833" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C1833" s="14" t="s">
-        <v>1008</v>
+        <v>977</v>
+      </c>
+      <c r="C1833" s="12" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="9" t="s">
-        <v>3259</v>
+        <v>3244</v>
       </c>
       <c r="B1834" s="9" t="s">
-        <v>2836</v>
+        <v>979</v>
       </c>
       <c r="C1834" s="12" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="9" t="s">
-        <v>3260</v>
+        <v>3245</v>
       </c>
       <c r="B1835" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1835" s="14" t="s">
-        <v>1010</v>
+        <v>981</v>
+      </c>
+      <c r="C1835" s="12" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="9" t="s">
-        <v>3261</v>
+        <v>3246</v>
       </c>
       <c r="B1836" s="9" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C1836" s="14" t="s">
-        <v>1011</v>
+        <v>984</v>
+      </c>
+      <c r="C1836" s="12" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="9" t="s">
-        <v>3262</v>
+        <v>3247</v>
       </c>
       <c r="B1837" s="9" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="C1837" s="12" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="9" t="s">
-        <v>3263</v>
+        <v>3248</v>
       </c>
       <c r="B1838" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1838" s="14" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839" s="9" t="s">
-        <v>3264</v>
+        <v>3249</v>
       </c>
       <c r="B1839" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1839" s="14" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
       <c r="A1840" s="9" t="s">
-        <v>3265</v>
+        <v>3250</v>
       </c>
       <c r="B1840" s="9" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="C1840" s="12" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
       <c r="A1841" s="9" t="s">
-        <v>3266</v>
+        <v>3251</v>
       </c>
       <c r="B1841" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C1841" s="12" t="s">
-        <v>1020</v>
+        <v>992</v>
+      </c>
+      <c r="C1841" s="14" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
       <c r="A1842" s="9" t="s">
-        <v>3267</v>
+        <v>3252</v>
       </c>
       <c r="B1842" s="9" t="s">
-        <v>1019</v>
+        <v>960</v>
       </c>
       <c r="C1842" s="12" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
       <c r="A1843" s="9" t="s">
-        <v>3268</v>
+        <v>3253</v>
       </c>
       <c r="B1843" s="9" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="C1843" s="12" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
       <c r="A1844" s="9" t="s">
-        <v>3269</v>
+        <v>3254</v>
       </c>
       <c r="B1844" s="9" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="C1844" s="12" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
       <c r="A1845" s="9" t="s">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="B1845" s="9" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="C1845" s="12" t="s">
-        <v>630</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
       <c r="A1846" s="9" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B1846" s="9" t="s">
-        <v>1026</v>
+        <v>3256</v>
+      </c>
+      <c r="B1846" s="12" t="s">
+        <v>1002</v>
       </c>
       <c r="C1846" s="12" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
       <c r="A1847" s="9" t="s">
-        <v>3272</v>
+        <v>3257</v>
       </c>
       <c r="B1847" s="9" t="s">
-        <v>1028</v>
+        <v>2841</v>
       </c>
       <c r="C1847" s="12" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1848" spans="1:3">
       <c r="A1848" s="9" t="s">
-        <v>3273</v>
+        <v>3258</v>
       </c>
       <c r="B1848" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C1848" s="12" t="s">
-        <v>1030</v>
+        <v>1006</v>
+      </c>
+      <c r="C1848" s="14" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849" s="9" t="s">
-        <v>3274</v>
+        <v>3259</v>
       </c>
       <c r="B1849" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C1849" s="14" t="s">
-        <v>1032</v>
+        <v>2836</v>
+      </c>
+      <c r="C1849" s="12" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
       <c r="A1850" s="9" t="s">
-        <v>3275</v>
+        <v>3260</v>
       </c>
       <c r="B1850" s="9" t="s">
-        <v>1031</v>
+        <v>925</v>
       </c>
       <c r="C1850" s="14" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851" s="9" t="s">
-        <v>3276</v>
+        <v>3261</v>
       </c>
       <c r="B1851" s="9" t="s">
-        <v>1031</v>
+        <v>2831</v>
       </c>
       <c r="C1851" s="14" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
       <c r="A1852" s="9" t="s">
-        <v>3277</v>
+        <v>3262</v>
       </c>
       <c r="B1852" s="9" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="C1852" s="12" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
       <c r="A1853" s="9" t="s">
-        <v>3278</v>
+        <v>3263</v>
       </c>
       <c r="B1853" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C1853" s="12" t="s">
-        <v>1038</v>
+        <v>861</v>
+      </c>
+      <c r="C1853" s="14" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
       <c r="A1854" s="9" t="s">
-        <v>3279</v>
+        <v>3264</v>
       </c>
       <c r="B1854" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C1854" s="9" t="s">
-        <v>1040</v>
+        <v>861</v>
+      </c>
+      <c r="C1854" s="14" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855" s="9" t="s">
-        <v>3280</v>
+        <v>3265</v>
       </c>
       <c r="B1855" s="9" t="s">
-        <v>2840</v>
+        <v>1016</v>
       </c>
       <c r="C1855" s="12" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
       <c r="A1856" s="9" t="s">
-        <v>3281</v>
+        <v>3266</v>
       </c>
       <c r="B1856" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C1856" s="14" t="s">
-        <v>1043</v>
+        <v>1019</v>
+      </c>
+      <c r="C1856" s="12" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857" s="9" t="s">
-        <v>3282</v>
+        <v>3267</v>
       </c>
       <c r="B1857" s="9" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="C1857" s="12" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
       <c r="A1858" s="9" t="s">
-        <v>3283</v>
+        <v>3268</v>
       </c>
       <c r="B1858" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1858" s="14" t="s">
-        <v>1046</v>
+        <v>1019</v>
+      </c>
+      <c r="C1858" s="12" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
       <c r="A1859" s="9" t="s">
-        <v>3284</v>
+        <v>3269</v>
       </c>
       <c r="B1859" s="9" t="s">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="C1859" s="12" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
       <c r="A1860" s="9" t="s">
-        <v>3285</v>
+        <v>3270</v>
       </c>
       <c r="B1860" s="9" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
       <c r="C1860" s="12" t="s">
-        <v>1048</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
       <c r="A1861" s="9" t="s">
-        <v>3286</v>
+        <v>3271</v>
       </c>
       <c r="B1861" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1861" s="14" t="s">
-        <v>1049</v>
+        <v>1026</v>
+      </c>
+      <c r="C1861" s="12" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
       <c r="A1862" s="9" t="s">
-        <v>3287</v>
+        <v>3272</v>
       </c>
       <c r="B1862" s="9" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="C1862" s="12" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
       <c r="A1863" s="9" t="s">
-        <v>3288</v>
+        <v>3273</v>
       </c>
       <c r="B1863" s="9" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="C1863" s="12" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
       <c r="A1864" s="9" t="s">
-        <v>3289</v>
+        <v>3274</v>
       </c>
       <c r="B1864" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1864" s="12" t="s">
-        <v>1055</v>
+        <v>1031</v>
+      </c>
+      <c r="C1864" s="14" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865" s="9" t="s">
-        <v>3290</v>
+        <v>3275</v>
       </c>
       <c r="B1865" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1865" s="12" t="s">
-        <v>1057</v>
+        <v>1031</v>
+      </c>
+      <c r="C1865" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
       <c r="A1866" s="9" t="s">
-        <v>3291</v>
+        <v>3276</v>
       </c>
       <c r="B1866" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1866" s="12" t="s">
-        <v>1058</v>
+        <v>1031</v>
+      </c>
+      <c r="C1866" s="14" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
       <c r="A1867" s="9" t="s">
-        <v>3292</v>
+        <v>3277</v>
       </c>
       <c r="B1867" s="9" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C1867" s="12" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
       <c r="A1868" s="9" t="s">
-        <v>3293</v>
+        <v>3278</v>
       </c>
       <c r="B1868" s="9" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="C1868" s="12" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
       <c r="A1869" s="9" t="s">
-        <v>3294</v>
+        <v>3279</v>
       </c>
       <c r="B1869" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C1869" s="12" t="s">
-        <v>1062</v>
+        <v>1039</v>
+      </c>
+      <c r="C1869" s="9" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
       <c r="A1870" s="9" t="s">
-        <v>3295</v>
+        <v>3280</v>
       </c>
       <c r="B1870" s="9" t="s">
-        <v>1063</v>
+        <v>2840</v>
       </c>
       <c r="C1870" s="12" t="s">
-        <v>501</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
       <c r="A1871" s="9" t="s">
-        <v>3296</v>
-      </c>
-      <c r="B1871" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1871" s="12" t="s">
-        <v>515</v>
+        <v>3281</v>
+      </c>
+      <c r="B1871" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1871" s="14" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
       <c r="A1872" s="9" t="s">
-        <v>3297</v>
+        <v>3282</v>
       </c>
       <c r="B1872" s="9" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C1872" s="12" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="9" t="s">
-        <v>3298</v>
+        <v>3283</v>
       </c>
       <c r="B1873" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1873" s="12" t="s">
-        <v>1068</v>
+        <v>933</v>
+      </c>
+      <c r="C1873" s="14" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
       <c r="A1874" s="9" t="s">
-        <v>3299</v>
+        <v>3284</v>
       </c>
       <c r="B1874" s="9" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="C1874" s="12" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875" s="9" t="s">
-        <v>3300</v>
+        <v>3285</v>
       </c>
       <c r="B1875" s="9" t="s">
-        <v>1071</v>
+        <v>986</v>
       </c>
       <c r="C1875" s="12" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
       <c r="A1876" s="9" t="s">
-        <v>3301</v>
+        <v>3286</v>
       </c>
       <c r="B1876" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1876" s="12" t="s">
-        <v>1073</v>
+        <v>971</v>
+      </c>
+      <c r="C1876" s="14" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
       <c r="A1877" s="9" t="s">
-        <v>3302</v>
+        <v>3287</v>
       </c>
       <c r="B1877" s="9" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="C1877" s="12" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
       <c r="A1878" s="9" t="s">
-        <v>3303</v>
+        <v>3288</v>
       </c>
       <c r="B1878" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1878" s="9" t="s">
-        <v>1076</v>
+        <v>1052</v>
+      </c>
+      <c r="C1878" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
       <c r="A1879" s="9" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="B1879" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1879" s="9" t="s">
-        <v>1077</v>
+        <v>965</v>
+      </c>
+      <c r="C1879" s="12" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
       <c r="A1880" s="9" t="s">
-        <v>3305</v>
+        <v>3290</v>
       </c>
       <c r="B1880" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1880" s="12" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
       <c r="A1881" s="9" t="s">
-        <v>3306</v>
+        <v>3291</v>
       </c>
       <c r="B1881" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1881" s="12" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
       <c r="A1882" s="9" t="s">
-        <v>3307</v>
+        <v>3292</v>
       </c>
       <c r="B1882" s="9" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="C1882" s="12" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
       <c r="A1883" s="9" t="s">
-        <v>3308</v>
+        <v>3293</v>
       </c>
       <c r="B1883" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1883" s="14" t="s">
-        <v>1083</v>
+        <v>1050</v>
+      </c>
+      <c r="C1883" s="12" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
       <c r="A1884" s="9" t="s">
-        <v>3309</v>
+        <v>3294</v>
       </c>
       <c r="B1884" s="9" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="C1884" s="12" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
       <c r="A1885" s="9" t="s">
-        <v>3310</v>
+        <v>3295</v>
       </c>
       <c r="B1885" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1885" s="14" t="s">
-        <v>1088</v>
+        <v>1063</v>
+      </c>
+      <c r="C1885" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
       <c r="A1886" s="9" t="s">
-        <v>3311</v>
-      </c>
-      <c r="B1886" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C1886" s="14" t="s">
-        <v>1090</v>
+        <v>3296</v>
+      </c>
+      <c r="B1886" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1886" s="12" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
       <c r="A1887" s="9" t="s">
-        <v>3312</v>
+        <v>3297</v>
       </c>
       <c r="B1887" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1887" s="9" t="s">
-        <v>1091</v>
+        <v>1065</v>
+      </c>
+      <c r="C1887" s="12" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
       <c r="A1888" s="9" t="s">
-        <v>3313</v>
+        <v>3298</v>
       </c>
       <c r="B1888" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1888" s="14" t="s">
-        <v>1093</v>
+        <v>1067</v>
+      </c>
+      <c r="C1888" s="12" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
       <c r="A1889" s="9" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B1889" s="12" t="s">
-        <v>1094</v>
+        <v>3299</v>
+      </c>
+      <c r="B1889" s="9" t="s">
+        <v>1069</v>
       </c>
       <c r="C1889" s="12" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
       <c r="A1890" s="9" t="s">
-        <v>3315</v>
+        <v>3300</v>
       </c>
       <c r="B1890" s="9" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="C1890" s="12" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
       <c r="A1891" s="9" t="s">
-        <v>3316</v>
+        <v>3301</v>
       </c>
       <c r="B1891" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C1891" s="14" t="s">
-        <v>1099</v>
+        <v>1071</v>
+      </c>
+      <c r="C1891" s="12" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
       <c r="A1892" s="9" t="s">
-        <v>3317</v>
+        <v>3302</v>
       </c>
       <c r="B1892" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C1892" s="14" t="s">
-        <v>1101</v>
+        <v>1074</v>
+      </c>
+      <c r="C1892" s="12" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
       <c r="A1893" s="9" t="s">
-        <v>3318</v>
+        <v>3303</v>
       </c>
       <c r="B1893" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1893" s="12" t="s">
-        <v>1103</v>
+        <v>2024</v>
+      </c>
+      <c r="C1893" s="9" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
       <c r="A1894" s="9" t="s">
-        <v>3319</v>
+        <v>3304</v>
       </c>
       <c r="B1894" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C1894" s="14" t="s">
-        <v>1105</v>
+        <v>2024</v>
+      </c>
+      <c r="C1894" s="9" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
       <c r="A1895" s="9" t="s">
-        <v>3320</v>
+        <v>3305</v>
       </c>
       <c r="B1895" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1895" s="14" t="s">
-        <v>1109</v>
+        <v>1078</v>
+      </c>
+      <c r="C1895" s="12" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
       <c r="A1896" s="9" t="s">
-        <v>3321</v>
+        <v>3306</v>
       </c>
       <c r="B1896" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1896" s="14" t="s">
-        <v>1110</v>
+        <v>1078</v>
+      </c>
+      <c r="C1896" s="12" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
       <c r="A1897" s="9" t="s">
-        <v>3322</v>
+        <v>3307</v>
       </c>
       <c r="B1897" s="9" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="C1897" s="12" t="s">
-        <v>1112</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
       <c r="A1898" s="9" t="s">
-        <v>3323</v>
+        <v>3308</v>
       </c>
       <c r="B1898" s="9" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C1898" s="12" t="s">
-        <v>1113</v>
+        <v>1081</v>
+      </c>
+      <c r="C1898" s="14" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
       <c r="A1899" s="9" t="s">
-        <v>3324</v>
+        <v>3309</v>
       </c>
       <c r="B1899" s="9" t="s">
-        <v>1114</v>
+        <v>1084</v>
       </c>
       <c r="C1899" s="12" t="s">
-        <v>1115</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
       <c r="A1900" s="9" t="s">
-        <v>3325</v>
+        <v>3310</v>
       </c>
       <c r="B1900" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C1900" s="12" t="s">
-        <v>1117</v>
+        <v>1087</v>
+      </c>
+      <c r="C1900" s="14" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
       <c r="A1901" s="9" t="s">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="B1901" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C1901" s="12" t="s">
-        <v>1119</v>
+        <v>1089</v>
+      </c>
+      <c r="C1901" s="14" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
       <c r="A1902" s="9" t="s">
-        <v>3327</v>
+        <v>3312</v>
       </c>
       <c r="B1902" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1902" s="12" t="s">
-        <v>1121</v>
+        <v>649</v>
+      </c>
+      <c r="C1902" s="9" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
       <c r="A1903" s="9" t="s">
-        <v>3328</v>
+        <v>3313</v>
       </c>
       <c r="B1903" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1903" s="12" t="s">
-        <v>1122</v>
+        <v>1092</v>
+      </c>
+      <c r="C1903" s="14" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
       <c r="A1904" s="9" t="s">
-        <v>3329</v>
-      </c>
-      <c r="B1904" s="9" t="s">
-        <v>1124</v>
+        <v>3314</v>
+      </c>
+      <c r="B1904" s="12" t="s">
+        <v>1094</v>
       </c>
       <c r="C1904" s="12" t="s">
-        <v>1125</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
       <c r="A1905" s="9" t="s">
-        <v>3330</v>
+        <v>3315</v>
       </c>
       <c r="B1905" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1905" s="14" t="s">
-        <v>1130</v>
+        <v>1096</v>
+      </c>
+      <c r="C1905" s="12" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
       <c r="A1906" s="9" t="s">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="B1906" s="9" t="s">
-        <v>2827</v>
+        <v>1098</v>
       </c>
       <c r="C1906" s="14" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
       <c r="A1907" s="9" t="s">
-        <v>3332</v>
+        <v>3317</v>
       </c>
       <c r="B1907" s="9" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="C1907" s="14" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
       <c r="A1908" s="9" t="s">
-        <v>3333</v>
-      </c>
-      <c r="B1908" s="12" t="s">
-        <v>1135</v>
+        <v>3318</v>
+      </c>
+      <c r="B1908" s="9" t="s">
+        <v>1102</v>
       </c>
       <c r="C1908" s="12" t="s">
-        <v>88</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1909" spans="1:3">
       <c r="A1909" s="9" t="s">
-        <v>3334</v>
+        <v>3319</v>
       </c>
       <c r="B1909" s="9" t="s">
-        <v>2837</v>
-      </c>
-      <c r="C1909" s="12" t="s">
-        <v>1137</v>
+        <v>1104</v>
+      </c>
+      <c r="C1909" s="14" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
       <c r="A1910" s="9" t="s">
-        <v>3335</v>
+        <v>3320</v>
       </c>
       <c r="B1910" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C1910" s="12" t="s">
-        <v>1139</v>
+        <v>1108</v>
+      </c>
+      <c r="C1910" s="14" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
       <c r="A1911" s="9" t="s">
-        <v>3336</v>
+        <v>3321</v>
       </c>
       <c r="B1911" s="9" t="s">
-        <v>2830</v>
+        <v>662</v>
       </c>
       <c r="C1911" s="14" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
       <c r="A1912" s="9" t="s">
-        <v>3337</v>
+        <v>3322</v>
       </c>
       <c r="B1912" s="9" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C1912" s="14" t="s">
-        <v>1141</v>
+        <v>1111</v>
+      </c>
+      <c r="C1912" s="12" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
       <c r="A1913" s="9" t="s">
-        <v>3338</v>
+        <v>3323</v>
       </c>
       <c r="B1913" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C1913" s="14" t="s">
-        <v>1143</v>
+        <v>2844</v>
+      </c>
+      <c r="C1913" s="12" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
       <c r="A1914" s="9" t="s">
-        <v>3339</v>
+        <v>3324</v>
       </c>
       <c r="B1914" s="9" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="C1914" s="12" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
       <c r="A1915" s="9" t="s">
-        <v>3340</v>
+        <v>3325</v>
       </c>
       <c r="B1915" s="9" t="s">
-        <v>2835</v>
+        <v>1116</v>
       </c>
       <c r="C1915" s="12" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
       <c r="A1916" s="9" t="s">
-        <v>3341</v>
+        <v>3326</v>
       </c>
       <c r="B1916" s="9" t="s">
-        <v>1149</v>
+        <v>1118</v>
       </c>
       <c r="C1916" s="12" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
       <c r="A1917" s="9" t="s">
-        <v>3342</v>
+        <v>3327</v>
       </c>
       <c r="B1917" s="9" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="C1917" s="12" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
       <c r="A1918" s="9" t="s">
-        <v>3343</v>
+        <v>3328</v>
       </c>
       <c r="B1918" s="9" t="s">
-        <v>705</v>
+        <v>1120</v>
       </c>
       <c r="C1918" s="12" t="s">
-        <v>2938</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
       <c r="A1919" s="9" t="s">
-        <v>3344</v>
+        <v>3329</v>
       </c>
       <c r="B1919" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C1919" s="14" t="s">
-        <v>1153</v>
+        <v>1124</v>
+      </c>
+      <c r="C1919" s="12" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
       <c r="A1920" s="9" t="s">
-        <v>3345</v>
+        <v>3330</v>
       </c>
       <c r="B1920" s="9" t="s">
-        <v>1154</v>
+        <v>660</v>
       </c>
       <c r="C1920" s="14" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1921" spans="1:3">
       <c r="A1921" s="9" t="s">
-        <v>3346</v>
+        <v>3331</v>
       </c>
       <c r="B1921" s="9" t="s">
-        <v>1154</v>
+        <v>2827</v>
       </c>
       <c r="C1921" s="14" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1922" spans="1:3">
       <c r="A1922" s="9" t="s">
-        <v>3347</v>
-      </c>
-      <c r="B1922" s="12" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C1922" s="12" t="s">
-        <v>1159</v>
+        <v>3332</v>
+      </c>
+      <c r="B1922" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1922" s="14" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
       <c r="A1923" s="9" t="s">
-        <v>3348</v>
-      </c>
-      <c r="B1923" s="9" t="s">
-        <v>1138</v>
+        <v>3333</v>
+      </c>
+      <c r="B1923" s="12" t="s">
+        <v>1135</v>
       </c>
       <c r="C1923" s="12" t="s">
-        <v>1160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
       <c r="A1924" s="9" t="s">
-        <v>3349</v>
+        <v>3334</v>
       </c>
       <c r="B1924" s="9" t="s">
-        <v>1161</v>
+        <v>2837</v>
       </c>
       <c r="C1924" s="12" t="s">
-        <v>2935</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
       <c r="A1925" s="9" t="s">
-        <v>3350</v>
+        <v>3335</v>
       </c>
       <c r="B1925" s="9" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="C1925" s="12" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
       <c r="A1926" s="9" t="s">
-        <v>3351</v>
+        <v>3336</v>
       </c>
       <c r="B1926" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1926" s="12" t="s">
-        <v>1166</v>
+        <v>2830</v>
+      </c>
+      <c r="C1926" s="14" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
       <c r="A1927" s="9" t="s">
-        <v>3352</v>
+        <v>3337</v>
       </c>
       <c r="B1927" s="9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1927" s="12" t="s">
-        <v>1168</v>
+        <v>2828</v>
+      </c>
+      <c r="C1927" s="14" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
       <c r="A1928" s="9" t="s">
-        <v>3353</v>
+        <v>3338</v>
       </c>
       <c r="B1928" s="9" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="C1928" s="14" t="s">
-        <v>1170</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
       <c r="A1929" s="9" t="s">
-        <v>3354</v>
+        <v>3339</v>
       </c>
       <c r="B1929" s="9" t="s">
-        <v>1171</v>
+        <v>1144</v>
       </c>
       <c r="C1929" s="12" t="s">
-        <v>1172</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
       <c r="A1930" s="9" t="s">
-        <v>3355</v>
-      </c>
-      <c r="B1930" s="12" t="s">
-        <v>1173</v>
+        <v>3340</v>
+      </c>
+      <c r="B1930" s="9" t="s">
+        <v>2835</v>
       </c>
       <c r="C1930" s="12" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
       <c r="A1931" s="9" t="s">
-        <v>3356</v>
+        <v>3341</v>
       </c>
       <c r="B1931" s="9" t="s">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="C1931" s="12" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
       <c r="A1932" s="9" t="s">
-        <v>3357</v>
+        <v>3342</v>
       </c>
       <c r="B1932" s="9" t="s">
-        <v>1179</v>
+        <v>1151</v>
       </c>
       <c r="C1932" s="12" t="s">
-        <v>1180</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
       <c r="A1933" s="9" t="s">
-        <v>3358</v>
+        <v>3343</v>
       </c>
       <c r="B1933" s="9" t="s">
-        <v>2842</v>
+        <v>705</v>
       </c>
       <c r="C1933" s="12" t="s">
-        <v>1183</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
       <c r="A1934" s="9" t="s">
-        <v>3359</v>
+        <v>3344</v>
       </c>
       <c r="B1934" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C1934" s="12" t="s">
-        <v>1186</v>
+        <v>705</v>
+      </c>
+      <c r="C1934" s="14" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
       <c r="A1935" s="9" t="s">
-        <v>3360</v>
+        <v>3345</v>
       </c>
       <c r="B1935" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C1935" s="12" t="s">
-        <v>1190</v>
+        <v>1154</v>
+      </c>
+      <c r="C1935" s="14" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
       <c r="A1936" s="9" t="s">
-        <v>3361</v>
+        <v>3346</v>
       </c>
       <c r="B1936" s="9" t="s">
-        <v>2839</v>
-      </c>
-      <c r="C1936" s="12" t="s">
-        <v>1191</v>
+        <v>1154</v>
+      </c>
+      <c r="C1936" s="14" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
       <c r="A1937" s="9" t="s">
-        <v>3362</v>
-      </c>
-      <c r="B1937" s="9" t="s">
-        <v>1192</v>
+        <v>3347</v>
+      </c>
+      <c r="B1937" s="12" t="s">
+        <v>1158</v>
       </c>
       <c r="C1937" s="12" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
       <c r="A1938" s="9" t="s">
-        <v>3363</v>
+        <v>3348</v>
       </c>
       <c r="B1938" s="9" t="s">
-        <v>1194</v>
+        <v>1138</v>
       </c>
       <c r="C1938" s="12" t="s">
-        <v>1195</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
       <c r="A1939" s="9" t="s">
-        <v>3364</v>
+        <v>3349</v>
       </c>
       <c r="B1939" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1939" s="14" t="s">
-        <v>1197</v>
+        <v>1161</v>
+      </c>
+      <c r="C1939" s="12" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
       <c r="A1940" s="9" t="s">
-        <v>3365</v>
+        <v>3350</v>
       </c>
       <c r="B1940" s="9" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C1940" s="14" t="s">
-        <v>1198</v>
+        <v>1162</v>
+      </c>
+      <c r="C1940" s="12" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
       <c r="A1941" s="9" t="s">
-        <v>3366</v>
+        <v>3351</v>
       </c>
       <c r="B1941" s="9" t="s">
-        <v>1200</v>
+        <v>1165</v>
       </c>
       <c r="C1941" s="12" t="s">
-        <v>1201</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
       <c r="A1942" s="9" t="s">
-        <v>3367</v>
+        <v>3352</v>
       </c>
       <c r="B1942" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C1942" s="14" t="s">
-        <v>1203</v>
+        <v>1167</v>
+      </c>
+      <c r="C1942" s="12" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
       <c r="A1943" s="9" t="s">
-        <v>3368</v>
+        <v>3353</v>
       </c>
       <c r="B1943" s="9" t="s">
-        <v>1202</v>
+        <v>1169</v>
       </c>
       <c r="C1943" s="14" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
       <c r="A1944" s="9" t="s">
-        <v>3369</v>
+        <v>3354</v>
       </c>
       <c r="B1944" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C1944" s="14" t="s">
-        <v>1209</v>
+        <v>1171</v>
+      </c>
+      <c r="C1944" s="12" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
       <c r="A1945" s="9" t="s">
-        <v>3370</v>
-      </c>
-      <c r="B1945" s="9" t="s">
-        <v>1210</v>
+        <v>3355</v>
+      </c>
+      <c r="B1945" s="12" t="s">
+        <v>1173</v>
       </c>
       <c r="C1945" s="12" t="s">
-        <v>738</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
       <c r="A1946" s="9" t="s">
-        <v>3371</v>
+        <v>3356</v>
       </c>
       <c r="B1946" s="9" t="s">
-        <v>2838</v>
+        <v>1177</v>
       </c>
       <c r="C1946" s="12" t="s">
-        <v>1211</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
       <c r="A1947" s="9" t="s">
-        <v>3372</v>
+        <v>3357</v>
       </c>
       <c r="B1947" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1947" s="14" t="s">
-        <v>1213</v>
+        <v>1179</v>
+      </c>
+      <c r="C1947" s="12" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
       <c r="A1948" s="9" t="s">
-        <v>3373</v>
+        <v>3358</v>
       </c>
       <c r="B1948" s="9" t="s">
-        <v>1214</v>
+        <v>2842</v>
       </c>
       <c r="C1948" s="12" t="s">
-        <v>1215</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
       <c r="A1949" s="9" t="s">
-        <v>3374</v>
+        <v>3359</v>
       </c>
       <c r="B1949" s="9" t="s">
-        <v>2285</v>
+        <v>1185</v>
       </c>
       <c r="C1949" s="12" t="s">
-        <v>1216</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
       <c r="A1950" s="9" t="s">
-        <v>3375</v>
+        <v>3360</v>
       </c>
       <c r="B1950" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1950" s="14" t="s">
-        <v>1217</v>
+        <v>1189</v>
+      </c>
+      <c r="C1950" s="12" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
       <c r="A1951" s="9" t="s">
-        <v>3376</v>
+        <v>3361</v>
       </c>
       <c r="B1951" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1951" s="14" t="s">
-        <v>1218</v>
+        <v>2839</v>
+      </c>
+      <c r="C1951" s="12" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
       <c r="A1952" s="9" t="s">
-        <v>3377</v>
+        <v>3362</v>
       </c>
       <c r="B1952" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1952" s="14" t="s">
-        <v>1219</v>
+        <v>1192</v>
+      </c>
+      <c r="C1952" s="12" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
       <c r="A1953" s="9" t="s">
-        <v>3378</v>
+        <v>3363</v>
       </c>
       <c r="B1953" s="9" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C1953" s="14" t="s">
-        <v>1221</v>
+        <v>1194</v>
+      </c>
+      <c r="C1953" s="12" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
       <c r="A1954" s="9" t="s">
-        <v>3379</v>
+        <v>3364</v>
       </c>
       <c r="B1954" s="9" t="s">
-        <v>833</v>
+        <v>1196</v>
       </c>
       <c r="C1954" s="14" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
       <c r="A1955" s="9" t="s">
-        <v>3380</v>
+        <v>3365</v>
       </c>
       <c r="B1955" s="9" t="s">
-        <v>1225</v>
+        <v>2832</v>
       </c>
       <c r="C1955" s="14" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
       <c r="A1956" s="9" t="s">
-        <v>3381</v>
+        <v>3366</v>
       </c>
       <c r="B1956" s="9" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C1956" s="14" t="s">
-        <v>1227</v>
+        <v>1200</v>
+      </c>
+      <c r="C1956" s="12" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
       <c r="A1957" s="9" t="s">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="B1957" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C1957" s="12" t="s">
-        <v>1229</v>
+        <v>1202</v>
+      </c>
+      <c r="C1957" s="14" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
       <c r="A1958" s="9" t="s">
-        <v>3383</v>
+        <v>3368</v>
       </c>
       <c r="B1958" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1958" s="12" t="s">
-        <v>1230</v>
+        <v>1202</v>
+      </c>
+      <c r="C1958" s="14" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
       <c r="A1959" s="9" t="s">
-        <v>3384</v>
+        <v>3369</v>
       </c>
       <c r="B1959" s="9" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="C1959" s="14" t="s">
-        <v>419</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
       <c r="A1960" s="9" t="s">
-        <v>3385</v>
+        <v>3370</v>
       </c>
       <c r="B1960" s="9" t="s">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="C1960" s="12" t="s">
-        <v>1233</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
       <c r="A1961" s="9" t="s">
-        <v>3386</v>
+        <v>3371</v>
       </c>
       <c r="B1961" s="9" t="s">
-        <v>1000</v>
+        <v>2838</v>
       </c>
       <c r="C1961" s="12" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
       <c r="A1962" s="9" t="s">
-        <v>3387</v>
+        <v>3372</v>
       </c>
       <c r="B1962" s="9" t="s">
-        <v>925</v>
+        <v>1212</v>
       </c>
       <c r="C1962" s="14" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
       <c r="A1963" s="9" t="s">
-        <v>3388</v>
+        <v>3373</v>
       </c>
       <c r="B1963" s="9" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="C1963" s="12" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
       <c r="A1964" s="9" t="s">
-        <v>3389</v>
+        <v>3374</v>
       </c>
       <c r="B1964" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C1964" s="14" t="s">
-        <v>1239</v>
+        <v>2285</v>
+      </c>
+      <c r="C1964" s="12" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
       <c r="A1965" s="9" t="s">
-        <v>3390</v>
+        <v>3375</v>
       </c>
       <c r="B1965" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C1965" s="12" t="s">
-        <v>1241</v>
+        <v>872</v>
+      </c>
+      <c r="C1965" s="14" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
       <c r="A1966" s="9" t="s">
-        <v>3391</v>
+        <v>3376</v>
       </c>
       <c r="B1966" s="9" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="C1966" s="14" t="s">
-        <v>1242</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
       <c r="A1967" s="9" t="s">
-        <v>3392</v>
+        <v>3377</v>
       </c>
       <c r="B1967" s="9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C1967" s="12" t="s">
-        <v>1244</v>
+        <v>872</v>
+      </c>
+      <c r="C1967" s="14" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
       <c r="A1968" s="9" t="s">
-        <v>3393</v>
+        <v>3378</v>
       </c>
       <c r="B1968" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C1968" s="12" t="s">
-        <v>1245</v>
+        <v>1220</v>
+      </c>
+      <c r="C1968" s="14" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
       <c r="A1969" s="9" t="s">
-        <v>3394</v>
+        <v>3379</v>
       </c>
       <c r="B1969" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1969" s="12" t="s">
-        <v>1247</v>
+        <v>833</v>
+      </c>
+      <c r="C1969" s="14" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
       <c r="A1970" s="9" t="s">
-        <v>3395</v>
+        <v>3380</v>
       </c>
       <c r="B1970" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C1970" s="12" t="s">
-        <v>986</v>
+        <v>1225</v>
+      </c>
+      <c r="C1970" s="14" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
       <c r="A1971" s="9" t="s">
-        <v>3396</v>
+        <v>3381</v>
       </c>
       <c r="B1971" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1971" s="12" t="s">
-        <v>499</v>
+        <v>1225</v>
+      </c>
+      <c r="C1971" s="14" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
       <c r="A1972" s="9" t="s">
-        <v>3397</v>
+        <v>3382</v>
       </c>
       <c r="B1972" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1972" s="14" t="s">
-        <v>1248</v>
+        <v>1228</v>
+      </c>
+      <c r="C1972" s="12" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="1973" spans="1:3">
       <c r="A1973" s="9" t="s">
-        <v>3398</v>
+        <v>3383</v>
       </c>
       <c r="B1973" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1973" s="14" t="s">
-        <v>1249</v>
+        <v>998</v>
+      </c>
+      <c r="C1973" s="12" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="1974" spans="1:3">
       <c r="A1974" s="9" t="s">
-        <v>3399</v>
+        <v>3384</v>
       </c>
       <c r="B1974" s="9" t="s">
-        <v>933</v>
+        <v>1231</v>
       </c>
       <c r="C1974" s="14" t="s">
-        <v>1250</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
       <c r="A1975" s="9" t="s">
-        <v>3400</v>
+        <v>3385</v>
       </c>
       <c r="B1975" s="9" t="s">
-        <v>956</v>
+        <v>1232</v>
       </c>
       <c r="C1975" s="12" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1976" spans="1:3">
       <c r="A1976" s="9" t="s">
-        <v>3401</v>
+        <v>3386</v>
       </c>
       <c r="B1976" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1976" s="14" t="s">
-        <v>1252</v>
+        <v>1000</v>
+      </c>
+      <c r="C1976" s="12" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
       <c r="A1977" s="9" t="s">
-        <v>3402</v>
+        <v>3387</v>
       </c>
       <c r="B1977" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1977" s="12" t="s">
-        <v>1254</v>
+        <v>925</v>
+      </c>
+      <c r="C1977" s="14" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
       <c r="A1978" s="9" t="s">
-        <v>3403</v>
+        <v>3388</v>
       </c>
       <c r="B1978" s="9" t="s">
-        <v>1255</v>
+        <v>1236</v>
       </c>
       <c r="C1978" s="12" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1979" spans="1:3">
       <c r="A1979" s="9" t="s">
-        <v>3404</v>
+        <v>3389</v>
       </c>
       <c r="B1979" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1979" s="12" t="s">
-        <v>1257</v>
+        <v>1238</v>
+      </c>
+      <c r="C1979" s="14" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="1980" spans="1:3">
       <c r="A1980" s="9" t="s">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="B1980" s="9" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="C1980" s="12" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1981" spans="1:3">
       <c r="A1981" s="9" t="s">
-        <v>3406</v>
+        <v>3391</v>
       </c>
       <c r="B1981" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C1981" s="12" t="s">
-        <v>1261</v>
+        <v>1006</v>
+      </c>
+      <c r="C1981" s="14" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="1982" spans="1:3">
       <c r="A1982" s="9" t="s">
-        <v>3407</v>
+        <v>3392</v>
       </c>
       <c r="B1982" s="9" t="s">
-        <v>984</v>
+        <v>1243</v>
       </c>
       <c r="C1982" s="12" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
       <c r="A1983" s="9" t="s">
-        <v>3408</v>
+        <v>3393</v>
       </c>
       <c r="B1983" s="9" t="s">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="C1983" s="12" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
       <c r="A1984" s="9" t="s">
-        <v>3409</v>
+        <v>3394</v>
       </c>
       <c r="B1984" s="9" t="s">
-        <v>979</v>
+        <v>1246</v>
       </c>
       <c r="C1984" s="12" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1985" spans="1:3">
       <c r="A1985" s="9" t="s">
-        <v>3410</v>
+        <v>3395</v>
       </c>
       <c r="B1985" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C1985" s="14" t="s">
-        <v>1265</v>
+        <v>1421</v>
+      </c>
+      <c r="C1985" s="12" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="1986" spans="1:3">
       <c r="A1986" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1986" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1986" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3">
+      <c r="A1987" s="9" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1987" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1987" s="14" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3">
+      <c r="A1988" s="9" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1988" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1988" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3">
+      <c r="A1989" s="9" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1989" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1989" s="14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3">
+      <c r="A1990" s="9" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1990" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1990" s="12" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3">
+      <c r="A1991" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1991" s="9" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1991" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3">
+      <c r="A1992" s="9" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1992" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1992" s="12" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3">
+      <c r="A1993" s="9" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1993" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1993" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3">
+      <c r="A1994" s="9" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1994" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1994" s="12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3">
+      <c r="A1995" s="9" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1995" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1995" s="12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3">
+      <c r="A1996" s="9" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1996" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1996" s="12" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3">
+      <c r="A1997" s="9" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1997" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1997" s="12" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3">
+      <c r="A1998" s="9" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1998" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1998" s="12" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3">
+      <c r="A1999" s="9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1999" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1999" s="12" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3">
+      <c r="A2000" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B2000" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2000" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3">
+      <c r="A2001" s="9" t="s">
         <v>3411</v>
       </c>
-      <c r="B1986" s="9" t="s">
+      <c r="B2001" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C1986" s="14" t="s">
+      <c r="C2001" s="14" t="s">
         <v>1266</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1868">
-    <sortState ref="A2:C1971">
-      <sortCondition ref="A1:A1853"/>
-    </sortState>
-  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet 2'!$A$1:$D$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1883</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1898</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="5238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6046" uniqueCount="5272">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -15734,6 +15734,108 @@
   </si>
   <si>
     <t>GP-0705</t>
+  </si>
+  <si>
+    <t>Sam Fender</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>Tom Grennan</t>
+  </si>
+  <si>
+    <t>As It Was</t>
+  </si>
+  <si>
+    <t>Man In Black</t>
+  </si>
+  <si>
+    <t>Seventeen Going Under</t>
+  </si>
+  <si>
+    <t>Unpretty</t>
+  </si>
+  <si>
+    <t>Waterfalls</t>
+  </si>
+  <si>
+    <t>Mardy Bum</t>
+  </si>
+  <si>
+    <t>Welcome To The Jungle</t>
+  </si>
+  <si>
+    <t>Paradise City</t>
+  </si>
+  <si>
+    <t>Basket Case</t>
+  </si>
+  <si>
+    <t>American Idiot</t>
+  </si>
+  <si>
+    <t>Tears Dry On Their Own</t>
+  </si>
+  <si>
+    <t>Remind Me</t>
+  </si>
+  <si>
+    <t>All These Things That I've Done</t>
+  </si>
+  <si>
+    <t>When You Were Young</t>
+  </si>
+  <si>
+    <t>California Gurls</t>
+  </si>
+  <si>
+    <t>Guns 'N' Roses</t>
+  </si>
+  <si>
+    <t>GP-0706</t>
+  </si>
+  <si>
+    <t>GP-0707</t>
+  </si>
+  <si>
+    <t>GP-0708</t>
+  </si>
+  <si>
+    <t>GP-0709</t>
+  </si>
+  <si>
+    <t>GP-0710</t>
+  </si>
+  <si>
+    <t>GP-0711</t>
+  </si>
+  <si>
+    <t>GP-0712</t>
+  </si>
+  <si>
+    <t>GP-0713</t>
+  </si>
+  <si>
+    <t>GP-0714</t>
+  </si>
+  <si>
+    <t>GP-0715</t>
+  </si>
+  <si>
+    <t>GP-0716</t>
+  </si>
+  <si>
+    <t>GP-0717</t>
+  </si>
+  <si>
+    <t>GP-0718</t>
+  </si>
+  <si>
+    <t>GP-0719</t>
+  </si>
+  <si>
+    <t>GP-0720</t>
   </si>
 </sst>
 </file>
@@ -16146,10 +16248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2001"/>
+  <dimension ref="A1:E2016"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A1524" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1534" sqref="D1534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -33607,5139 +33709,5304 @@
       </c>
     </row>
     <row r="1535" spans="1:3">
-      <c r="A1535" s="9" t="s">
-        <v>2956</v>
-      </c>
-      <c r="B1535" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1535" s="9" t="s">
-        <v>1</v>
+      <c r="A1535" s="10" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B1535" s="16" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C1535" s="16" t="s">
+        <v>5241</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
-      <c r="A1536" s="11" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B1536" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1536" s="9" t="s">
-        <v>8</v>
+      <c r="A1536" s="10" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B1536" s="16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1536" s="16" t="s">
+        <v>5242</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
-      <c r="A1537" s="9" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B1537" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1537" s="9" t="s">
-        <v>9</v>
+      <c r="A1537" s="10" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B1537" s="16" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C1537" s="16" t="s">
+        <v>5243</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
-      <c r="A1538" s="11" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B1538" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1538" s="9" t="s">
-        <v>10</v>
+      <c r="A1538" s="10" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B1538" s="16" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C1538" s="16" t="s">
+        <v>5244</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
-      <c r="A1539" s="11" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B1539" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1539" s="9" t="s">
-        <v>12</v>
+      <c r="A1539" s="10" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B1539" s="16" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C1539" s="16" t="s">
+        <v>5245</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
-      <c r="A1540" s="9" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B1540" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1540" s="9" t="s">
-        <v>15</v>
+      <c r="A1540" s="10" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B1540" s="16" t="s">
+        <v>4938</v>
+      </c>
+      <c r="C1540" s="16" t="s">
+        <v>5246</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
-      <c r="A1541" s="9" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B1541" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1541" s="9" t="s">
-        <v>16</v>
+      <c r="A1541" s="10" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B1541" s="16" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C1541" s="16" t="s">
+        <v>5247</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
-      <c r="A1542" s="9" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B1542" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1542" s="9" t="s">
-        <v>17</v>
+      <c r="A1542" s="10" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B1542" s="16" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C1542" s="16" t="s">
+        <v>5248</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
-      <c r="A1543" s="9" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B1543" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1543" s="9" t="s">
-        <v>20</v>
+      <c r="A1543" s="10" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B1543" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1543" s="16" t="s">
+        <v>5249</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
-      <c r="A1544" s="9" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B1544" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1544" s="9" t="s">
-        <v>24</v>
+      <c r="A1544" s="10" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B1544" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1544" s="16" t="s">
+        <v>5250</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
-      <c r="A1545" s="9" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1545" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1545" s="9" t="s">
-        <v>28</v>
+      <c r="A1545" s="10" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B1545" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C1545" s="16" t="s">
+        <v>5251</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
-      <c r="A1546" s="9" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B1546" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1546" s="9" t="s">
-        <v>31</v>
+      <c r="A1546" s="10" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B1546" s="16" t="s">
+        <v>5240</v>
+      </c>
+      <c r="C1546" s="16" t="s">
+        <v>5252</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
-      <c r="A1547" s="9" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B1547" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1547" s="9" t="s">
-        <v>33</v>
+      <c r="A1547" s="10" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B1547" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1547" s="16" t="s">
+        <v>5253</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
-      <c r="A1548" s="9" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B1548" s="9" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C1548" s="9" t="s">
-        <v>34</v>
+      <c r="A1548" s="10" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B1548" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C1548" s="16" t="s">
+        <v>5254</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
-      <c r="A1549" s="9" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B1549" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1549" s="9" t="s">
-        <v>36</v>
+      <c r="A1549" s="10" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B1549" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1549" s="16" t="s">
+        <v>5255</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="9" t="s">
-        <v>3073</v>
+        <v>2956</v>
       </c>
       <c r="B1550" s="9" t="s">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="C1550" s="9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
-      <c r="A1551" s="9" t="s">
-        <v>3088</v>
+      <c r="A1551" s="11" t="s">
+        <v>2957</v>
       </c>
       <c r="B1551" s="9" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C1551" s="9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="9" t="s">
-        <v>3100</v>
+        <v>2958</v>
       </c>
       <c r="B1552" s="9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C1552" s="9" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
-      <c r="A1553" s="9" t="s">
-        <v>3111</v>
+      <c r="A1553" s="11" t="s">
+        <v>2959</v>
       </c>
       <c r="B1553" s="9" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C1553" s="9" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
-      <c r="A1554" s="9" t="s">
-        <v>3119</v>
+      <c r="A1554" s="11" t="s">
+        <v>2960</v>
       </c>
       <c r="B1554" s="9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C1554" s="9" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="9" t="s">
-        <v>3126</v>
+        <v>2965</v>
       </c>
       <c r="B1555" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1555" s="9" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="9" t="s">
-        <v>3133</v>
+        <v>2973</v>
       </c>
       <c r="B1556" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1556" s="9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="9" t="s">
-        <v>3139</v>
+        <v>2976</v>
       </c>
       <c r="B1557" s="9" t="s">
-        <v>2285</v>
+        <v>13</v>
       </c>
       <c r="C1557" s="9" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
       <c r="A1558" s="9" t="s">
-        <v>3156</v>
+        <v>2986</v>
       </c>
       <c r="B1558" s="9" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C1558" s="9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
       <c r="A1559" s="9" t="s">
-        <v>3163</v>
+        <v>3008</v>
       </c>
       <c r="B1559" s="9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C1559" s="9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
       <c r="A1560" s="9" t="s">
-        <v>3164</v>
+        <v>3028</v>
       </c>
       <c r="B1560" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C1560" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
       <c r="A1561" s="9" t="s">
-        <v>3165</v>
+        <v>3039</v>
       </c>
       <c r="B1561" s="9" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C1561" s="9" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
       <c r="A1562" s="9" t="s">
-        <v>3166</v>
+        <v>3043</v>
       </c>
       <c r="B1562" s="9" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C1562" s="9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="9" t="s">
-        <v>3167</v>
+        <v>3060</v>
       </c>
       <c r="B1563" s="9" t="s">
-        <v>68</v>
+        <v>2847</v>
       </c>
       <c r="C1563" s="9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="9" t="s">
-        <v>3168</v>
+        <v>3066</v>
       </c>
       <c r="B1564" s="9" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C1564" s="9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="9" t="s">
-        <v>3169</v>
+        <v>3073</v>
       </c>
       <c r="B1565" s="9" t="s">
-        <v>72</v>
+        <v>2798</v>
       </c>
       <c r="C1565" s="9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="9" t="s">
-        <v>3170</v>
+        <v>3088</v>
       </c>
       <c r="B1566" s="9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C1566" s="9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="9" t="s">
-        <v>3171</v>
+        <v>3100</v>
       </c>
       <c r="B1567" s="9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C1567" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="9" t="s">
-        <v>3172</v>
+        <v>3111</v>
       </c>
       <c r="B1568" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C1568" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="9" t="s">
-        <v>3173</v>
+        <v>3119</v>
       </c>
       <c r="B1569" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C1569" s="9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="9" t="s">
-        <v>3174</v>
+        <v>3126</v>
       </c>
       <c r="B1570" s="9" t="s">
-        <v>81</v>
+        <v>2285</v>
       </c>
       <c r="C1570" s="9" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="9" t="s">
-        <v>3175</v>
+        <v>3133</v>
       </c>
       <c r="B1571" s="9" t="s">
-        <v>83</v>
+        <v>2285</v>
       </c>
       <c r="C1571" s="9" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="9" t="s">
-        <v>3176</v>
+        <v>3139</v>
       </c>
       <c r="B1572" s="9" t="s">
-        <v>85</v>
+        <v>2285</v>
       </c>
       <c r="C1572" s="9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="9" t="s">
-        <v>3177</v>
+        <v>3156</v>
       </c>
       <c r="B1573" s="9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C1573" s="9" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
       <c r="A1574" s="9" t="s">
-        <v>3178</v>
+        <v>3163</v>
       </c>
       <c r="B1574" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C1574" s="9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="9" t="s">
-        <v>3179</v>
+        <v>3164</v>
       </c>
       <c r="B1575" s="9" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C1575" s="9" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
       <c r="A1576" s="9" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="B1576" s="9" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C1576" s="9" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="9" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="B1577" s="9" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C1577" s="9" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
       <c r="A1578" s="9" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="B1578" s="9" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C1578" s="9" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
       <c r="A1579" s="9" t="s">
-        <v>3412</v>
+        <v>3168</v>
       </c>
       <c r="B1579" s="9" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C1579" s="9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
       <c r="A1580" s="9" t="s">
-        <v>3413</v>
+        <v>3169</v>
       </c>
       <c r="B1580" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1580" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
       <c r="A1581" s="9" t="s">
-        <v>3414</v>
+        <v>3170</v>
       </c>
       <c r="B1581" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C1581" s="9" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
       <c r="A1582" s="9" t="s">
-        <v>3415</v>
+        <v>3171</v>
       </c>
       <c r="B1582" s="9" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C1582" s="9" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1583" spans="1:3">
       <c r="A1583" s="9" t="s">
-        <v>3416</v>
+        <v>3172</v>
       </c>
       <c r="B1583" s="9" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C1583" s="9" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
       <c r="A1584" s="9" t="s">
-        <v>3417</v>
+        <v>3173</v>
       </c>
       <c r="B1584" s="9" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C1584" s="9" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
       <c r="A1585" s="9" t="s">
-        <v>3418</v>
+        <v>3174</v>
       </c>
       <c r="B1585" s="9" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C1585" s="9" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
       <c r="A1586" s="9" t="s">
-        <v>3419</v>
+        <v>3175</v>
       </c>
       <c r="B1586" s="9" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C1586" s="9" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
       <c r="A1587" s="9" t="s">
-        <v>3420</v>
+        <v>3176</v>
       </c>
       <c r="B1587" s="9" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C1587" s="9" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
       <c r="A1588" s="9" t="s">
-        <v>3421</v>
+        <v>3177</v>
       </c>
       <c r="B1588" s="9" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C1588" s="9" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
       <c r="A1589" s="9" t="s">
-        <v>2961</v>
+        <v>3178</v>
       </c>
       <c r="B1589" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C1589" s="9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
       <c r="A1590" s="9" t="s">
-        <v>2962</v>
+        <v>3179</v>
       </c>
       <c r="B1590" s="9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C1590" s="9" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
       <c r="A1591" s="9" t="s">
-        <v>2963</v>
+        <v>3180</v>
       </c>
       <c r="B1591" s="9" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C1591" s="9" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
       <c r="A1592" s="9" t="s">
-        <v>2964</v>
+        <v>3181</v>
       </c>
       <c r="B1592" s="9" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C1592" s="9" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
       <c r="A1593" s="9" t="s">
-        <v>2966</v>
+        <v>3182</v>
       </c>
       <c r="B1593" s="9" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C1593" s="9" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
       <c r="A1594" s="9" t="s">
-        <v>2967</v>
+        <v>3412</v>
       </c>
       <c r="B1594" s="9" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C1594" s="9" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
       <c r="A1595" s="9" t="s">
-        <v>2968</v>
+        <v>3413</v>
       </c>
       <c r="B1595" s="9" t="s">
-        <v>2849</v>
+        <v>106</v>
       </c>
       <c r="C1595" s="9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
       <c r="A1596" s="9" t="s">
-        <v>2969</v>
+        <v>3414</v>
       </c>
       <c r="B1596" s="9" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C1596" s="9" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
       <c r="A1597" s="9" t="s">
-        <v>2970</v>
+        <v>3415</v>
       </c>
       <c r="B1597" s="9" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C1597" s="9" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
       <c r="A1598" s="9" t="s">
-        <v>2971</v>
+        <v>3416</v>
       </c>
       <c r="B1598" s="9" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C1598" s="9" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1599" spans="1:3">
       <c r="A1599" s="9" t="s">
-        <v>2972</v>
+        <v>3417</v>
       </c>
       <c r="B1599" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C1599" s="9" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
       <c r="A1600" s="9" t="s">
-        <v>2974</v>
+        <v>3418</v>
       </c>
       <c r="B1600" s="9" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C1600" s="9" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
       <c r="A1601" s="9" t="s">
-        <v>2975</v>
+        <v>3419</v>
       </c>
       <c r="B1601" s="9" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C1601" s="9" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
       <c r="A1602" s="9" t="s">
-        <v>2977</v>
+        <v>3420</v>
       </c>
       <c r="B1602" s="9" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C1602" s="9" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
       <c r="A1603" s="9" t="s">
-        <v>2978</v>
+        <v>3421</v>
       </c>
       <c r="B1603" s="9" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C1603" s="9" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604" s="9" t="s">
-        <v>2979</v>
+        <v>2961</v>
       </c>
       <c r="B1604" s="9" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C1604" s="9" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
       <c r="A1605" s="9" t="s">
-        <v>2980</v>
+        <v>2962</v>
       </c>
       <c r="B1605" s="9" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C1605" s="9" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
       <c r="A1606" s="9" t="s">
-        <v>2981</v>
+        <v>2963</v>
       </c>
       <c r="B1606" s="9" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C1606" s="9" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
       <c r="A1607" s="9" t="s">
-        <v>2982</v>
+        <v>2964</v>
       </c>
       <c r="B1607" s="9" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C1607" s="9" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
       <c r="A1608" s="9" t="s">
-        <v>2983</v>
+        <v>2966</v>
       </c>
       <c r="B1608" s="9" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C1608" s="9" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
       <c r="A1609" s="9" t="s">
-        <v>2984</v>
+        <v>2967</v>
       </c>
       <c r="B1609" s="9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C1609" s="9" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1610" spans="1:3">
       <c r="A1610" s="9" t="s">
-        <v>2985</v>
+        <v>2968</v>
       </c>
       <c r="B1610" s="9" t="s">
-        <v>198</v>
+        <v>2849</v>
       </c>
       <c r="C1610" s="9" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1611" spans="1:3">
       <c r="A1611" s="9" t="s">
-        <v>2987</v>
+        <v>2969</v>
       </c>
       <c r="B1611" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1611" s="9" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1612" spans="1:3">
       <c r="A1612" s="9" t="s">
-        <v>2988</v>
+        <v>2970</v>
       </c>
       <c r="B1612" s="9" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C1612" s="9" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1613" spans="1:3">
       <c r="A1613" s="9" t="s">
-        <v>2989</v>
+        <v>2971</v>
       </c>
       <c r="B1613" s="9" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C1613" s="9" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
       <c r="A1614" s="9" t="s">
-        <v>2990</v>
+        <v>2972</v>
       </c>
       <c r="B1614" s="9" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C1614" s="9" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
       <c r="A1615" s="9" t="s">
-        <v>2991</v>
+        <v>2974</v>
       </c>
       <c r="B1615" s="9" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C1615" s="9" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
       <c r="A1616" s="9" t="s">
-        <v>2992</v>
+        <v>2975</v>
       </c>
       <c r="B1616" s="9" t="s">
-        <v>2926</v>
+        <v>166</v>
       </c>
       <c r="C1616" s="9" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617" s="9" t="s">
-        <v>2993</v>
+        <v>2977</v>
       </c>
       <c r="B1617" s="9" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="C1617" s="9" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
       <c r="A1618" s="9" t="s">
-        <v>2994</v>
+        <v>2978</v>
       </c>
       <c r="B1618" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1618" s="9" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1619" spans="1:3">
       <c r="A1619" s="9" t="s">
-        <v>2995</v>
+        <v>2979</v>
       </c>
       <c r="B1619" s="9" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C1619" s="9" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
       <c r="A1620" s="9" t="s">
-        <v>2996</v>
+        <v>2980</v>
       </c>
       <c r="B1620" s="9" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C1620" s="9" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621" s="9" t="s">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="B1621" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C1621" s="9" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
       <c r="A1622" s="9" t="s">
-        <v>2998</v>
+        <v>2982</v>
       </c>
       <c r="B1622" s="9" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C1622" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
       <c r="A1623" s="9" t="s">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="B1623" s="9" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C1623" s="9" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1624" spans="1:3">
       <c r="A1624" s="9" t="s">
-        <v>3000</v>
+        <v>2984</v>
       </c>
       <c r="B1624" s="9" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C1624" s="9" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
       <c r="A1625" s="9" t="s">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="B1625" s="9" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C1625" s="9" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
       <c r="A1626" s="9" t="s">
-        <v>3002</v>
+        <v>2987</v>
       </c>
       <c r="B1626" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C1626" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
       <c r="A1627" s="9" t="s">
-        <v>3003</v>
+        <v>2988</v>
       </c>
       <c r="B1627" s="9" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C1627" s="9" t="s">
-        <v>1136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1628" spans="1:3">
       <c r="A1628" s="9" t="s">
-        <v>3004</v>
+        <v>2989</v>
       </c>
       <c r="B1628" s="9" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C1628" s="9" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
       <c r="A1629" s="9" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="B1629" s="9" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C1629" s="9" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
       <c r="A1630" s="9" t="s">
-        <v>3006</v>
+        <v>2991</v>
       </c>
       <c r="B1630" s="9" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C1630" s="9" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
       <c r="A1631" s="9" t="s">
-        <v>3007</v>
+        <v>2992</v>
       </c>
       <c r="B1631" s="9" t="s">
-        <v>248</v>
+        <v>2926</v>
       </c>
       <c r="C1631" s="9" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
       <c r="A1632" s="9" t="s">
-        <v>3009</v>
+        <v>2993</v>
       </c>
       <c r="B1632" s="9" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C1632" s="9" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
       <c r="A1633" s="9" t="s">
-        <v>3010</v>
+        <v>2994</v>
       </c>
       <c r="B1633" s="9" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C1633" s="9" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1634" spans="1:3">
       <c r="A1634" s="9" t="s">
-        <v>3011</v>
+        <v>2995</v>
       </c>
       <c r="B1634" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1634" s="9" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
       <c r="A1635" s="9" t="s">
-        <v>3012</v>
+        <v>2996</v>
       </c>
       <c r="B1635" s="9" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C1635" s="9" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
       <c r="A1636" s="9" t="s">
-        <v>3013</v>
+        <v>2997</v>
       </c>
       <c r="B1636" s="9" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C1636" s="9" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
       <c r="A1637" s="9" t="s">
-        <v>3014</v>
+        <v>2998</v>
       </c>
       <c r="B1637" s="9" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C1637" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
       <c r="A1638" s="9" t="s">
-        <v>3015</v>
+        <v>2999</v>
       </c>
       <c r="B1638" s="9" t="s">
-        <v>2803</v>
+        <v>227</v>
       </c>
       <c r="C1638" s="9" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
       <c r="A1639" s="9" t="s">
-        <v>3016</v>
+        <v>3000</v>
       </c>
       <c r="B1639" s="9" t="s">
-        <v>2890</v>
+        <v>231</v>
       </c>
       <c r="C1639" s="9" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1640" spans="1:3">
       <c r="A1640" s="9" t="s">
-        <v>3017</v>
+        <v>3001</v>
       </c>
       <c r="B1640" s="9" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C1640" s="9" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
       <c r="A1641" s="9" t="s">
-        <v>3018</v>
+        <v>3002</v>
       </c>
       <c r="B1641" s="9" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C1641" s="9" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
       <c r="A1642" s="9" t="s">
-        <v>3019</v>
+        <v>3003</v>
       </c>
       <c r="B1642" s="9" t="s">
-        <v>2805</v>
+        <v>239</v>
       </c>
       <c r="C1642" s="9" t="s">
-        <v>2939</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1643" spans="1:3">
       <c r="A1643" s="9" t="s">
-        <v>3020</v>
+        <v>3004</v>
       </c>
       <c r="B1643" s="9" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C1643" s="9" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
       <c r="A1644" s="9" t="s">
-        <v>3021</v>
+        <v>3005</v>
       </c>
       <c r="B1644" s="9" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C1644" s="9" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
       <c r="A1645" s="9" t="s">
-        <v>3022</v>
+        <v>3006</v>
       </c>
       <c r="B1645" s="9" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C1645" s="9" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
       <c r="A1646" s="9" t="s">
-        <v>3023</v>
+        <v>3007</v>
       </c>
       <c r="B1646" s="9" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C1646" s="9" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
       <c r="A1647" s="9" t="s">
-        <v>3024</v>
+        <v>3009</v>
       </c>
       <c r="B1647" s="9" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C1647" s="9" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
       <c r="A1648" s="9" t="s">
-        <v>3025</v>
+        <v>3010</v>
       </c>
       <c r="B1648" s="9" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C1648" s="9" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
       <c r="A1649" s="9" t="s">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="B1649" s="9" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C1649" s="9" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
       <c r="A1650" s="9" t="s">
-        <v>3027</v>
+        <v>3012</v>
       </c>
       <c r="B1650" s="9" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C1650" s="9" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1651" spans="1:3">
       <c r="A1651" s="9" t="s">
-        <v>3029</v>
+        <v>3013</v>
       </c>
       <c r="B1651" s="9" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C1651" s="9" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
       <c r="A1652" s="9" t="s">
-        <v>3030</v>
+        <v>3014</v>
       </c>
       <c r="B1652" s="9" t="s">
-        <v>2894</v>
+        <v>263</v>
       </c>
       <c r="C1652" s="9" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
       <c r="A1653" s="9" t="s">
-        <v>3031</v>
+        <v>3015</v>
       </c>
       <c r="B1653" s="9" t="s">
-        <v>309</v>
+        <v>2803</v>
       </c>
       <c r="C1653" s="9" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
       <c r="A1654" s="9" t="s">
-        <v>3032</v>
+        <v>3016</v>
       </c>
       <c r="B1654" s="9" t="s">
-        <v>313</v>
+        <v>2890</v>
       </c>
       <c r="C1654" s="9" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
       <c r="A1655" s="9" t="s">
-        <v>3033</v>
+        <v>3017</v>
       </c>
       <c r="B1655" s="9" t="s">
-        <v>2896</v>
+        <v>270</v>
       </c>
       <c r="C1655" s="9" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
       <c r="A1656" s="9" t="s">
-        <v>3034</v>
+        <v>3018</v>
       </c>
       <c r="B1656" s="9" t="s">
-        <v>2896</v>
+        <v>272</v>
       </c>
       <c r="C1656" s="9" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
       <c r="A1657" s="9" t="s">
-        <v>3035</v>
+        <v>3019</v>
       </c>
       <c r="B1657" s="9" t="s">
-        <v>2896</v>
+        <v>2805</v>
       </c>
       <c r="C1657" s="9" t="s">
-        <v>320</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
       <c r="A1658" s="9" t="s">
-        <v>3036</v>
+        <v>3020</v>
       </c>
       <c r="B1658" s="9" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="C1658" s="9" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
       <c r="A1659" s="9" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="B1659" s="9" t="s">
-        <v>2897</v>
+        <v>281</v>
       </c>
       <c r="C1659" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
       <c r="A1660" s="9" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="B1660" s="9" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C1660" s="9" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
       <c r="A1661" s="9" t="s">
-        <v>3040</v>
+        <v>3023</v>
       </c>
       <c r="B1661" s="9" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C1661" s="9" t="s">
-        <v>2941</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
       <c r="A1662" s="9" t="s">
-        <v>3041</v>
+        <v>3024</v>
       </c>
       <c r="B1662" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C1662" s="9" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
       <c r="A1663" s="9" t="s">
-        <v>3042</v>
+        <v>3025</v>
       </c>
       <c r="B1663" s="9" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="C1663" s="9" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
       <c r="A1664" s="9" t="s">
-        <v>3044</v>
+        <v>3026</v>
       </c>
       <c r="B1664" s="9" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="C1664" s="9" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1665" spans="1:3">
       <c r="A1665" s="9" t="s">
-        <v>3045</v>
+        <v>3027</v>
       </c>
       <c r="B1665" s="9" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="C1665" s="9" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
       <c r="A1666" s="9" t="s">
-        <v>3046</v>
+        <v>3029</v>
       </c>
       <c r="B1666" s="9" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="C1666" s="9" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1667" spans="1:3">
       <c r="A1667" s="9" t="s">
-        <v>3047</v>
+        <v>3030</v>
       </c>
       <c r="B1667" s="9" t="s">
-        <v>363</v>
+        <v>2894</v>
       </c>
       <c r="C1667" s="9" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1668" spans="1:3">
       <c r="A1668" s="9" t="s">
-        <v>3048</v>
+        <v>3031</v>
       </c>
       <c r="B1668" s="9" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C1668" s="9" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1669" spans="1:3">
       <c r="A1669" s="9" t="s">
-        <v>3049</v>
+        <v>3032</v>
       </c>
       <c r="B1669" s="9" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C1669" s="9" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1670" spans="1:3">
       <c r="A1670" s="9" t="s">
-        <v>3050</v>
+        <v>3033</v>
       </c>
       <c r="B1670" s="9" t="s">
-        <v>367</v>
+        <v>2896</v>
       </c>
       <c r="C1670" s="9" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1671" spans="1:3">
       <c r="A1671" s="9" t="s">
-        <v>3051</v>
+        <v>3034</v>
       </c>
       <c r="B1671" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1671" s="9" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1672" spans="1:3">
       <c r="A1672" s="9" t="s">
-        <v>3052</v>
+        <v>3035</v>
       </c>
       <c r="B1672" s="9" t="s">
-        <v>371</v>
+        <v>2896</v>
       </c>
       <c r="C1672" s="9" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1673" spans="1:3">
       <c r="A1673" s="9" t="s">
-        <v>3053</v>
+        <v>3036</v>
       </c>
       <c r="B1673" s="9" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C1673" s="9" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1674" spans="1:3">
       <c r="A1674" s="9" t="s">
-        <v>3054</v>
+        <v>3037</v>
       </c>
       <c r="B1674" s="9" t="s">
-        <v>374</v>
+        <v>2897</v>
       </c>
       <c r="C1674" s="9" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1675" spans="1:3">
       <c r="A1675" s="9" t="s">
-        <v>3055</v>
+        <v>3038</v>
       </c>
       <c r="B1675" s="9" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="C1675" s="9" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1676" spans="1:3">
       <c r="A1676" s="9" t="s">
-        <v>3056</v>
+        <v>3040</v>
       </c>
       <c r="B1676" s="9" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C1676" s="9" t="s">
-        <v>379</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1677" spans="1:3">
       <c r="A1677" s="9" t="s">
-        <v>3057</v>
+        <v>3041</v>
       </c>
       <c r="B1677" s="9" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C1677" s="9" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1678" spans="1:3">
       <c r="A1678" s="9" t="s">
-        <v>3058</v>
+        <v>3042</v>
       </c>
       <c r="B1678" s="9" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C1678" s="9" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1679" spans="1:3">
       <c r="A1679" s="9" t="s">
-        <v>3059</v>
+        <v>3044</v>
       </c>
       <c r="B1679" s="9" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C1679" s="9" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1680" spans="1:3">
       <c r="A1680" s="9" t="s">
-        <v>3061</v>
+        <v>3045</v>
       </c>
       <c r="B1680" s="9" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C1680" s="9" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1681" spans="1:3">
       <c r="A1681" s="9" t="s">
-        <v>3062</v>
+        <v>3046</v>
       </c>
       <c r="B1681" s="9" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C1681" s="9" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1682" spans="1:3">
       <c r="A1682" s="9" t="s">
-        <v>3063</v>
+        <v>3047</v>
       </c>
       <c r="B1682" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1682" s="9" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1683" spans="1:3">
       <c r="A1683" s="9" t="s">
-        <v>3064</v>
+        <v>3048</v>
       </c>
       <c r="B1683" s="9" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C1683" s="9" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1684" spans="1:3">
       <c r="A1684" s="9" t="s">
-        <v>3065</v>
+        <v>3049</v>
       </c>
       <c r="B1684" s="9" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C1684" s="9" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1685" spans="1:3">
       <c r="A1685" s="9" t="s">
-        <v>3067</v>
+        <v>3050</v>
       </c>
       <c r="B1685" s="9" t="s">
-        <v>2916</v>
+        <v>367</v>
       </c>
       <c r="C1685" s="9" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1686" spans="1:3">
       <c r="A1686" s="9" t="s">
-        <v>3068</v>
+        <v>3051</v>
       </c>
       <c r="B1686" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1686" s="9" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1687" spans="1:3">
       <c r="A1687" s="9" t="s">
-        <v>3069</v>
+        <v>3052</v>
       </c>
       <c r="B1687" s="9" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C1687" s="9" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
     </row>
     <row r="1688" spans="1:3">
       <c r="A1688" s="9" t="s">
-        <v>3070</v>
+        <v>3053</v>
       </c>
       <c r="B1688" s="9" t="s">
-        <v>2809</v>
+        <v>374</v>
       </c>
       <c r="C1688" s="9" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="1689" spans="1:3">
       <c r="A1689" s="9" t="s">
-        <v>3071</v>
+        <v>3054</v>
       </c>
       <c r="B1689" s="9" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C1689" s="9" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1690" spans="1:3">
       <c r="A1690" s="9" t="s">
-        <v>3072</v>
+        <v>3055</v>
       </c>
       <c r="B1690" s="9" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C1690" s="9" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1691" spans="1:3">
       <c r="A1691" s="9" t="s">
-        <v>3074</v>
+        <v>3056</v>
       </c>
       <c r="B1691" s="9" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C1691" s="9" t="s">
-        <v>2953</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1692" spans="1:3">
       <c r="A1692" s="9" t="s">
-        <v>3075</v>
+        <v>3057</v>
       </c>
       <c r="B1692" s="9" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C1692" s="9" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1693" spans="1:3">
       <c r="A1693" s="9" t="s">
-        <v>3076</v>
+        <v>3058</v>
       </c>
       <c r="B1693" s="9" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C1693" s="9" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
     </row>
     <row r="1694" spans="1:3">
       <c r="A1694" s="9" t="s">
-        <v>3077</v>
+        <v>3059</v>
       </c>
       <c r="B1694" s="9" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="C1694" s="9" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1695" spans="1:3">
       <c r="A1695" s="9" t="s">
-        <v>3078</v>
+        <v>3061</v>
       </c>
       <c r="B1695" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1695" s="9" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1696" spans="1:3">
       <c r="A1696" s="9" t="s">
-        <v>3079</v>
+        <v>3062</v>
       </c>
       <c r="B1696" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C1696" s="9" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1697" spans="1:3">
       <c r="A1697" s="9" t="s">
-        <v>3080</v>
+        <v>3063</v>
       </c>
       <c r="B1697" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1697" s="9" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
       <c r="A1698" s="9" t="s">
-        <v>3081</v>
+        <v>3064</v>
       </c>
       <c r="B1698" s="9" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C1698" s="9" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
       <c r="A1699" s="9" t="s">
-        <v>3082</v>
+        <v>3065</v>
       </c>
       <c r="B1699" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C1699" s="9" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
       <c r="A1700" s="9" t="s">
-        <v>3083</v>
+        <v>3067</v>
       </c>
       <c r="B1700" s="9" t="s">
-        <v>425</v>
+        <v>2916</v>
       </c>
       <c r="C1700" s="9" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
       <c r="A1701" s="9" t="s">
-        <v>3084</v>
+        <v>3068</v>
       </c>
       <c r="B1701" s="9" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C1701" s="9" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
       <c r="A1702" s="9" t="s">
-        <v>3085</v>
+        <v>3069</v>
       </c>
       <c r="B1702" s="9" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C1702" s="9" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
       <c r="A1703" s="9" t="s">
-        <v>3086</v>
+        <v>3070</v>
       </c>
       <c r="B1703" s="9" t="s">
-        <v>430</v>
+        <v>2809</v>
       </c>
       <c r="C1703" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
       <c r="A1704" s="9" t="s">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="B1704" s="9" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C1704" s="9" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="9" t="s">
-        <v>3089</v>
+        <v>3072</v>
       </c>
       <c r="B1705" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1705" s="9" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="9" t="s">
-        <v>3090</v>
+        <v>3074</v>
       </c>
       <c r="B1706" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1706" s="9" t="s">
-        <v>439</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="9" t="s">
-        <v>3091</v>
+        <v>3075</v>
       </c>
       <c r="B1707" s="9" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1707" s="9" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="9" t="s">
-        <v>3092</v>
+        <v>3076</v>
       </c>
       <c r="B1708" s="9" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C1708" s="9" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="9" t="s">
-        <v>3093</v>
+        <v>3077</v>
       </c>
       <c r="B1709" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1709" s="9" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="9" t="s">
-        <v>3094</v>
+        <v>3078</v>
       </c>
       <c r="B1710" s="9" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C1710" s="9" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="9" t="s">
-        <v>3095</v>
+        <v>3079</v>
       </c>
       <c r="B1711" s="9" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C1711" s="9" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="9" t="s">
-        <v>3096</v>
+        <v>3080</v>
       </c>
       <c r="B1712" s="9" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="C1712" s="9" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
       <c r="A1713" s="9" t="s">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="B1713" s="9" t="s">
-        <v>2850</v>
+        <v>420</v>
       </c>
       <c r="C1713" s="9" t="s">
-        <v>2946</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
       <c r="A1714" s="9" t="s">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="B1714" s="9" t="s">
-        <v>2814</v>
+        <v>425</v>
       </c>
       <c r="C1714" s="9" t="s">
-        <v>2945</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
       <c r="A1715" s="9" t="s">
-        <v>3099</v>
+        <v>3083</v>
       </c>
       <c r="B1715" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1715" s="9" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
       <c r="A1716" s="9" t="s">
-        <v>3101</v>
+        <v>3084</v>
       </c>
       <c r="B1716" s="9" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C1716" s="9" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
       <c r="A1717" s="9" t="s">
-        <v>3102</v>
+        <v>3085</v>
       </c>
       <c r="B1717" s="9" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C1717" s="9" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
       <c r="A1718" s="9" t="s">
-        <v>3103</v>
+        <v>3086</v>
       </c>
       <c r="B1718" s="9" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="C1718" s="9" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
       <c r="A1719" s="9" t="s">
-        <v>3104</v>
+        <v>3087</v>
       </c>
       <c r="B1719" s="9" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C1719" s="9" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
       <c r="A1720" s="9" t="s">
-        <v>3105</v>
+        <v>3089</v>
       </c>
       <c r="B1720" s="9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="C1720" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
       <c r="A1721" s="9" t="s">
-        <v>3106</v>
+        <v>3090</v>
       </c>
       <c r="B1721" s="9" t="s">
-        <v>2852</v>
+        <v>436</v>
       </c>
       <c r="C1721" s="9" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
       <c r="A1722" s="9" t="s">
-        <v>3107</v>
+        <v>3091</v>
       </c>
       <c r="B1722" s="9" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C1722" s="9" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
       <c r="A1723" s="9" t="s">
-        <v>3108</v>
+        <v>3092</v>
       </c>
       <c r="B1723" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1723" s="9" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
       <c r="A1724" s="9" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
       <c r="B1724" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1724" s="9" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
       <c r="A1725" s="9" t="s">
-        <v>3110</v>
+        <v>3094</v>
       </c>
       <c r="B1725" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C1725" s="9" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
     </row>
     <row r="1726" spans="1:3">
       <c r="A1726" s="9" t="s">
-        <v>3112</v>
+        <v>3095</v>
       </c>
       <c r="B1726" s="9" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C1726" s="9" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
       <c r="A1727" s="9" t="s">
-        <v>3113</v>
+        <v>3096</v>
       </c>
       <c r="B1727" s="9" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="C1727" s="9" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
       <c r="A1728" s="9" t="s">
-        <v>3114</v>
+        <v>3097</v>
       </c>
       <c r="B1728" s="9" t="s">
-        <v>487</v>
+        <v>2850</v>
       </c>
       <c r="C1728" s="9" t="s">
-        <v>488</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
       <c r="A1729" s="9" t="s">
-        <v>3115</v>
+        <v>3098</v>
       </c>
       <c r="B1729" s="9" t="s">
-        <v>490</v>
+        <v>2814</v>
       </c>
       <c r="C1729" s="9" t="s">
-        <v>491</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
       <c r="A1730" s="9" t="s">
-        <v>3116</v>
+        <v>3099</v>
       </c>
       <c r="B1730" s="9" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C1730" s="9" t="s">
-        <v>2948</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
       <c r="A1731" s="9" t="s">
-        <v>3117</v>
+        <v>3101</v>
       </c>
       <c r="B1731" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1731" s="9" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
       <c r="A1732" s="9" t="s">
-        <v>3118</v>
+        <v>3102</v>
       </c>
       <c r="B1732" s="9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="C1732" s="9" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
       <c r="A1733" s="9" t="s">
-        <v>3120</v>
+        <v>3103</v>
       </c>
       <c r="B1733" s="9" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C1733" s="9" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
       <c r="A1734" s="9" t="s">
-        <v>3121</v>
+        <v>3104</v>
       </c>
       <c r="B1734" s="9" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C1734" s="9" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
       <c r="A1735" s="9" t="s">
-        <v>3122</v>
+        <v>3105</v>
       </c>
       <c r="B1735" s="9" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="C1735" s="9" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
       <c r="A1736" s="9" t="s">
-        <v>3123</v>
+        <v>3106</v>
       </c>
       <c r="B1736" s="9" t="s">
-        <v>500</v>
+        <v>2852</v>
       </c>
       <c r="C1736" s="9" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
       <c r="A1737" s="9" t="s">
-        <v>3124</v>
+        <v>3107</v>
       </c>
       <c r="B1737" s="9" t="s">
-        <v>2818</v>
+        <v>475</v>
       </c>
       <c r="C1737" s="9" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
       <c r="A1738" s="9" t="s">
-        <v>3125</v>
+        <v>3108</v>
       </c>
       <c r="B1738" s="9" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C1738" s="9" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
       <c r="A1739" s="9" t="s">
-        <v>3127</v>
+        <v>3109</v>
       </c>
       <c r="B1739" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1739" s="9" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
       <c r="A1740" s="9" t="s">
-        <v>3128</v>
+        <v>3110</v>
       </c>
       <c r="B1740" s="9" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C1740" s="9" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
       <c r="A1741" s="9" t="s">
-        <v>3129</v>
+        <v>3112</v>
       </c>
       <c r="B1741" s="9" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="C1741" s="9" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
       <c r="A1742" s="9" t="s">
-        <v>3130</v>
+        <v>3113</v>
       </c>
       <c r="B1742" s="9" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C1742" s="9" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
       <c r="A1743" s="9" t="s">
-        <v>3131</v>
+        <v>3114</v>
       </c>
       <c r="B1743" s="9" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="C1743" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
       <c r="A1744" s="9" t="s">
-        <v>3132</v>
+        <v>3115</v>
       </c>
       <c r="B1744" s="9" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C1744" s="9" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
       <c r="A1745" s="9" t="s">
-        <v>3134</v>
+        <v>3116</v>
       </c>
       <c r="B1745" s="9" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C1745" s="9" t="s">
-        <v>528</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
       <c r="A1746" s="9" t="s">
-        <v>3135</v>
+        <v>3117</v>
       </c>
       <c r="B1746" s="9" t="s">
-        <v>2913</v>
+        <v>495</v>
       </c>
       <c r="C1746" s="9" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
       <c r="A1747" s="9" t="s">
-        <v>3136</v>
+        <v>3118</v>
       </c>
       <c r="B1747" s="9" t="s">
-        <v>2820</v>
+        <v>495</v>
       </c>
       <c r="C1747" s="9" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
       <c r="A1748" s="9" t="s">
-        <v>3137</v>
+        <v>3120</v>
       </c>
       <c r="B1748" s="9" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="C1748" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
       <c r="A1749" s="9" t="s">
-        <v>3138</v>
+        <v>3121</v>
       </c>
       <c r="B1749" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1749" s="9" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
       <c r="A1750" s="9" t="s">
-        <v>3140</v>
+        <v>3122</v>
       </c>
       <c r="B1750" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="C1750" s="9" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
       <c r="A1751" s="9" t="s">
-        <v>3141</v>
+        <v>3123</v>
       </c>
       <c r="B1751" s="9" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C1751" s="9" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
       <c r="A1752" s="9" t="s">
-        <v>3142</v>
+        <v>3124</v>
       </c>
       <c r="B1752" s="9" t="s">
-        <v>541</v>
+        <v>2818</v>
       </c>
       <c r="C1752" s="9" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
       <c r="A1753" s="9" t="s">
-        <v>3143</v>
+        <v>3125</v>
       </c>
       <c r="B1753" s="9" t="s">
-        <v>2842</v>
+        <v>507</v>
       </c>
       <c r="C1753" s="9" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
       <c r="A1754" s="9" t="s">
-        <v>3144</v>
+        <v>3127</v>
       </c>
       <c r="B1754" s="9" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="C1754" s="9" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755" s="9" t="s">
-        <v>3145</v>
+        <v>3128</v>
       </c>
       <c r="B1755" s="9" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C1755" s="9" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
       <c r="A1756" s="9" t="s">
-        <v>3146</v>
+        <v>3129</v>
       </c>
       <c r="B1756" s="9" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="C1756" s="9" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
       <c r="A1757" s="9" t="s">
-        <v>3147</v>
+        <v>3130</v>
       </c>
       <c r="B1757" s="9" t="s">
-        <v>2843</v>
+        <v>516</v>
       </c>
       <c r="C1757" s="9" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
       <c r="A1758" s="9" t="s">
-        <v>3148</v>
+        <v>3131</v>
       </c>
       <c r="B1758" s="9" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="C1758" s="9" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
       <c r="A1759" s="9" t="s">
-        <v>3149</v>
+        <v>3132</v>
       </c>
       <c r="B1759" s="9" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="C1759" s="9" t="s">
-        <v>2950</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
       <c r="A1760" s="9" t="s">
-        <v>3150</v>
+        <v>3134</v>
       </c>
       <c r="B1760" s="9" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="C1760" s="9" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
       <c r="A1761" s="9" t="s">
-        <v>3151</v>
+        <v>3135</v>
       </c>
       <c r="B1761" s="9" t="s">
-        <v>560</v>
+        <v>2913</v>
       </c>
       <c r="C1761" s="9" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
       <c r="A1762" s="9" t="s">
-        <v>3152</v>
+        <v>3136</v>
       </c>
       <c r="B1762" s="9" t="s">
-        <v>565</v>
+        <v>2820</v>
       </c>
       <c r="C1762" s="9" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
       <c r="A1763" s="9" t="s">
-        <v>3153</v>
+        <v>3137</v>
       </c>
       <c r="B1763" s="9" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="C1763" s="9" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
       <c r="A1764" s="9" t="s">
-        <v>3154</v>
+        <v>3138</v>
       </c>
       <c r="B1764" s="9" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="C1764" s="9" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
       <c r="A1765" s="9" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="B1765" s="9" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C1765" s="9" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
       <c r="A1766" s="9" t="s">
-        <v>3157</v>
+        <v>3141</v>
       </c>
       <c r="B1766" s="9" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C1766" s="9" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
       <c r="A1767" s="9" t="s">
-        <v>3158</v>
+        <v>3142</v>
       </c>
       <c r="B1767" s="9" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="C1767" s="9" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
       <c r="A1768" s="9" t="s">
-        <v>3159</v>
+        <v>3143</v>
       </c>
       <c r="B1768" s="9" t="s">
-        <v>584</v>
+        <v>2842</v>
       </c>
       <c r="C1768" s="9" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
       <c r="A1769" s="9" t="s">
-        <v>3160</v>
+        <v>3144</v>
       </c>
       <c r="B1769" s="9" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C1769" s="9" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
       <c r="A1770" s="9" t="s">
-        <v>3161</v>
+        <v>3145</v>
       </c>
       <c r="B1770" s="9" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C1770" s="9" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
       <c r="A1771" s="9" t="s">
-        <v>3162</v>
+        <v>3146</v>
       </c>
       <c r="B1771" s="9" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="C1771" s="9" t="s">
-        <v>591</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
       <c r="A1772" s="9" t="s">
-        <v>3183</v>
+        <v>3147</v>
       </c>
       <c r="B1772" s="9" t="s">
-        <v>594</v>
+        <v>2843</v>
       </c>
       <c r="C1772" s="9" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
       <c r="A1773" s="9" t="s">
-        <v>3184</v>
+        <v>3148</v>
       </c>
       <c r="B1773" s="9" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C1773" s="9" t="s">
-        <v>5158</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
       <c r="A1774" s="9" t="s">
-        <v>3185</v>
+        <v>3149</v>
       </c>
       <c r="B1774" s="9" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="C1774" s="9" t="s">
-        <v>597</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
       <c r="A1775" s="9" t="s">
-        <v>3186</v>
+        <v>3150</v>
       </c>
       <c r="B1775" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1775" s="9" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
       <c r="A1776" s="9" t="s">
-        <v>3187</v>
+        <v>3151</v>
       </c>
       <c r="B1776" s="9" t="s">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="C1776" s="9" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
       <c r="A1777" s="9" t="s">
-        <v>3188</v>
+        <v>3152</v>
       </c>
       <c r="B1777" s="9" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="C1777" s="9" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
       <c r="A1778" s="9" t="s">
-        <v>3189</v>
+        <v>3153</v>
       </c>
       <c r="B1778" s="9" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="C1778" s="9" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
       <c r="A1779" s="9" t="s">
-        <v>3190</v>
+        <v>3154</v>
       </c>
       <c r="B1779" s="9" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="C1779" s="9" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
       <c r="A1780" s="9" t="s">
-        <v>3191</v>
+        <v>3155</v>
       </c>
       <c r="B1780" s="9" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="C1780" s="9" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
       <c r="A1781" s="9" t="s">
-        <v>3192</v>
+        <v>3157</v>
       </c>
       <c r="B1781" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1781" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
       <c r="A1782" s="9" t="s">
-        <v>3193</v>
+        <v>3158</v>
       </c>
       <c r="B1782" s="9" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C1782" s="9" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
       <c r="A1783" s="9" t="s">
-        <v>3194</v>
+        <v>3159</v>
       </c>
       <c r="B1783" s="9" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C1783" s="9" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
       <c r="A1784" s="9" t="s">
-        <v>3195</v>
+        <v>3160</v>
       </c>
       <c r="B1784" s="9" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="C1784" s="9" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
       <c r="A1785" s="9" t="s">
-        <v>3196</v>
+        <v>3161</v>
       </c>
       <c r="B1785" s="9" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="C1785" s="9" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
       <c r="A1786" s="9" t="s">
-        <v>3197</v>
+        <v>3162</v>
       </c>
       <c r="B1786" s="9" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="C1786" s="9" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
       <c r="A1787" s="9" t="s">
-        <v>3198</v>
+        <v>3183</v>
       </c>
       <c r="B1787" s="9" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C1787" s="9" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
       <c r="A1788" s="9" t="s">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="B1788" s="9" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="C1788" s="9" t="s">
-        <v>630</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
       <c r="A1789" s="9" t="s">
-        <v>3200</v>
+        <v>3185</v>
       </c>
       <c r="B1789" s="9" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="C1789" s="9" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
       <c r="A1790" s="9" t="s">
-        <v>3201</v>
+        <v>3186</v>
       </c>
       <c r="B1790" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1790" s="9" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
       <c r="A1791" s="9" t="s">
-        <v>3202</v>
+        <v>3187</v>
       </c>
       <c r="B1791" s="9" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C1791" s="9" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792" s="9" t="s">
-        <v>3203</v>
+        <v>3188</v>
       </c>
       <c r="B1792" s="9" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C1792" s="9" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="9" t="s">
-        <v>3204</v>
+        <v>3189</v>
       </c>
       <c r="B1793" s="9" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C1793" s="9" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="9" t="s">
-        <v>3205</v>
+        <v>3190</v>
       </c>
       <c r="B1794" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C1794" s="12" t="s">
-        <v>917</v>
+        <v>608</v>
+      </c>
+      <c r="C1794" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="9" t="s">
-        <v>3206</v>
+        <v>3191</v>
       </c>
       <c r="B1795" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1795" s="12" t="s">
-        <v>466</v>
+        <v>608</v>
+      </c>
+      <c r="C1795" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="9" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1796" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="C1796" s="12" t="s">
-        <v>920</v>
+        <v>608</v>
+      </c>
+      <c r="C1796" s="9" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="9" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="B1797" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="C1797" s="14" t="s">
-        <v>922</v>
+        <v>608</v>
+      </c>
+      <c r="C1797" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
       <c r="A1798" s="9" t="s">
-        <v>3209</v>
+        <v>3194</v>
       </c>
       <c r="B1798" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="C1798" s="12" t="s">
-        <v>924</v>
+        <v>608</v>
+      </c>
+      <c r="C1798" s="9" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
       <c r="A1799" s="9" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="B1799" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1799" s="14" t="s">
-        <v>926</v>
+        <v>615</v>
+      </c>
+      <c r="C1799" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
       <c r="A1800" s="9" t="s">
-        <v>3211</v>
+        <v>3196</v>
       </c>
       <c r="B1800" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C1800" s="12" t="s">
-        <v>928</v>
+        <v>618</v>
+      </c>
+      <c r="C1800" s="9" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
       <c r="A1801" s="9" t="s">
-        <v>3212</v>
+        <v>3197</v>
       </c>
       <c r="B1801" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C1801" s="12" t="s">
-        <v>930</v>
+        <v>624</v>
+      </c>
+      <c r="C1801" s="9" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="9" t="s">
-        <v>3213</v>
+        <v>3198</v>
       </c>
       <c r="B1802" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="C1802" s="12" t="s">
-        <v>932</v>
+        <v>626</v>
+      </c>
+      <c r="C1802" s="9" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="9" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="B1803" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1803" s="14" t="s">
-        <v>934</v>
+        <v>628</v>
+      </c>
+      <c r="C1803" s="9" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
       <c r="A1804" s="9" t="s">
-        <v>3215</v>
+        <v>3200</v>
       </c>
       <c r="B1804" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1804" s="14" t="s">
-        <v>935</v>
+        <v>636</v>
+      </c>
+      <c r="C1804" s="9" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
       <c r="A1805" s="9" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1805" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1805" s="14" t="s">
-        <v>936</v>
+        <v>638</v>
+      </c>
+      <c r="C1805" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="9" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B1806" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1806" s="12" t="s">
-        <v>938</v>
+        <v>3202</v>
+      </c>
+      <c r="B1806" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1806" s="9" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="9" t="s">
-        <v>3218</v>
+        <v>3203</v>
       </c>
       <c r="B1807" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1807" s="12" t="s">
-        <v>940</v>
+        <v>642</v>
+      </c>
+      <c r="C1807" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
       <c r="A1808" s="9" t="s">
-        <v>3219</v>
+        <v>3204</v>
       </c>
       <c r="B1808" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="C1808" s="12" t="s">
-        <v>942</v>
+        <v>644</v>
+      </c>
+      <c r="C1808" s="9" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
       <c r="A1809" s="9" t="s">
-        <v>3220</v>
+        <v>3205</v>
       </c>
       <c r="B1809" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="C1809" s="14" t="s">
-        <v>944</v>
+        <v>916</v>
+      </c>
+      <c r="C1809" s="12" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
       <c r="A1810" s="9" t="s">
-        <v>3221</v>
+        <v>3206</v>
       </c>
       <c r="B1810" s="9" t="s">
-        <v>4953</v>
-      </c>
-      <c r="C1810" s="9" t="s">
-        <v>945</v>
+        <v>918</v>
+      </c>
+      <c r="C1810" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
       <c r="A1811" s="9" t="s">
-        <v>3222</v>
+        <v>3207</v>
       </c>
       <c r="B1811" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C1811" s="14" t="s">
-        <v>947</v>
+        <v>919</v>
+      </c>
+      <c r="C1811" s="12" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
       <c r="A1812" s="9" t="s">
-        <v>3223</v>
+        <v>3208</v>
       </c>
       <c r="B1812" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1812" s="12" t="s">
-        <v>949</v>
+        <v>921</v>
+      </c>
+      <c r="C1812" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
       <c r="A1813" s="9" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="B1813" s="9" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="C1813" s="12" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814" s="9" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="B1814" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C1814" s="12" t="s">
-        <v>951</v>
+        <v>925</v>
+      </c>
+      <c r="C1814" s="14" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
       <c r="A1815" s="9" t="s">
-        <v>3226</v>
+        <v>3211</v>
       </c>
       <c r="B1815" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1815" s="14" t="s">
-        <v>953</v>
+        <v>927</v>
+      </c>
+      <c r="C1815" s="12" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
       <c r="A1816" s="9" t="s">
-        <v>3227</v>
+        <v>3212</v>
       </c>
       <c r="B1816" s="9" t="s">
-        <v>2833</v>
+        <v>929</v>
       </c>
       <c r="C1816" s="12" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
       <c r="A1817" s="9" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1817" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1817" s="14" t="s">
-        <v>955</v>
+        <v>931</v>
+      </c>
+      <c r="C1817" s="12" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
       <c r="A1818" s="9" t="s">
-        <v>3229</v>
+        <v>3214</v>
       </c>
       <c r="B1818" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1818" s="12" t="s">
-        <v>957</v>
+        <v>933</v>
+      </c>
+      <c r="C1818" s="14" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
       <c r="A1819" s="9" t="s">
-        <v>3230</v>
+        <v>3215</v>
       </c>
       <c r="B1819" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1819" s="12" t="s">
-        <v>958</v>
+        <v>933</v>
+      </c>
+      <c r="C1819" s="14" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
       <c r="A1820" s="9" t="s">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="B1820" s="9" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C1820" s="12" t="s">
-        <v>959</v>
+        <v>933</v>
+      </c>
+      <c r="C1820" s="14" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
       <c r="A1821" s="9" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B1821" s="9" t="s">
-        <v>960</v>
+        <v>3217</v>
+      </c>
+      <c r="B1821" s="12" t="s">
+        <v>937</v>
       </c>
       <c r="C1821" s="12" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822" s="9" t="s">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="B1822" s="9" t="s">
-        <v>960</v>
+        <v>995</v>
       </c>
       <c r="C1822" s="12" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
       <c r="A1823" s="9" t="s">
-        <v>3234</v>
+        <v>3219</v>
       </c>
       <c r="B1823" s="9" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C1823" s="14" t="s">
-        <v>963</v>
+        <v>941</v>
+      </c>
+      <c r="C1823" s="12" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
       <c r="A1824" s="9" t="s">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="B1824" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="C1824" s="12" t="s">
-        <v>964</v>
+        <v>943</v>
+      </c>
+      <c r="C1824" s="14" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
       <c r="A1825" s="9" t="s">
-        <v>5159</v>
+        <v>3221</v>
       </c>
       <c r="B1825" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1825" s="12" t="s">
-        <v>966</v>
+        <v>4953</v>
+      </c>
+      <c r="C1825" s="9" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="9" t="s">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="B1826" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="C1826" s="12" t="s">
-        <v>968</v>
+        <v>946</v>
+      </c>
+      <c r="C1826" s="14" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="9" t="s">
-        <v>3237</v>
+        <v>3223</v>
       </c>
       <c r="B1827" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1827" s="14" t="s">
-        <v>969</v>
+        <v>948</v>
+      </c>
+      <c r="C1827" s="12" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828" s="9" t="s">
-        <v>3238</v>
+        <v>3224</v>
       </c>
       <c r="B1828" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1828" s="14" t="s">
-        <v>970</v>
+        <v>948</v>
+      </c>
+      <c r="C1828" s="12" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
       <c r="A1829" s="9" t="s">
-        <v>3239</v>
+        <v>3225</v>
       </c>
       <c r="B1829" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1829" s="14" t="s">
-        <v>972</v>
+        <v>948</v>
+      </c>
+      <c r="C1829" s="12" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
       <c r="A1830" s="9" t="s">
-        <v>3240</v>
+        <v>3226</v>
       </c>
       <c r="B1830" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1830" s="12" t="s">
-        <v>974</v>
+        <v>952</v>
+      </c>
+      <c r="C1830" s="14" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831" s="9" t="s">
-        <v>3241</v>
+        <v>3227</v>
       </c>
       <c r="B1831" s="9" t="s">
-        <v>973</v>
+        <v>2833</v>
       </c>
       <c r="C1831" s="12" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="9" t="s">
-        <v>3242</v>
+        <v>3228</v>
       </c>
       <c r="B1832" s="9" t="s">
-        <v>952</v>
+        <v>2826</v>
       </c>
       <c r="C1832" s="14" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="9" t="s">
-        <v>3243</v>
+        <v>3229</v>
       </c>
       <c r="B1833" s="9" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="C1833" s="12" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="9" t="s">
-        <v>3244</v>
+        <v>3230</v>
       </c>
       <c r="B1834" s="9" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="C1834" s="12" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="9" t="s">
-        <v>3245</v>
+        <v>3231</v>
       </c>
       <c r="B1835" s="9" t="s">
-        <v>981</v>
+        <v>2845</v>
       </c>
       <c r="C1835" s="12" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="9" t="s">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="B1836" s="9" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C1836" s="12" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="9" t="s">
-        <v>3247</v>
+        <v>3233</v>
       </c>
       <c r="B1837" s="9" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="C1837" s="12" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="9" t="s">
-        <v>3248</v>
+        <v>3234</v>
       </c>
       <c r="B1838" s="9" t="s">
-        <v>952</v>
+        <v>2829</v>
       </c>
       <c r="C1838" s="14" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839" s="9" t="s">
-        <v>3249</v>
+        <v>3235</v>
       </c>
       <c r="B1839" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1839" s="14" t="s">
-        <v>989</v>
+        <v>956</v>
+      </c>
+      <c r="C1839" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
       <c r="A1840" s="9" t="s">
-        <v>3250</v>
+        <v>5159</v>
       </c>
       <c r="B1840" s="9" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="C1840" s="12" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
       <c r="A1841" s="9" t="s">
-        <v>3251</v>
+        <v>3236</v>
       </c>
       <c r="B1841" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="C1841" s="14" t="s">
-        <v>993</v>
+        <v>967</v>
+      </c>
+      <c r="C1841" s="12" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
       <c r="A1842" s="9" t="s">
-        <v>3252</v>
+        <v>3237</v>
       </c>
       <c r="B1842" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1842" s="12" t="s">
-        <v>994</v>
+        <v>933</v>
+      </c>
+      <c r="C1842" s="14" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
       <c r="A1843" s="9" t="s">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="B1843" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1843" s="12" t="s">
-        <v>996</v>
+        <v>933</v>
+      </c>
+      <c r="C1843" s="14" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
       <c r="A1844" s="9" t="s">
-        <v>3254</v>
+        <v>3239</v>
       </c>
       <c r="B1844" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="C1844" s="12" t="s">
-        <v>997</v>
+        <v>971</v>
+      </c>
+      <c r="C1844" s="14" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
       <c r="A1845" s="9" t="s">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="B1845" s="9" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C1845" s="12" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
       <c r="A1846" s="9" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B1846" s="12" t="s">
-        <v>1002</v>
+        <v>3241</v>
+      </c>
+      <c r="B1846" s="9" t="s">
+        <v>973</v>
       </c>
       <c r="C1846" s="12" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
       <c r="A1847" s="9" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="B1847" s="9" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C1847" s="12" t="s">
-        <v>1005</v>
+        <v>952</v>
+      </c>
+      <c r="C1847" s="14" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="1848" spans="1:3">
       <c r="A1848" s="9" t="s">
-        <v>3258</v>
+        <v>3243</v>
       </c>
       <c r="B1848" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C1848" s="14" t="s">
-        <v>1008</v>
+        <v>977</v>
+      </c>
+      <c r="C1848" s="12" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849" s="9" t="s">
-        <v>3259</v>
+        <v>3244</v>
       </c>
       <c r="B1849" s="9" t="s">
-        <v>2836</v>
+        <v>979</v>
       </c>
       <c r="C1849" s="12" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
       <c r="A1850" s="9" t="s">
-        <v>3260</v>
+        <v>3245</v>
       </c>
       <c r="B1850" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C1850" s="14" t="s">
-        <v>1010</v>
+        <v>981</v>
+      </c>
+      <c r="C1850" s="12" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851" s="9" t="s">
-        <v>3261</v>
+        <v>3246</v>
       </c>
       <c r="B1851" s="9" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C1851" s="14" t="s">
-        <v>1011</v>
+        <v>984</v>
+      </c>
+      <c r="C1851" s="12" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
       <c r="A1852" s="9" t="s">
-        <v>3262</v>
+        <v>3247</v>
       </c>
       <c r="B1852" s="9" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="C1852" s="12" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
       <c r="A1853" s="9" t="s">
-        <v>3263</v>
+        <v>3248</v>
       </c>
       <c r="B1853" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1853" s="14" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
       <c r="A1854" s="9" t="s">
-        <v>3264</v>
+        <v>3249</v>
       </c>
       <c r="B1854" s="9" t="s">
-        <v>861</v>
+        <v>952</v>
       </c>
       <c r="C1854" s="14" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855" s="9" t="s">
-        <v>3265</v>
+        <v>3250</v>
       </c>
       <c r="B1855" s="9" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="C1855" s="12" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
       <c r="A1856" s="9" t="s">
-        <v>3266</v>
+        <v>3251</v>
       </c>
       <c r="B1856" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C1856" s="12" t="s">
-        <v>1020</v>
+        <v>992</v>
+      </c>
+      <c r="C1856" s="14" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857" s="9" t="s">
-        <v>3267</v>
+        <v>3252</v>
       </c>
       <c r="B1857" s="9" t="s">
-        <v>1019</v>
+        <v>960</v>
       </c>
       <c r="C1857" s="12" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
       <c r="A1858" s="9" t="s">
-        <v>3268</v>
+        <v>3253</v>
       </c>
       <c r="B1858" s="9" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="C1858" s="12" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
       <c r="A1859" s="9" t="s">
-        <v>3269</v>
+        <v>3254</v>
       </c>
       <c r="B1859" s="9" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="C1859" s="12" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
       <c r="A1860" s="9" t="s">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="B1860" s="9" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="C1860" s="12" t="s">
-        <v>630</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
       <c r="A1861" s="9" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B1861" s="9" t="s">
-        <v>1026</v>
+        <v>3256</v>
+      </c>
+      <c r="B1861" s="12" t="s">
+        <v>1002</v>
       </c>
       <c r="C1861" s="12" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
       <c r="A1862" s="9" t="s">
-        <v>3272</v>
+        <v>3257</v>
       </c>
       <c r="B1862" s="9" t="s">
-        <v>1028</v>
+        <v>2841</v>
       </c>
       <c r="C1862" s="12" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
       <c r="A1863" s="9" t="s">
-        <v>3273</v>
+        <v>3258</v>
       </c>
       <c r="B1863" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C1863" s="12" t="s">
-        <v>1030</v>
+        <v>1006</v>
+      </c>
+      <c r="C1863" s="14" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
       <c r="A1864" s="9" t="s">
-        <v>3274</v>
+        <v>3259</v>
       </c>
       <c r="B1864" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C1864" s="14" t="s">
-        <v>1032</v>
+        <v>2836</v>
+      </c>
+      <c r="C1864" s="12" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865" s="9" t="s">
-        <v>3275</v>
+        <v>3260</v>
       </c>
       <c r="B1865" s="9" t="s">
-        <v>1031</v>
+        <v>925</v>
       </c>
       <c r="C1865" s="14" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
       <c r="A1866" s="9" t="s">
-        <v>3276</v>
+        <v>3261</v>
       </c>
       <c r="B1866" s="9" t="s">
-        <v>1031</v>
+        <v>2831</v>
       </c>
       <c r="C1866" s="14" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
       <c r="A1867" s="9" t="s">
-        <v>3277</v>
+        <v>3262</v>
       </c>
       <c r="B1867" s="9" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="C1867" s="12" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
       <c r="A1868" s="9" t="s">
-        <v>3278</v>
+        <v>3263</v>
       </c>
       <c r="B1868" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C1868" s="12" t="s">
-        <v>1038</v>
+        <v>861</v>
+      </c>
+      <c r="C1868" s="14" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
       <c r="A1869" s="9" t="s">
-        <v>3279</v>
+        <v>3264</v>
       </c>
       <c r="B1869" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C1869" s="9" t="s">
-        <v>1040</v>
+        <v>861</v>
+      </c>
+      <c r="C1869" s="14" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
       <c r="A1870" s="9" t="s">
-        <v>3280</v>
+        <v>3265</v>
       </c>
       <c r="B1870" s="9" t="s">
-        <v>2840</v>
+        <v>1016</v>
       </c>
       <c r="C1870" s="12" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
       <c r="A1871" s="9" t="s">
-        <v>3281</v>
+        <v>3266</v>
       </c>
       <c r="B1871" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C1871" s="14" t="s">
-        <v>1043</v>
+        <v>1019</v>
+      </c>
+      <c r="C1871" s="12" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
       <c r="A1872" s="9" t="s">
-        <v>3282</v>
+        <v>3267</v>
       </c>
       <c r="B1872" s="9" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="C1872" s="12" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="9" t="s">
-        <v>3283</v>
+        <v>3268</v>
       </c>
       <c r="B1873" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1873" s="14" t="s">
-        <v>1046</v>
+        <v>1019</v>
+      </c>
+      <c r="C1873" s="12" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
       <c r="A1874" s="9" t="s">
-        <v>3284</v>
+        <v>3269</v>
       </c>
       <c r="B1874" s="9" t="s">
-        <v>986</v>
+        <v>1023</v>
       </c>
       <c r="C1874" s="12" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875" s="9" t="s">
-        <v>3285</v>
+        <v>3270</v>
       </c>
       <c r="B1875" s="9" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
       <c r="C1875" s="12" t="s">
-        <v>1048</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
       <c r="A1876" s="9" t="s">
-        <v>3286</v>
+        <v>3271</v>
       </c>
       <c r="B1876" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="C1876" s="14" t="s">
-        <v>1049</v>
+        <v>1026</v>
+      </c>
+      <c r="C1876" s="12" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
       <c r="A1877" s="9" t="s">
-        <v>3287</v>
+        <v>3272</v>
       </c>
       <c r="B1877" s="9" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="C1877" s="12" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
       <c r="A1878" s="9" t="s">
-        <v>3288</v>
+        <v>3273</v>
       </c>
       <c r="B1878" s="9" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="C1878" s="12" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
       <c r="A1879" s="9" t="s">
-        <v>3289</v>
+        <v>3274</v>
       </c>
       <c r="B1879" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C1879" s="12" t="s">
-        <v>1055</v>
+        <v>1031</v>
+      </c>
+      <c r="C1879" s="14" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
       <c r="A1880" s="9" t="s">
-        <v>3290</v>
+        <v>3275</v>
       </c>
       <c r="B1880" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1880" s="12" t="s">
-        <v>1057</v>
+        <v>1031</v>
+      </c>
+      <c r="C1880" s="14" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
       <c r="A1881" s="9" t="s">
-        <v>3291</v>
+        <v>3276</v>
       </c>
       <c r="B1881" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1881" s="12" t="s">
-        <v>1058</v>
+        <v>1031</v>
+      </c>
+      <c r="C1881" s="14" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
       <c r="A1882" s="9" t="s">
-        <v>3292</v>
+        <v>3277</v>
       </c>
       <c r="B1882" s="9" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C1882" s="12" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
       <c r="A1883" s="9" t="s">
-        <v>3293</v>
+        <v>3278</v>
       </c>
       <c r="B1883" s="9" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="C1883" s="12" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
       <c r="A1884" s="9" t="s">
-        <v>3294</v>
+        <v>3279</v>
       </c>
       <c r="B1884" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C1884" s="12" t="s">
-        <v>1062</v>
+        <v>1039</v>
+      </c>
+      <c r="C1884" s="9" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
       <c r="A1885" s="9" t="s">
-        <v>3295</v>
+        <v>3280</v>
       </c>
       <c r="B1885" s="9" t="s">
-        <v>1063</v>
+        <v>2840</v>
       </c>
       <c r="C1885" s="12" t="s">
-        <v>501</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
       <c r="A1886" s="9" t="s">
-        <v>3296</v>
-      </c>
-      <c r="B1886" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1886" s="12" t="s">
-        <v>515</v>
+        <v>3281</v>
+      </c>
+      <c r="B1886" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1886" s="14" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
       <c r="A1887" s="9" t="s">
-        <v>3297</v>
+        <v>3282</v>
       </c>
       <c r="B1887" s="9" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C1887" s="12" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
       <c r="A1888" s="9" t="s">
-        <v>3298</v>
+        <v>3283</v>
       </c>
       <c r="B1888" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1888" s="12" t="s">
-        <v>1068</v>
+        <v>933</v>
+      </c>
+      <c r="C1888" s="14" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
       <c r="A1889" s="9" t="s">
-        <v>3299</v>
+        <v>3284</v>
       </c>
       <c r="B1889" s="9" t="s">
-        <v>1069</v>
+        <v>986</v>
       </c>
       <c r="C1889" s="12" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
       <c r="A1890" s="9" t="s">
-        <v>3300</v>
+        <v>3285</v>
       </c>
       <c r="B1890" s="9" t="s">
-        <v>1071</v>
+        <v>986</v>
       </c>
       <c r="C1890" s="12" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
       <c r="A1891" s="9" t="s">
-        <v>3301</v>
+        <v>3286</v>
       </c>
       <c r="B1891" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1891" s="12" t="s">
-        <v>1073</v>
+        <v>971</v>
+      </c>
+      <c r="C1891" s="14" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
       <c r="A1892" s="9" t="s">
-        <v>3302</v>
+        <v>3287</v>
       </c>
       <c r="B1892" s="9" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="C1892" s="12" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
       <c r="A1893" s="9" t="s">
-        <v>3303</v>
+        <v>3288</v>
       </c>
       <c r="B1893" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1893" s="9" t="s">
-        <v>1076</v>
+        <v>1052</v>
+      </c>
+      <c r="C1893" s="12" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
       <c r="A1894" s="9" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="B1894" s="9" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1894" s="9" t="s">
-        <v>1077</v>
+        <v>965</v>
+      </c>
+      <c r="C1894" s="12" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
       <c r="A1895" s="9" t="s">
-        <v>3305</v>
+        <v>3290</v>
       </c>
       <c r="B1895" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1895" s="12" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
       <c r="A1896" s="9" t="s">
-        <v>3306</v>
+        <v>3291</v>
       </c>
       <c r="B1896" s="9" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C1896" s="12" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
       <c r="A1897" s="9" t="s">
-        <v>3307</v>
+        <v>3292</v>
       </c>
       <c r="B1897" s="9" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="C1897" s="12" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
       <c r="A1898" s="9" t="s">
-        <v>3308</v>
+        <v>3293</v>
       </c>
       <c r="B1898" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1898" s="14" t="s">
-        <v>1083</v>
+        <v>1050</v>
+      </c>
+      <c r="C1898" s="12" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
       <c r="A1899" s="9" t="s">
-        <v>3309</v>
+        <v>3294</v>
       </c>
       <c r="B1899" s="9" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="C1899" s="12" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
       <c r="A1900" s="9" t="s">
-        <v>3310</v>
+        <v>3295</v>
       </c>
       <c r="B1900" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1900" s="14" t="s">
-        <v>1088</v>
+        <v>1063</v>
+      </c>
+      <c r="C1900" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
       <c r="A1901" s="9" t="s">
-        <v>3311</v>
-      </c>
-      <c r="B1901" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C1901" s="14" t="s">
-        <v>1090</v>
+        <v>3296</v>
+      </c>
+      <c r="B1901" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1901" s="12" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
       <c r="A1902" s="9" t="s">
-        <v>3312</v>
+        <v>3297</v>
       </c>
       <c r="B1902" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1902" s="9" t="s">
-        <v>1091</v>
+        <v>1065</v>
+      </c>
+      <c r="C1902" s="12" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
       <c r="A1903" s="9" t="s">
-        <v>3313</v>
+        <v>3298</v>
       </c>
       <c r="B1903" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1903" s="14" t="s">
-        <v>1093</v>
+        <v>1067</v>
+      </c>
+      <c r="C1903" s="12" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
       <c r="A1904" s="9" t="s">
-        <v>3314</v>
-      </c>
-      <c r="B1904" s="12" t="s">
-        <v>1094</v>
+        <v>3299</v>
+      </c>
+      <c r="B1904" s="9" t="s">
+        <v>1069</v>
       </c>
       <c r="C1904" s="12" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
       <c r="A1905" s="9" t="s">
-        <v>3315</v>
+        <v>3300</v>
       </c>
       <c r="B1905" s="9" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="C1905" s="12" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
       <c r="A1906" s="9" t="s">
-        <v>3316</v>
+        <v>3301</v>
       </c>
       <c r="B1906" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C1906" s="14" t="s">
-        <v>1099</v>
+        <v>1071</v>
+      </c>
+      <c r="C1906" s="12" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
       <c r="A1907" s="9" t="s">
-        <v>3317</v>
+        <v>3302</v>
       </c>
       <c r="B1907" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C1907" s="14" t="s">
-        <v>1101</v>
+        <v>1074</v>
+      </c>
+      <c r="C1907" s="12" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
       <c r="A1908" s="9" t="s">
-        <v>3318</v>
+        <v>3303</v>
       </c>
       <c r="B1908" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1908" s="12" t="s">
-        <v>1103</v>
+        <v>2024</v>
+      </c>
+      <c r="C1908" s="9" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="1909" spans="1:3">
       <c r="A1909" s="9" t="s">
-        <v>3319</v>
+        <v>3304</v>
       </c>
       <c r="B1909" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C1909" s="14" t="s">
-        <v>1105</v>
+        <v>2024</v>
+      </c>
+      <c r="C1909" s="9" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
       <c r="A1910" s="9" t="s">
-        <v>3320</v>
+        <v>3305</v>
       </c>
       <c r="B1910" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1910" s="14" t="s">
-        <v>1109</v>
+        <v>1078</v>
+      </c>
+      <c r="C1910" s="12" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
       <c r="A1911" s="9" t="s">
-        <v>3321</v>
+        <v>3306</v>
       </c>
       <c r="B1911" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1911" s="14" t="s">
-        <v>1110</v>
+        <v>1078</v>
+      </c>
+      <c r="C1911" s="12" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
       <c r="A1912" s="9" t="s">
-        <v>3322</v>
+        <v>3307</v>
       </c>
       <c r="B1912" s="9" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="C1912" s="12" t="s">
-        <v>1112</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
       <c r="A1913" s="9" t="s">
-        <v>3323</v>
+        <v>3308</v>
       </c>
       <c r="B1913" s="9" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C1913" s="12" t="s">
-        <v>1113</v>
+        <v>1081</v>
+      </c>
+      <c r="C1913" s="14" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
       <c r="A1914" s="9" t="s">
-        <v>3324</v>
+        <v>3309</v>
       </c>
       <c r="B1914" s="9" t="s">
-        <v>1114</v>
+        <v>1084</v>
       </c>
       <c r="C1914" s="12" t="s">
-        <v>1115</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
       <c r="A1915" s="9" t="s">
-        <v>3325</v>
+        <v>3310</v>
       </c>
       <c r="B1915" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C1915" s="12" t="s">
-        <v>1117</v>
+        <v>1087</v>
+      </c>
+      <c r="C1915" s="14" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
       <c r="A1916" s="9" t="s">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="B1916" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C1916" s="12" t="s">
-        <v>1119</v>
+        <v>1089</v>
+      </c>
+      <c r="C1916" s="14" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
       <c r="A1917" s="9" t="s">
-        <v>3327</v>
+        <v>3312</v>
       </c>
       <c r="B1917" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1917" s="12" t="s">
-        <v>1121</v>
+        <v>649</v>
+      </c>
+      <c r="C1917" s="9" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
       <c r="A1918" s="9" t="s">
-        <v>3328</v>
+        <v>3313</v>
       </c>
       <c r="B1918" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C1918" s="12" t="s">
-        <v>1122</v>
+        <v>1092</v>
+      </c>
+      <c r="C1918" s="14" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
       <c r="A1919" s="9" t="s">
-        <v>3329</v>
-      </c>
-      <c r="B1919" s="9" t="s">
-        <v>1124</v>
+        <v>3314</v>
+      </c>
+      <c r="B1919" s="12" t="s">
+        <v>1094</v>
       </c>
       <c r="C1919" s="12" t="s">
-        <v>1125</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
       <c r="A1920" s="9" t="s">
-        <v>3330</v>
+        <v>3315</v>
       </c>
       <c r="B1920" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C1920" s="14" t="s">
-        <v>1130</v>
+        <v>1096</v>
+      </c>
+      <c r="C1920" s="12" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1921" spans="1:3">
       <c r="A1921" s="9" t="s">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="B1921" s="9" t="s">
-        <v>2827</v>
+        <v>1098</v>
       </c>
       <c r="C1921" s="14" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1922" spans="1:3">
       <c r="A1922" s="9" t="s">
-        <v>3332</v>
+        <v>3317</v>
       </c>
       <c r="B1922" s="9" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="C1922" s="14" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
       <c r="A1923" s="9" t="s">
-        <v>3333</v>
-      </c>
-      <c r="B1923" s="12" t="s">
-        <v>1135</v>
+        <v>3318</v>
+      </c>
+      <c r="B1923" s="9" t="s">
+        <v>1102</v>
       </c>
       <c r="C1923" s="12" t="s">
-        <v>88</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
       <c r="A1924" s="9" t="s">
-        <v>3334</v>
+        <v>3319</v>
       </c>
       <c r="B1924" s="9" t="s">
-        <v>2837</v>
-      </c>
-      <c r="C1924" s="12" t="s">
-        <v>1137</v>
+        <v>1104</v>
+      </c>
+      <c r="C1924" s="14" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
       <c r="A1925" s="9" t="s">
-        <v>3335</v>
+        <v>3320</v>
       </c>
       <c r="B1925" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C1925" s="12" t="s">
-        <v>1139</v>
+        <v>1108</v>
+      </c>
+      <c r="C1925" s="14" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
       <c r="A1926" s="9" t="s">
-        <v>3336</v>
+        <v>3321</v>
       </c>
       <c r="B1926" s="9" t="s">
-        <v>2830</v>
+        <v>662</v>
       </c>
       <c r="C1926" s="14" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
       <c r="A1927" s="9" t="s">
-        <v>3337</v>
+        <v>3322</v>
       </c>
       <c r="B1927" s="9" t="s">
-        <v>2828</v>
-      </c>
-      <c r="C1927" s="14" t="s">
-        <v>1141</v>
+        <v>1111</v>
+      </c>
+      <c r="C1927" s="12" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
       <c r="A1928" s="9" t="s">
-        <v>3338</v>
+        <v>3323</v>
       </c>
       <c r="B1928" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C1928" s="14" t="s">
-        <v>1143</v>
+        <v>2844</v>
+      </c>
+      <c r="C1928" s="12" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
       <c r="A1929" s="9" t="s">
-        <v>3339</v>
+        <v>3324</v>
       </c>
       <c r="B1929" s="9" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="C1929" s="12" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
       <c r="A1930" s="9" t="s">
-        <v>3340</v>
+        <v>3325</v>
       </c>
       <c r="B1930" s="9" t="s">
-        <v>2835</v>
+        <v>1116</v>
       </c>
       <c r="C1930" s="12" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
       <c r="A1931" s="9" t="s">
-        <v>3341</v>
+        <v>3326</v>
       </c>
       <c r="B1931" s="9" t="s">
-        <v>1149</v>
+        <v>1118</v>
       </c>
       <c r="C1931" s="12" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
       <c r="A1932" s="9" t="s">
-        <v>3342</v>
+        <v>3327</v>
       </c>
       <c r="B1932" s="9" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="C1932" s="12" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
       <c r="A1933" s="9" t="s">
-        <v>3343</v>
+        <v>3328</v>
       </c>
       <c r="B1933" s="9" t="s">
-        <v>705</v>
+        <v>1120</v>
       </c>
       <c r="C1933" s="12" t="s">
-        <v>2938</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
       <c r="A1934" s="9" t="s">
-        <v>3344</v>
+        <v>3329</v>
       </c>
       <c r="B1934" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="C1934" s="14" t="s">
-        <v>1153</v>
+        <v>1124</v>
+      </c>
+      <c r="C1934" s="12" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
       <c r="A1935" s="9" t="s">
-        <v>3345</v>
+        <v>3330</v>
       </c>
       <c r="B1935" s="9" t="s">
-        <v>1154</v>
+        <v>660</v>
       </c>
       <c r="C1935" s="14" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
       <c r="A1936" s="9" t="s">
-        <v>3346</v>
+        <v>3331</v>
       </c>
       <c r="B1936" s="9" t="s">
-        <v>1154</v>
+        <v>2827</v>
       </c>
       <c r="C1936" s="14" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
       <c r="A1937" s="9" t="s">
-        <v>3347</v>
-      </c>
-      <c r="B1937" s="12" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C1937" s="12" t="s">
-        <v>1159</v>
+        <v>3332</v>
+      </c>
+      <c r="B1937" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1937" s="14" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
       <c r="A1938" s="9" t="s">
-        <v>3348</v>
-      </c>
-      <c r="B1938" s="9" t="s">
-        <v>1138</v>
+        <v>3333</v>
+      </c>
+      <c r="B1938" s="12" t="s">
+        <v>1135</v>
       </c>
       <c r="C1938" s="12" t="s">
-        <v>1160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
       <c r="A1939" s="9" t="s">
-        <v>3349</v>
+        <v>3334</v>
       </c>
       <c r="B1939" s="9" t="s">
-        <v>1161</v>
+        <v>2837</v>
       </c>
       <c r="C1939" s="12" t="s">
-        <v>2935</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
       <c r="A1940" s="9" t="s">
-        <v>3350</v>
+        <v>3335</v>
       </c>
       <c r="B1940" s="9" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="C1940" s="12" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
       <c r="A1941" s="9" t="s">
-        <v>3351</v>
+        <v>3336</v>
       </c>
       <c r="B1941" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1941" s="12" t="s">
-        <v>1166</v>
+        <v>2830</v>
+      </c>
+      <c r="C1941" s="14" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
       <c r="A1942" s="9" t="s">
-        <v>3352</v>
+        <v>3337</v>
       </c>
       <c r="B1942" s="9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1942" s="12" t="s">
-        <v>1168</v>
+        <v>2828</v>
+      </c>
+      <c r="C1942" s="14" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
       <c r="A1943" s="9" t="s">
-        <v>3353</v>
+        <v>3338</v>
       </c>
       <c r="B1943" s="9" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="C1943" s="14" t="s">
-        <v>1170</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
       <c r="A1944" s="9" t="s">
-        <v>3354</v>
+        <v>3339</v>
       </c>
       <c r="B1944" s="9" t="s">
-        <v>1171</v>
+        <v>1144</v>
       </c>
       <c r="C1944" s="12" t="s">
-        <v>1172</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
       <c r="A1945" s="9" t="s">
-        <v>3355</v>
-      </c>
-      <c r="B1945" s="12" t="s">
-        <v>1173</v>
+        <v>3340</v>
+      </c>
+      <c r="B1945" s="9" t="s">
+        <v>2835</v>
       </c>
       <c r="C1945" s="12" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
       <c r="A1946" s="9" t="s">
-        <v>3356</v>
+        <v>3341</v>
       </c>
       <c r="B1946" s="9" t="s">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="C1946" s="12" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
       <c r="A1947" s="9" t="s">
-        <v>3357</v>
+        <v>3342</v>
       </c>
       <c r="B1947" s="9" t="s">
-        <v>1179</v>
+        <v>1151</v>
       </c>
       <c r="C1947" s="12" t="s">
-        <v>1180</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
       <c r="A1948" s="9" t="s">
-        <v>3358</v>
+        <v>3343</v>
       </c>
       <c r="B1948" s="9" t="s">
-        <v>2842</v>
+        <v>705</v>
       </c>
       <c r="C1948" s="12" t="s">
-        <v>1183</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
       <c r="A1949" s="9" t="s">
-        <v>3359</v>
+        <v>3344</v>
       </c>
       <c r="B1949" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C1949" s="12" t="s">
-        <v>1186</v>
+        <v>705</v>
+      </c>
+      <c r="C1949" s="14" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
       <c r="A1950" s="9" t="s">
-        <v>3360</v>
+        <v>3345</v>
       </c>
       <c r="B1950" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C1950" s="12" t="s">
-        <v>1190</v>
+        <v>1154</v>
+      </c>
+      <c r="C1950" s="14" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
       <c r="A1951" s="9" t="s">
-        <v>3361</v>
+        <v>3346</v>
       </c>
       <c r="B1951" s="9" t="s">
-        <v>2839</v>
-      </c>
-      <c r="C1951" s="12" t="s">
-        <v>1191</v>
+        <v>1154</v>
+      </c>
+      <c r="C1951" s="14" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
       <c r="A1952" s="9" t="s">
-        <v>3362</v>
-      </c>
-      <c r="B1952" s="9" t="s">
-        <v>1192</v>
+        <v>3347</v>
+      </c>
+      <c r="B1952" s="12" t="s">
+        <v>1158</v>
       </c>
       <c r="C1952" s="12" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
       <c r="A1953" s="9" t="s">
-        <v>3363</v>
+        <v>3348</v>
       </c>
       <c r="B1953" s="9" t="s">
-        <v>1194</v>
+        <v>1138</v>
       </c>
       <c r="C1953" s="12" t="s">
-        <v>1195</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
       <c r="A1954" s="9" t="s">
-        <v>3364</v>
+        <v>3349</v>
       </c>
       <c r="B1954" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C1954" s="14" t="s">
-        <v>1197</v>
+        <v>1161</v>
+      </c>
+      <c r="C1954" s="12" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
       <c r="A1955" s="9" t="s">
-        <v>3365</v>
+        <v>3350</v>
       </c>
       <c r="B1955" s="9" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C1955" s="14" t="s">
-        <v>1198</v>
+        <v>1162</v>
+      </c>
+      <c r="C1955" s="12" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
       <c r="A1956" s="9" t="s">
-        <v>3366</v>
+        <v>3351</v>
       </c>
       <c r="B1956" s="9" t="s">
-        <v>1200</v>
+        <v>1165</v>
       </c>
       <c r="C1956" s="12" t="s">
-        <v>1201</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
       <c r="A1957" s="9" t="s">
-        <v>3367</v>
+        <v>3352</v>
       </c>
       <c r="B1957" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C1957" s="14" t="s">
-        <v>1203</v>
+        <v>1167</v>
+      </c>
+      <c r="C1957" s="12" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
       <c r="A1958" s="9" t="s">
-        <v>3368</v>
+        <v>3353</v>
       </c>
       <c r="B1958" s="9" t="s">
-        <v>1202</v>
+        <v>1169</v>
       </c>
       <c r="C1958" s="14" t="s">
-        <v>1204</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
       <c r="A1959" s="9" t="s">
-        <v>3369</v>
+        <v>3354</v>
       </c>
       <c r="B1959" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C1959" s="14" t="s">
-        <v>1209</v>
+        <v>1171</v>
+      </c>
+      <c r="C1959" s="12" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
       <c r="A1960" s="9" t="s">
-        <v>3370</v>
-      </c>
-      <c r="B1960" s="9" t="s">
-        <v>1210</v>
+        <v>3355</v>
+      </c>
+      <c r="B1960" s="12" t="s">
+        <v>1173</v>
       </c>
       <c r="C1960" s="12" t="s">
-        <v>738</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
       <c r="A1961" s="9" t="s">
-        <v>3371</v>
+        <v>3356</v>
       </c>
       <c r="B1961" s="9" t="s">
-        <v>2838</v>
+        <v>1177</v>
       </c>
       <c r="C1961" s="12" t="s">
-        <v>1211</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
       <c r="A1962" s="9" t="s">
-        <v>3372</v>
+        <v>3357</v>
       </c>
       <c r="B1962" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1962" s="14" t="s">
-        <v>1213</v>
+        <v>1179</v>
+      </c>
+      <c r="C1962" s="12" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
       <c r="A1963" s="9" t="s">
-        <v>3373</v>
+        <v>3358</v>
       </c>
       <c r="B1963" s="9" t="s">
-        <v>1214</v>
+        <v>2842</v>
       </c>
       <c r="C1963" s="12" t="s">
-        <v>1215</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
       <c r="A1964" s="9" t="s">
-        <v>3374</v>
+        <v>3359</v>
       </c>
       <c r="B1964" s="9" t="s">
-        <v>2285</v>
+        <v>1185</v>
       </c>
       <c r="C1964" s="12" t="s">
-        <v>1216</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
       <c r="A1965" s="9" t="s">
-        <v>3375</v>
+        <v>3360</v>
       </c>
       <c r="B1965" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1965" s="14" t="s">
-        <v>1217</v>
+        <v>1189</v>
+      </c>
+      <c r="C1965" s="12" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
       <c r="A1966" s="9" t="s">
-        <v>3376</v>
+        <v>3361</v>
       </c>
       <c r="B1966" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1966" s="14" t="s">
-        <v>1218</v>
+        <v>2839</v>
+      </c>
+      <c r="C1966" s="12" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
       <c r="A1967" s="9" t="s">
-        <v>3377</v>
+        <v>3362</v>
       </c>
       <c r="B1967" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1967" s="14" t="s">
-        <v>1219</v>
+        <v>1192</v>
+      </c>
+      <c r="C1967" s="12" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
       <c r="A1968" s="9" t="s">
-        <v>3378</v>
+        <v>3363</v>
       </c>
       <c r="B1968" s="9" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C1968" s="14" t="s">
-        <v>1221</v>
+        <v>1194</v>
+      </c>
+      <c r="C1968" s="12" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
       <c r="A1969" s="9" t="s">
-        <v>3379</v>
+        <v>3364</v>
       </c>
       <c r="B1969" s="9" t="s">
-        <v>833</v>
+        <v>1196</v>
       </c>
       <c r="C1969" s="14" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
       <c r="A1970" s="9" t="s">
-        <v>3380</v>
+        <v>3365</v>
       </c>
       <c r="B1970" s="9" t="s">
-        <v>1225</v>
+        <v>2832</v>
       </c>
       <c r="C1970" s="14" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
       <c r="A1971" s="9" t="s">
-        <v>3381</v>
+        <v>3366</v>
       </c>
       <c r="B1971" s="9" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C1971" s="14" t="s">
-        <v>1227</v>
+        <v>1200</v>
+      </c>
+      <c r="C1971" s="12" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
       <c r="A1972" s="9" t="s">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="B1972" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C1972" s="12" t="s">
-        <v>1229</v>
+        <v>1202</v>
+      </c>
+      <c r="C1972" s="14" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="1973" spans="1:3">
       <c r="A1973" s="9" t="s">
-        <v>3383</v>
+        <v>3368</v>
       </c>
       <c r="B1973" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1973" s="12" t="s">
-        <v>1230</v>
+        <v>1202</v>
+      </c>
+      <c r="C1973" s="14" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="1974" spans="1:3">
       <c r="A1974" s="9" t="s">
-        <v>3384</v>
+        <v>3369</v>
       </c>
       <c r="B1974" s="9" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="C1974" s="14" t="s">
-        <v>419</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
       <c r="A1975" s="9" t="s">
-        <v>3385</v>
+        <v>3370</v>
       </c>
       <c r="B1975" s="9" t="s">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="C1975" s="12" t="s">
-        <v>1233</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1976" spans="1:3">
       <c r="A1976" s="9" t="s">
-        <v>3386</v>
+        <v>3371</v>
       </c>
       <c r="B1976" s="9" t="s">
-        <v>1000</v>
+        <v>2838</v>
       </c>
       <c r="C1976" s="12" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
       <c r="A1977" s="9" t="s">
-        <v>3387</v>
+        <v>3372</v>
       </c>
       <c r="B1977" s="9" t="s">
-        <v>925</v>
+        <v>1212</v>
       </c>
       <c r="C1977" s="14" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
       <c r="A1978" s="9" t="s">
-        <v>3388</v>
+        <v>3373</v>
       </c>
       <c r="B1978" s="9" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="C1978" s="12" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1979" spans="1:3">
       <c r="A1979" s="9" t="s">
-        <v>3389</v>
+        <v>3374</v>
       </c>
       <c r="B1979" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C1979" s="14" t="s">
-        <v>1239</v>
+        <v>2285</v>
+      </c>
+      <c r="C1979" s="12" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="1980" spans="1:3">
       <c r="A1980" s="9" t="s">
-        <v>3390</v>
+        <v>3375</v>
       </c>
       <c r="B1980" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C1980" s="12" t="s">
-        <v>1241</v>
+        <v>872</v>
+      </c>
+      <c r="C1980" s="14" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="1981" spans="1:3">
       <c r="A1981" s="9" t="s">
-        <v>3391</v>
+        <v>3376</v>
       </c>
       <c r="B1981" s="9" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="C1981" s="14" t="s">
-        <v>1242</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1982" spans="1:3">
       <c r="A1982" s="9" t="s">
-        <v>3392</v>
+        <v>3377</v>
       </c>
       <c r="B1982" s="9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C1982" s="12" t="s">
-        <v>1244</v>
+        <v>872</v>
+      </c>
+      <c r="C1982" s="14" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
       <c r="A1983" s="9" t="s">
-        <v>3393</v>
+        <v>3378</v>
       </c>
       <c r="B1983" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C1983" s="12" t="s">
-        <v>1245</v>
+        <v>1220</v>
+      </c>
+      <c r="C1983" s="14" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
       <c r="A1984" s="9" t="s">
-        <v>3394</v>
+        <v>3379</v>
       </c>
       <c r="B1984" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1984" s="12" t="s">
-        <v>1247</v>
+        <v>833</v>
+      </c>
+      <c r="C1984" s="14" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="1985" spans="1:3">
       <c r="A1985" s="9" t="s">
-        <v>3395</v>
+        <v>3380</v>
       </c>
       <c r="B1985" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C1985" s="12" t="s">
-        <v>986</v>
+        <v>1225</v>
+      </c>
+      <c r="C1985" s="14" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="1986" spans="1:3">
       <c r="A1986" s="9" t="s">
-        <v>3396</v>
+        <v>3381</v>
       </c>
       <c r="B1986" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1986" s="12" t="s">
-        <v>499</v>
+        <v>1225</v>
+      </c>
+      <c r="C1986" s="14" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="1987" spans="1:3">
       <c r="A1987" s="9" t="s">
-        <v>3397</v>
+        <v>3382</v>
       </c>
       <c r="B1987" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C1987" s="14" t="s">
-        <v>1248</v>
+        <v>1228</v>
+      </c>
+      <c r="C1987" s="12" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="1988" spans="1:3">
       <c r="A1988" s="9" t="s">
-        <v>3398</v>
+        <v>3383</v>
       </c>
       <c r="B1988" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C1988" s="14" t="s">
-        <v>1249</v>
+        <v>998</v>
+      </c>
+      <c r="C1988" s="12" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="1989" spans="1:3">
       <c r="A1989" s="9" t="s">
-        <v>3399</v>
+        <v>3384</v>
       </c>
       <c r="B1989" s="9" t="s">
-        <v>933</v>
+        <v>1231</v>
       </c>
       <c r="C1989" s="14" t="s">
-        <v>1250</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1990" spans="1:3">
       <c r="A1990" s="9" t="s">
-        <v>3400</v>
+        <v>3385</v>
       </c>
       <c r="B1990" s="9" t="s">
-        <v>956</v>
+        <v>1232</v>
       </c>
       <c r="C1990" s="12" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1991" spans="1:3">
       <c r="A1991" s="9" t="s">
-        <v>3401</v>
+        <v>3386</v>
       </c>
       <c r="B1991" s="9" t="s">
-        <v>2826</v>
-      </c>
-      <c r="C1991" s="14" t="s">
-        <v>1252</v>
+        <v>1000</v>
+      </c>
+      <c r="C1991" s="12" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="1992" spans="1:3">
       <c r="A1992" s="9" t="s">
-        <v>3402</v>
+        <v>3387</v>
       </c>
       <c r="B1992" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1992" s="12" t="s">
-        <v>1254</v>
+        <v>925</v>
+      </c>
+      <c r="C1992" s="14" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="1993" spans="1:3">
       <c r="A1993" s="9" t="s">
-        <v>3403</v>
+        <v>3388</v>
       </c>
       <c r="B1993" s="9" t="s">
-        <v>1255</v>
+        <v>1236</v>
       </c>
       <c r="C1993" s="12" t="s">
-        <v>1256</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1994" spans="1:3">
       <c r="A1994" s="9" t="s">
-        <v>3404</v>
+        <v>3389</v>
       </c>
       <c r="B1994" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1994" s="12" t="s">
-        <v>1257</v>
+        <v>1238</v>
+      </c>
+      <c r="C1994" s="14" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="1995" spans="1:3">
       <c r="A1995" s="9" t="s">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="B1995" s="9" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="C1995" s="12" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1996" spans="1:3">
       <c r="A1996" s="9" t="s">
-        <v>3406</v>
+        <v>3391</v>
       </c>
       <c r="B1996" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C1996" s="12" t="s">
-        <v>1261</v>
+        <v>1006</v>
+      </c>
+      <c r="C1996" s="14" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="1997" spans="1:3">
       <c r="A1997" s="9" t="s">
-        <v>3407</v>
+        <v>3392</v>
       </c>
       <c r="B1997" s="9" t="s">
-        <v>984</v>
+        <v>1243</v>
       </c>
       <c r="C1997" s="12" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1998" spans="1:3">
       <c r="A1998" s="9" t="s">
-        <v>3408</v>
+        <v>3393</v>
       </c>
       <c r="B1998" s="9" t="s">
-        <v>984</v>
+        <v>1050</v>
       </c>
       <c r="C1998" s="12" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1999" spans="1:3">
       <c r="A1999" s="9" t="s">
-        <v>3409</v>
+        <v>3394</v>
       </c>
       <c r="B1999" s="9" t="s">
-        <v>979</v>
+        <v>1246</v>
       </c>
       <c r="C1999" s="12" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2000" spans="1:3">
       <c r="A2000" s="9" t="s">
-        <v>3410</v>
+        <v>3395</v>
       </c>
       <c r="B2000" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="C2000" s="14" t="s">
-        <v>1265</v>
+        <v>1421</v>
+      </c>
+      <c r="C2000" s="12" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
       <c r="A2001" s="9" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B2001" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C2001" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3">
+      <c r="A2002" s="9" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B2002" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C2002" s="14" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3">
+      <c r="A2003" s="9" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B2003" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C2003" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3">
+      <c r="A2004" s="9" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B2004" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C2004" s="14" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3">
+      <c r="A2005" s="9" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B2005" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C2005" s="12" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3">
+      <c r="A2006" s="9" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B2006" s="9" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C2006" s="14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3">
+      <c r="A2007" s="9" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B2007" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C2007" s="12" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3">
+      <c r="A2008" s="9" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B2008" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C2008" s="12" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3">
+      <c r="A2009" s="9" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B2009" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="C2009" s="12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3">
+      <c r="A2010" s="9" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B2010" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C2010" s="12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3">
+      <c r="A2011" s="9" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B2011" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C2011" s="12" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3">
+      <c r="A2012" s="9" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B2012" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C2012" s="12" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3">
+      <c r="A2013" s="9" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B2013" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C2013" s="12" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3">
+      <c r="A2014" s="9" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B2014" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2014" s="12" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3">
+      <c r="A2015" s="9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B2015" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2015" s="14" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3">
+      <c r="A2016" s="9" t="s">
         <v>3411</v>
       </c>
-      <c r="B2001" s="9" t="s">
+      <c r="B2016" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C2001" s="14" t="s">
+      <c r="C2016" s="14" t="s">
         <v>1266</v>
       </c>
     </row>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6046" uniqueCount="5272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6091" uniqueCount="5307">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -15836,6 +15836,111 @@
   </si>
   <si>
     <t>GP-0720</t>
+  </si>
+  <si>
+    <t>Freda Payne</t>
+  </si>
+  <si>
+    <t>Sam Cooke</t>
+  </si>
+  <si>
+    <t>Paper Roses</t>
+  </si>
+  <si>
+    <t>Marie Osmond</t>
+  </si>
+  <si>
+    <t>Frank Wilson</t>
+  </si>
+  <si>
+    <t>Specials</t>
+  </si>
+  <si>
+    <t>Band of Gold</t>
+  </si>
+  <si>
+    <t>Take it Easy</t>
+  </si>
+  <si>
+    <t>Gimme Gimme Gimme (A Man After Midnight)</t>
+  </si>
+  <si>
+    <t>(What a) Wonderful World</t>
+  </si>
+  <si>
+    <t>Caravan of Love</t>
+  </si>
+  <si>
+    <t>Last Dance</t>
+  </si>
+  <si>
+    <t>Love's Unkind</t>
+  </si>
+  <si>
+    <t>Do I Love You (Indeed I Do)</t>
+  </si>
+  <si>
+    <t>A Message To You Rudy</t>
+  </si>
+  <si>
+    <t>WP-0001</t>
+  </si>
+  <si>
+    <t>WP-0002</t>
+  </si>
+  <si>
+    <t>WP-0003</t>
+  </si>
+  <si>
+    <t>WP-0004</t>
+  </si>
+  <si>
+    <t>WP-0005</t>
+  </si>
+  <si>
+    <t>WP-0006</t>
+  </si>
+  <si>
+    <t>WP-0007</t>
+  </si>
+  <si>
+    <t>WP-0008</t>
+  </si>
+  <si>
+    <t>WP-0009</t>
+  </si>
+  <si>
+    <t>WP-0010</t>
+  </si>
+  <si>
+    <t>WP-0011</t>
+  </si>
+  <si>
+    <t>WP-0012</t>
+  </si>
+  <si>
+    <t>WP-0013</t>
+  </si>
+  <si>
+    <t>WP-0014</t>
+  </si>
+  <si>
+    <t>WP-0015</t>
+  </si>
+  <si>
+    <t>Too Much Too Young</t>
+  </si>
+  <si>
+    <t>Real Thing</t>
+  </si>
+  <si>
+    <t>I'm Still Waiting</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>You To Me Are Everything</t>
   </si>
 </sst>
 </file>
@@ -16248,17 +16353,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2016"/>
+  <dimension ref="A1:E2031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1524" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1534" sqref="D1534"/>
+    <sheetView tabSelected="1" topLeftCell="A2007" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2019" sqref="E2019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -39008,6 +39113,171 @@
       </c>
       <c r="C2016" s="14" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3">
+      <c r="A2017" s="10" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B2017" s="16" t="s">
+        <v>5272</v>
+      </c>
+      <c r="C2017" s="16" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3">
+      <c r="A2018" s="10" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B2018" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2018" s="16" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3">
+      <c r="A2019" s="10" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B2019" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2019" s="16" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3">
+      <c r="A2020" s="10" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B2020" s="16" t="s">
+        <v>5273</v>
+      </c>
+      <c r="C2020" s="16" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3">
+      <c r="A2021" s="10" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B2021" s="16" t="s">
+        <v>5275</v>
+      </c>
+      <c r="C2021" s="16" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3">
+      <c r="A2022" s="10" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B2022" s="16" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C2022" s="16" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3">
+      <c r="A2023" s="10" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B2023" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C2023" s="16" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3">
+      <c r="A2024" s="10" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B2024" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C2024" s="16" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3">
+      <c r="A2025" s="10" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B2025" s="16" t="s">
+        <v>5276</v>
+      </c>
+      <c r="C2025" s="16" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3">
+      <c r="A2026" s="10" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B2026" s="16" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C2026" s="16" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3">
+      <c r="A2027" s="10" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B2027" s="14" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C2027" s="14" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3">
+      <c r="A2028" s="10" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B2028" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="C2028" s="14" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3">
+      <c r="A2029" s="10" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B2029" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C2029" s="14" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3">
+      <c r="A2030" s="10" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B2030" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2030" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3">
+      <c r="A2031" s="10" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B2031" s="14" t="s">
+        <v>5303</v>
+      </c>
+      <c r="C2031" s="14" t="s">
+        <v>5306</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9840" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6091" uniqueCount="5307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="5781">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -15941,6 +15941,1428 @@
   </si>
   <si>
     <t>You To Me Are Everything</t>
+  </si>
+  <si>
+    <t>WP-0016</t>
+  </si>
+  <si>
+    <t>Burning Love</t>
+  </si>
+  <si>
+    <t>WP-0017</t>
+  </si>
+  <si>
+    <t>It's All Coming Back To Me Now</t>
+  </si>
+  <si>
+    <t>WP-0018</t>
+  </si>
+  <si>
+    <t>Huey Lewis and The News</t>
+  </si>
+  <si>
+    <t>Stuck With You</t>
+  </si>
+  <si>
+    <t>WP-0019</t>
+  </si>
+  <si>
+    <t>New Years Day</t>
+  </si>
+  <si>
+    <t>WP-0020</t>
+  </si>
+  <si>
+    <t>WP-0021</t>
+  </si>
+  <si>
+    <t>The Bartender And The Theif</t>
+  </si>
+  <si>
+    <t>WP-0022</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>WP-0023</t>
+  </si>
+  <si>
+    <t>Michael Buble feat Loren Allred</t>
+  </si>
+  <si>
+    <t>Help Me Make It Through The Night</t>
+  </si>
+  <si>
+    <t>WP-0024</t>
+  </si>
+  <si>
+    <t>Psycho Killer</t>
+  </si>
+  <si>
+    <t>WP-0025</t>
+  </si>
+  <si>
+    <t>New Shoes</t>
+  </si>
+  <si>
+    <t>WP-0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human League </t>
+  </si>
+  <si>
+    <t>WP-0027</t>
+  </si>
+  <si>
+    <t>Tiny Dancer</t>
+  </si>
+  <si>
+    <t>WP-0028</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>WP-0029</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>WP-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghan Trainor </t>
+  </si>
+  <si>
+    <t>Made You Look</t>
+  </si>
+  <si>
+    <t>WP-0031</t>
+  </si>
+  <si>
+    <t>Aitch &amp; Ed Sheeran</t>
+  </si>
+  <si>
+    <t>My G</t>
+  </si>
+  <si>
+    <t>WP-0032</t>
+  </si>
+  <si>
+    <t>Break My Soul</t>
+  </si>
+  <si>
+    <t>WP-0033</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t>WP-0034</t>
+  </si>
+  <si>
+    <t>BLACKPINK</t>
+  </si>
+  <si>
+    <t>Pink Venom</t>
+  </si>
+  <si>
+    <t>WP-0035</t>
+  </si>
+  <si>
+    <t>Camila Cabello ft Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Bam Bam</t>
+  </si>
+  <si>
+    <t>WP-0036</t>
+  </si>
+  <si>
+    <t>David Guetta ft Becky Hill &amp; Ella Henderson</t>
+  </si>
+  <si>
+    <t>Crazy What Love Can Do</t>
+  </si>
+  <si>
+    <t>WP-0037</t>
+  </si>
+  <si>
+    <t>Drake ft Lil Baby</t>
+  </si>
+  <si>
+    <t>Wants and Needs</t>
+  </si>
+  <si>
+    <t>WP-0038</t>
+  </si>
+  <si>
+    <t>Shivers</t>
+  </si>
+  <si>
+    <t>WP-0039</t>
+  </si>
+  <si>
+    <t>Ed Sheeran ft Lil Baby</t>
+  </si>
+  <si>
+    <t>2step</t>
+  </si>
+  <si>
+    <t>WP-0040</t>
+  </si>
+  <si>
+    <t>GAYLE</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>WP-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Ezra </t>
+  </si>
+  <si>
+    <t>Green Green Grass</t>
+  </si>
+  <si>
+    <t>WP-0043</t>
+  </si>
+  <si>
+    <t>Jack Harlow</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>WP-0045</t>
+  </si>
+  <si>
+    <t>KSI ft Tom Grennan</t>
+  </si>
+  <si>
+    <t>Not Over Yet</t>
+  </si>
+  <si>
+    <t>WP-0046</t>
+  </si>
+  <si>
+    <t>That's What I Want</t>
+  </si>
+  <si>
+    <t>WP-0047</t>
+  </si>
+  <si>
+    <t>Lizzo ft Cardi B</t>
+  </si>
+  <si>
+    <t>Rumors</t>
+  </si>
+  <si>
+    <t>WP-0048</t>
+  </si>
+  <si>
+    <t>Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>Traitor</t>
+  </si>
+  <si>
+    <t>WP-0049</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>Space Man</t>
+  </si>
+  <si>
+    <t>WP-0050</t>
+  </si>
+  <si>
+    <t>Take My Breath</t>
+  </si>
+  <si>
+    <t>WP-0051</t>
+  </si>
+  <si>
+    <t>Aitch &amp; Ashanti</t>
+  </si>
+  <si>
+    <t>WP-0052</t>
+  </si>
+  <si>
+    <t>Benny Blanco, BTS &amp; Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Bad Decisions</t>
+  </si>
+  <si>
+    <t>WP-0053</t>
+  </si>
+  <si>
+    <t>Happier Than Ever</t>
+  </si>
+  <si>
+    <t>WP-0054</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>WP-0055</t>
+  </si>
+  <si>
+    <t>Burna Boy</t>
+  </si>
+  <si>
+    <t>Last Last</t>
+  </si>
+  <si>
+    <t>WP-0056</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Light Switch</t>
+  </si>
+  <si>
+    <t>WP-0057</t>
+  </si>
+  <si>
+    <t>Doja Cat &amp; The Weeknd</t>
+  </si>
+  <si>
+    <t>You Right</t>
+  </si>
+  <si>
+    <t>WP-0058</t>
+  </si>
+  <si>
+    <t>We're Good</t>
+  </si>
+  <si>
+    <t>WP-0059</t>
+  </si>
+  <si>
+    <t>Ed Sheeran &amp; Taylor Swift</t>
+  </si>
+  <si>
+    <t>Joker And The Queen</t>
+  </si>
+  <si>
+    <t>WP-0060</t>
+  </si>
+  <si>
+    <t>Eliza Rose</t>
+  </si>
+  <si>
+    <t>B.O.T.A. (Baddest Of Them All)</t>
+  </si>
+  <si>
+    <t>WP-0061</t>
+  </si>
+  <si>
+    <t>Anyone For You</t>
+  </si>
+  <si>
+    <t>WP-0062</t>
+  </si>
+  <si>
+    <t>Glass Animals</t>
+  </si>
+  <si>
+    <t>Heat Waves</t>
+  </si>
+  <si>
+    <t>WP-0063</t>
+  </si>
+  <si>
+    <t>Music For A Sushi Restaurant</t>
+  </si>
+  <si>
+    <t>WP-0064</t>
+  </si>
+  <si>
+    <t>WP-0065</t>
+  </si>
+  <si>
+    <t>Kid LAROI</t>
+  </si>
+  <si>
+    <t>Thousand Miles</t>
+  </si>
+  <si>
+    <t>WP-0066</t>
+  </si>
+  <si>
+    <t>LF System</t>
+  </si>
+  <si>
+    <t>Afraid To Feel</t>
+  </si>
+  <si>
+    <t>WP-0067</t>
+  </si>
+  <si>
+    <t>About Damn Time</t>
+  </si>
+  <si>
+    <t>WP-0068</t>
+  </si>
+  <si>
+    <t>Lost Frequencies ft Calum Scott</t>
+  </si>
+  <si>
+    <t>Where Are You Now</t>
+  </si>
+  <si>
+    <t>WP-0069</t>
+  </si>
+  <si>
+    <t>I Ain't Worried</t>
+  </si>
+  <si>
+    <t>WP-0070</t>
+  </si>
+  <si>
+    <t>All Too Well (Sad Girl Autumn Version)</t>
+  </si>
+  <si>
+    <t>WP-0071</t>
+  </si>
+  <si>
+    <t>A Little Night Music</t>
+  </si>
+  <si>
+    <t>Send In The Clowns</t>
+  </si>
+  <si>
+    <t>WP-0072</t>
+  </si>
+  <si>
+    <t>S.O.S</t>
+  </si>
+  <si>
+    <t>WP-0073</t>
+  </si>
+  <si>
+    <t>Aerosmith &amp; Run DMC</t>
+  </si>
+  <si>
+    <t>Walk This Way</t>
+  </si>
+  <si>
+    <t>WP-0074</t>
+  </si>
+  <si>
+    <t>Al Martino</t>
+  </si>
+  <si>
+    <t>Spanish Eyes</t>
+  </si>
+  <si>
+    <t>WP-0075</t>
+  </si>
+  <si>
+    <t>WP-0077</t>
+  </si>
+  <si>
+    <t>Alphabeat</t>
+  </si>
+  <si>
+    <t>Fascination</t>
+  </si>
+  <si>
+    <t>WP-0078</t>
+  </si>
+  <si>
+    <t>WP-0079</t>
+  </si>
+  <si>
+    <t>It's The Most Wonderful Time Of The Year</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Half The World Away</t>
+  </si>
+  <si>
+    <t>WP-0082</t>
+  </si>
+  <si>
+    <t>WP-0083</t>
+  </si>
+  <si>
+    <t>WP-0086</t>
+  </si>
+  <si>
+    <t>Baha Men</t>
+  </si>
+  <si>
+    <t>Who Let The Dogs Out</t>
+  </si>
+  <si>
+    <t>Beatles</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>WP-0088</t>
+  </si>
+  <si>
+    <t>WP-0089</t>
+  </si>
+  <si>
+    <t>Ave Maria</t>
+  </si>
+  <si>
+    <t>WP-0090</t>
+  </si>
+  <si>
+    <t>Shake Rattle &amp; Roll</t>
+  </si>
+  <si>
+    <t>WP-0093</t>
+  </si>
+  <si>
+    <t>Let's Get It Started</t>
+  </si>
+  <si>
+    <t>WP-0094</t>
+  </si>
+  <si>
+    <t>Black Sabbath</t>
+  </si>
+  <si>
+    <t>Paranoid</t>
+  </si>
+  <si>
+    <t>WP-0096</t>
+  </si>
+  <si>
+    <t>Blues Brothers</t>
+  </si>
+  <si>
+    <t>Rawhide</t>
+  </si>
+  <si>
+    <t>WP-0098</t>
+  </si>
+  <si>
+    <t>Bobby Boris Pickett</t>
+  </si>
+  <si>
+    <t>Monster Mash</t>
+  </si>
+  <si>
+    <t>WP-0099</t>
+  </si>
+  <si>
+    <t>Bobby Vee</t>
+  </si>
+  <si>
+    <t>Rubber Ball</t>
+  </si>
+  <si>
+    <t>WP-0100</t>
+  </si>
+  <si>
+    <t>Boyz II Men</t>
+  </si>
+  <si>
+    <t>End Of The Road</t>
+  </si>
+  <si>
+    <t>WP-0102</t>
+  </si>
+  <si>
+    <t>Runaway Baby</t>
+  </si>
+  <si>
+    <t>WP-0103</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
+  </si>
+  <si>
+    <t>Raining In My Heart</t>
+  </si>
+  <si>
+    <t>WP-0108</t>
+  </si>
+  <si>
+    <t>Cascada</t>
+  </si>
+  <si>
+    <t>Evacuate The Dancefloor</t>
+  </si>
+  <si>
+    <t>WP-0109</t>
+  </si>
+  <si>
+    <t>The Most Beautiful Girl</t>
+  </si>
+  <si>
+    <t>WP-0110</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>WP-0112</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>When You're Good To Mama</t>
+  </si>
+  <si>
+    <t>WP-0113</t>
+  </si>
+  <si>
+    <t>Christina Aguilera &amp; Missy Elliot</t>
+  </si>
+  <si>
+    <t>WP-0114</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>We Wish You A Merry Christmas</t>
+  </si>
+  <si>
+    <t>WP-0115</t>
+  </si>
+  <si>
+    <t>Cilla Black</t>
+  </si>
+  <si>
+    <t>Anyone Who Had a Heart</t>
+  </si>
+  <si>
+    <t>WP-0117</t>
+  </si>
+  <si>
+    <t>Summer Holiday</t>
+  </si>
+  <si>
+    <t>WP-0118</t>
+  </si>
+  <si>
+    <t>Commitments</t>
+  </si>
+  <si>
+    <t>Gimme Some Loving</t>
+  </si>
+  <si>
+    <t>WP-0120</t>
+  </si>
+  <si>
+    <t>Corinne Bailey Rae</t>
+  </si>
+  <si>
+    <t>Put Your Records On</t>
+  </si>
+  <si>
+    <t>WP-0121</t>
+  </si>
+  <si>
+    <t>Creedence Clearwater Revival</t>
+  </si>
+  <si>
+    <t>WP-0124</t>
+  </si>
+  <si>
+    <t>WP-0126</t>
+  </si>
+  <si>
+    <t>Ain't That A Kick In The Head</t>
+  </si>
+  <si>
+    <t>WP-0127</t>
+  </si>
+  <si>
+    <t>Desmond Dekker &amp; The Aces</t>
+  </si>
+  <si>
+    <t>Israelites</t>
+  </si>
+  <si>
+    <t>WP-0130</t>
+  </si>
+  <si>
+    <t>Walk On By</t>
+  </si>
+  <si>
+    <t>I Believe In A Thing Called Love</t>
+  </si>
+  <si>
+    <t>DJ Jazzy Jeff &amp; The Fresh Prince</t>
+  </si>
+  <si>
+    <t>Boom Shake The Room</t>
+  </si>
+  <si>
+    <t>WP-0131</t>
+  </si>
+  <si>
+    <t>WP-0133</t>
+  </si>
+  <si>
+    <t>I Believe In You</t>
+  </si>
+  <si>
+    <t>WP-0134</t>
+  </si>
+  <si>
+    <t>Save The Last Dance For Me</t>
+  </si>
+  <si>
+    <t>WP-0135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusty Springfield </t>
+  </si>
+  <si>
+    <t>I Only Want To Be With You</t>
+  </si>
+  <si>
+    <t>WP-0136</t>
+  </si>
+  <si>
+    <t>Eddie Floyd</t>
+  </si>
+  <si>
+    <t>WP-0137</t>
+  </si>
+  <si>
+    <t>Eiffel 65</t>
+  </si>
+  <si>
+    <t>Blue (Da Ba Dee)</t>
+  </si>
+  <si>
+    <t>WP-0138</t>
+  </si>
+  <si>
+    <t>Ella Henderson &amp; Jax Jones</t>
+  </si>
+  <si>
+    <t>This Is Real</t>
+  </si>
+  <si>
+    <t>WP-0142</t>
+  </si>
+  <si>
+    <t>Songbird</t>
+  </si>
+  <si>
+    <t>WP-0144</t>
+  </si>
+  <si>
+    <t>Fat Boys &amp; Beach Boys</t>
+  </si>
+  <si>
+    <t>Wipe Out</t>
+  </si>
+  <si>
+    <t>WP-0145</t>
+  </si>
+  <si>
+    <t>Love It When You Call</t>
+  </si>
+  <si>
+    <t>The Feeling</t>
+  </si>
+  <si>
+    <t>WP-0146</t>
+  </si>
+  <si>
+    <t>Fleur East</t>
+  </si>
+  <si>
+    <t>Sax</t>
+  </si>
+  <si>
+    <t>WP-0147</t>
+  </si>
+  <si>
+    <t>Foundations</t>
+  </si>
+  <si>
+    <t>Baby Now That I've Found You</t>
+  </si>
+  <si>
+    <t>WP-0148</t>
+  </si>
+  <si>
+    <t>I Get A Kick Out Of You</t>
+  </si>
+  <si>
+    <t>WP-0154</t>
+  </si>
+  <si>
+    <t>Gerry Rafferty</t>
+  </si>
+  <si>
+    <t>Baker Street</t>
+  </si>
+  <si>
+    <t>WP-0155</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>WP-0156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen Campbell </t>
+  </si>
+  <si>
+    <t>Gentle On My Mind</t>
+  </si>
+  <si>
+    <t>WP-0158</t>
+  </si>
+  <si>
+    <t>What You Waiting For</t>
+  </si>
+  <si>
+    <t>WP-0159</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>MMMBop</t>
+  </si>
+  <si>
+    <t>WP-0161</t>
+  </si>
+  <si>
+    <t>Helen Shapiro</t>
+  </si>
+  <si>
+    <t>Walking Back To Happiness</t>
+  </si>
+  <si>
+    <t>WP-0162</t>
+  </si>
+  <si>
+    <t>You Sexy Thing</t>
+  </si>
+  <si>
+    <t>WP-0163</t>
+  </si>
+  <si>
+    <t>Ian Dury &amp; The Blockheads</t>
+  </si>
+  <si>
+    <t>Hit Me With Your Rhythm Stick</t>
+  </si>
+  <si>
+    <t>WP-0165</t>
+  </si>
+  <si>
+    <t>Jamelia</t>
+  </si>
+  <si>
+    <t>WP-0166</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>Wisemen</t>
+  </si>
+  <si>
+    <t>WP-0167</t>
+  </si>
+  <si>
+    <t>James Morrison</t>
+  </si>
+  <si>
+    <t>Wonderful World</t>
+  </si>
+  <si>
+    <t>WP-0168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Mraz </t>
+  </si>
+  <si>
+    <t>I Won't Give Up</t>
+  </si>
+  <si>
+    <t>WP-0169</t>
+  </si>
+  <si>
+    <t>Jennifer Hudson (Dream Girls)</t>
+  </si>
+  <si>
+    <t>And I Am Telling You</t>
+  </si>
+  <si>
+    <t>WP-0170</t>
+  </si>
+  <si>
+    <t>JLS</t>
+  </si>
+  <si>
+    <t>Beat Again</t>
+  </si>
+  <si>
+    <t>WP-0171</t>
+  </si>
+  <si>
+    <t>Joe Brown &amp; The Bruvvers</t>
+  </si>
+  <si>
+    <t>A Picture Of You</t>
+  </si>
+  <si>
+    <t>WP-0172</t>
+  </si>
+  <si>
+    <t>Happy Xmas War Is Over</t>
+  </si>
+  <si>
+    <t>WP-0173</t>
+  </si>
+  <si>
+    <t>Jona Lewie</t>
+  </si>
+  <si>
+    <t>Stop The Cavalry</t>
+  </si>
+  <si>
+    <t>WP-0176</t>
+  </si>
+  <si>
+    <t>Kate Nash</t>
+  </si>
+  <si>
+    <t>WP-0178</t>
+  </si>
+  <si>
+    <t>What Doesn't Kill You (Stronger)</t>
+  </si>
+  <si>
+    <t>WP-0179</t>
+  </si>
+  <si>
+    <t>Kevin Lyttle</t>
+  </si>
+  <si>
+    <t>Turn Me On</t>
+  </si>
+  <si>
+    <t>WP-0181</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>WP-0184</t>
+  </si>
+  <si>
+    <t>Lady Gaga &amp; Beyonce</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>WP-0185</t>
+  </si>
+  <si>
+    <t>WP-0188</t>
+  </si>
+  <si>
+    <t>Linda Ronstadt &amp; Aaron Neville</t>
+  </si>
+  <si>
+    <t>Don't Know Much</t>
+  </si>
+  <si>
+    <t>WP-0189</t>
+  </si>
+  <si>
+    <t>Love Me Like You</t>
+  </si>
+  <si>
+    <t>WP-0190</t>
+  </si>
+  <si>
+    <t>Little Richard</t>
+  </si>
+  <si>
+    <t>Good Golly Miss Molly</t>
+  </si>
+  <si>
+    <t>WP-0191</t>
+  </si>
+  <si>
+    <t>Lizzo</t>
+  </si>
+  <si>
+    <t>Good As Hell</t>
+  </si>
+  <si>
+    <t>WP-0193</t>
+  </si>
+  <si>
+    <t>Lou Bega</t>
+  </si>
+  <si>
+    <t>Mambo No 5</t>
+  </si>
+  <si>
+    <t>WP-0194</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>Nessun Dorma</t>
+  </si>
+  <si>
+    <t>WP-0196</t>
+  </si>
+  <si>
+    <t>Maria McKee</t>
+  </si>
+  <si>
+    <t>Show Me Heaven</t>
+  </si>
+  <si>
+    <t>WP-0198</t>
+  </si>
+  <si>
+    <t>I Heard It Through The Grapevine</t>
+  </si>
+  <si>
+    <t>WP-0199</t>
+  </si>
+  <si>
+    <t>Matt Monro</t>
+  </si>
+  <si>
+    <t>Portrait Of My Love</t>
+  </si>
+  <si>
+    <t>WP-0201</t>
+  </si>
+  <si>
+    <t>Dear Future Husband</t>
+  </si>
+  <si>
+    <t>WP-0203</t>
+  </si>
+  <si>
+    <t>Michael Buble</t>
+  </si>
+  <si>
+    <t>Sway</t>
+  </si>
+  <si>
+    <t>WP-0204</t>
+  </si>
+  <si>
+    <t>Mike Posner</t>
+  </si>
+  <si>
+    <t>Cooler Than Me</t>
+  </si>
+  <si>
+    <t>WP-0205</t>
+  </si>
+  <si>
+    <t>Miley Cyrus  ft Dua Lipa</t>
+  </si>
+  <si>
+    <t>Prisoner</t>
+  </si>
+  <si>
+    <t>WP-0206</t>
+  </si>
+  <si>
+    <t>Monica &amp; Brandy</t>
+  </si>
+  <si>
+    <t>The Boy Is Mine</t>
+  </si>
+  <si>
+    <t>WP-0207</t>
+  </si>
+  <si>
+    <t>Motorhead</t>
+  </si>
+  <si>
+    <t>Ace Of Spades</t>
+  </si>
+  <si>
+    <t>WP-0209</t>
+  </si>
+  <si>
+    <t>Nat King Cole</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>WP-0210</t>
+  </si>
+  <si>
+    <t>These Words</t>
+  </si>
+  <si>
+    <t>WP-0211</t>
+  </si>
+  <si>
+    <t>Neil Diamond &amp; Barbra Streisand</t>
+  </si>
+  <si>
+    <t>You Don't Bring Me Flowers</t>
+  </si>
+  <si>
+    <t>WP-0212</t>
+  </si>
+  <si>
+    <t>Nick Jonas</t>
+  </si>
+  <si>
+    <t>Jealous</t>
+  </si>
+  <si>
+    <t>WP-0213</t>
+  </si>
+  <si>
+    <t>Noisettes</t>
+  </si>
+  <si>
+    <t>Never Forget You</t>
+  </si>
+  <si>
+    <t>WP-0214</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oh What A Beautiful Morning</t>
+  </si>
+  <si>
+    <t>WP-0215</t>
+  </si>
+  <si>
+    <t>Olly Murs &amp; Rizzle Kicks</t>
+  </si>
+  <si>
+    <t>Heart Skips A Beat</t>
+  </si>
+  <si>
+    <t>WP-0216</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>WP-0217</t>
+  </si>
+  <si>
+    <t>Outhere Brothers</t>
+  </si>
+  <si>
+    <t>Boom Boom Boom</t>
+  </si>
+  <si>
+    <t>WP-0218</t>
+  </si>
+  <si>
+    <t>Ozzy &amp; Kelly Osbourne</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>WP-0219</t>
+  </si>
+  <si>
+    <t>Ten Out Of Ten</t>
+  </si>
+  <si>
+    <t>WP-0220</t>
+  </si>
+  <si>
+    <t>Paul Anka</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>WP-0221</t>
+  </si>
+  <si>
+    <t>Peggy Lee</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>WP-0222</t>
+  </si>
+  <si>
+    <t>Perry Como</t>
+  </si>
+  <si>
+    <t>Winter Wonterland</t>
+  </si>
+  <si>
+    <t>WP-0223</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>WP-0224</t>
+  </si>
+  <si>
+    <t>So What</t>
+  </si>
+  <si>
+    <t>WP-0225</t>
+  </si>
+  <si>
+    <t>Pixie Lott</t>
+  </si>
+  <si>
+    <t>Mama Do</t>
+  </si>
+  <si>
+    <t>WP-0229</t>
+  </si>
+  <si>
+    <t>Brass In Pocket</t>
+  </si>
+  <si>
+    <t>WP-0231</t>
+  </si>
+  <si>
+    <t>Rachel Stevens</t>
+  </si>
+  <si>
+    <t>Sweet Dreams My LA Ex</t>
+  </si>
+  <si>
+    <t>WP-0232</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>Georgia On My Mind</t>
+  </si>
+  <si>
+    <t>WP-0233</t>
+  </si>
+  <si>
+    <t>Razorlight</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>WP-0234</t>
+  </si>
+  <si>
+    <t>REO Speedwagon</t>
+  </si>
+  <si>
+    <t>Can't Fight This Feeling</t>
+  </si>
+  <si>
+    <t>WP-0235</t>
+  </si>
+  <si>
+    <t>Unfaithful</t>
+  </si>
+  <si>
+    <t>WP-0237</t>
+  </si>
+  <si>
+    <t>Love My Life</t>
+  </si>
+  <si>
+    <t>WP-0239</t>
+  </si>
+  <si>
+    <t>Robson &amp; Jerome</t>
+  </si>
+  <si>
+    <t>I Believe</t>
+  </si>
+  <si>
+    <t>WP-0241</t>
+  </si>
+  <si>
+    <t>Life Is A Rollercoaster</t>
+  </si>
+  <si>
+    <t>WP-0243</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr</t>
+  </si>
+  <si>
+    <t>I've Gotta Be Me</t>
+  </si>
+  <si>
+    <t>WP-0244</t>
+  </si>
+  <si>
+    <t>Sarah Brightman &amp; Andrea Bocelli</t>
+  </si>
+  <si>
+    <t>Time To Say Goodbye (Con Te Partir)</t>
+  </si>
+  <si>
+    <t>WP-0245</t>
+  </si>
+  <si>
+    <t>Scouting For Girls</t>
+  </si>
+  <si>
+    <t>She's So Lovely</t>
+  </si>
+  <si>
+    <t>WP-0246</t>
+  </si>
+  <si>
+    <t>Shabba Ranks</t>
+  </si>
+  <si>
+    <t>Mr Loverman</t>
+  </si>
+  <si>
+    <t>WP-0248</t>
+  </si>
+  <si>
+    <t>Shawn Mendes &amp; Justin Bieber</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>WP-0252</t>
+  </si>
+  <si>
+    <t>2 Become 1</t>
+  </si>
+  <si>
+    <t>WP-0253</t>
+  </si>
+  <si>
+    <t>Status Quo</t>
+  </si>
+  <si>
+    <t>WP-0255</t>
+  </si>
+  <si>
+    <t>Styx</t>
+  </si>
+  <si>
+    <t>WP-0256</t>
+  </si>
+  <si>
+    <t>WP-0257</t>
+  </si>
+  <si>
+    <t>Bad Blood</t>
+  </si>
+  <si>
+    <t>WP-0259</t>
+  </si>
+  <si>
+    <t>Three Degrees</t>
+  </si>
+  <si>
+    <t>When Will I See You Again</t>
+  </si>
+  <si>
+    <t>WP-0261</t>
+  </si>
+  <si>
+    <t>Tom Jones &amp; The Stereophonics</t>
+  </si>
+  <si>
+    <t>Mama Told Me Not To Come</t>
+  </si>
+  <si>
+    <t>WP-0262</t>
+  </si>
+  <si>
+    <t>Toni Baxton</t>
+  </si>
+  <si>
+    <t>Unbreak My Heart</t>
+  </si>
+  <si>
+    <t>WP-0263</t>
+  </si>
+  <si>
+    <t>Baby Can I Hold You</t>
+  </si>
+  <si>
+    <t>WP-0264</t>
+  </si>
+  <si>
+    <t>Travie McCoy &amp; Bruno Mars</t>
+  </si>
+  <si>
+    <t>Billionaire</t>
+  </si>
+  <si>
+    <t>WP-0265</t>
+  </si>
+  <si>
+    <t>Usher &amp; Pitbull</t>
+  </si>
+  <si>
+    <t>DJ Got Us Falling In Love</t>
+  </si>
+  <si>
+    <t>WP-0268</t>
+  </si>
+  <si>
+    <t>Pinball Wizard</t>
+  </si>
+  <si>
+    <t>WP-0269</t>
+  </si>
+  <si>
+    <t>Will I Am &amp; Britney Spears</t>
+  </si>
+  <si>
+    <t>Scream &amp; Shout</t>
+  </si>
+  <si>
+    <t>WP-0270</t>
+  </si>
+  <si>
+    <t>The Who</t>
+  </si>
+  <si>
+    <t>The Darkness</t>
   </si>
 </sst>
 </file>
@@ -16353,11 +17775,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2031"/>
+  <dimension ref="A1:E2217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2007" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2019" sqref="E2019"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -39278,6 +40698,2052 @@
       </c>
       <c r="C2031" s="14" t="s">
         <v>5306</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3">
+      <c r="A2032" s="10" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B2032" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="C2032" s="14" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3">
+      <c r="A2033" s="10" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B2033" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C2033" s="14" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3">
+      <c r="A2034" s="10" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B2034" s="14" t="s">
+        <v>5312</v>
+      </c>
+      <c r="C2034" s="14" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3">
+      <c r="A2035" s="10" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B2035" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C2035" s="14" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3">
+      <c r="A2036" s="10" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B2036" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2036" s="14" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3">
+      <c r="A2037" s="10" t="s">
+        <v>5317</v>
+      </c>
+      <c r="B2037" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2037" s="14" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3">
+      <c r="A2038" s="10" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B2038" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="C2038" s="14" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3">
+      <c r="A2039" s="10" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B2039" s="14" t="s">
+        <v>5322</v>
+      </c>
+      <c r="C2039" s="14" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3">
+      <c r="A2040" s="10" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B2040" s="14" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C2040" s="14" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3">
+      <c r="A2041" s="10" t="s">
+        <v>5326</v>
+      </c>
+      <c r="B2041" s="14" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C2041" s="14" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3">
+      <c r="A2042" s="10" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B2042" s="14" t="s">
+        <v>5329</v>
+      </c>
+      <c r="C2042" s="14" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3">
+      <c r="A2043" s="10" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B2043" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="C2043" s="14" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3">
+      <c r="A2044" s="10" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B2044" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2044" s="14" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3">
+      <c r="A2045" s="10" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B2045" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2045" s="14" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3">
+      <c r="A2046" s="10" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B2046" s="14" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C2046" s="14" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3">
+      <c r="A2047" s="10" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B2047" s="14" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C2047" s="14" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3">
+      <c r="A2048" s="10" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B2048" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2048" s="14" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3">
+      <c r="A2049" s="10" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B2049" s="14" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2049" s="14" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3">
+      <c r="A2050" s="10" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B2050" s="14" t="s">
+        <v>5347</v>
+      </c>
+      <c r="C2050" s="14" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3">
+      <c r="A2051" s="10" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B2051" s="14" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C2051" s="14" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3">
+      <c r="A2052" s="10" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2052" s="14" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C2052" s="14" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3">
+      <c r="A2053" s="10" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B2053" s="14" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C2053" s="14" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3">
+      <c r="A2054" s="10" t="s">
+        <v>5358</v>
+      </c>
+      <c r="B2054" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2054" s="14" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3">
+      <c r="A2055" s="10" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B2055" s="14" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C2055" s="14" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3">
+      <c r="A2056" s="10" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B2056" s="14" t="s">
+        <v>5364</v>
+      </c>
+      <c r="C2056" s="14" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3">
+      <c r="A2057" s="10" t="s">
+        <v>5366</v>
+      </c>
+      <c r="B2057" s="14" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C2057" s="14" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3">
+      <c r="A2058" s="10" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B2058" s="14" t="s">
+        <v>5370</v>
+      </c>
+      <c r="C2058" s="14" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3">
+      <c r="A2059" s="10" t="s">
+        <v>5372</v>
+      </c>
+      <c r="B2059" s="14" t="s">
+        <v>5373</v>
+      </c>
+      <c r="C2059" s="14" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3">
+      <c r="A2060" s="10" t="s">
+        <v>5375</v>
+      </c>
+      <c r="B2060" s="14" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C2060" s="14" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3">
+      <c r="A2061" s="10" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B2061" s="14" t="s">
+        <v>5378</v>
+      </c>
+      <c r="C2061" s="14" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3">
+      <c r="A2062" s="10" t="s">
+        <v>5380</v>
+      </c>
+      <c r="B2062" s="14" t="s">
+        <v>5381</v>
+      </c>
+      <c r="C2062" s="14" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3">
+      <c r="A2063" s="10" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B2063" s="14" t="s">
+        <v>5384</v>
+      </c>
+      <c r="C2063" s="14" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3">
+      <c r="A2064" s="10" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B2064" s="14" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C2064" s="14" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3">
+      <c r="A2065" s="10" t="s">
+        <v>5388</v>
+      </c>
+      <c r="B2065" s="14" t="s">
+        <v>5389</v>
+      </c>
+      <c r="C2065" s="14" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3">
+      <c r="A2066" s="10" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B2066" s="14" t="s">
+        <v>5391</v>
+      </c>
+      <c r="C2066" s="14" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" s="10" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B2067" s="14" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2067" s="14" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" s="10" t="s">
+        <v>5395</v>
+      </c>
+      <c r="B2068" s="14" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C2068" s="14" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" s="10" t="s">
+        <v>5397</v>
+      </c>
+      <c r="B2069" s="14" t="s">
+        <v>5398</v>
+      </c>
+      <c r="C2069" s="14" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" s="10" t="s">
+        <v>5400</v>
+      </c>
+      <c r="B2070" s="14" t="s">
+        <v>5401</v>
+      </c>
+      <c r="C2070" s="14" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" s="10" t="s">
+        <v>5403</v>
+      </c>
+      <c r="B2071" s="14" t="s">
+        <v>5404</v>
+      </c>
+      <c r="C2071" s="14" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="10" t="s">
+        <v>5406</v>
+      </c>
+      <c r="B2072" s="14" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C2072" s="14" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" s="10" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B2073" s="14" t="s">
+        <v>5409</v>
+      </c>
+      <c r="C2073" s="14" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="10" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B2074" s="14" t="s">
+        <v>5412</v>
+      </c>
+      <c r="C2074" s="14" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="10" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B2075" s="14" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C2075" s="14" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="10" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B2076" s="14" t="s">
+        <v>5417</v>
+      </c>
+      <c r="C2076" s="14" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" s="10" t="s">
+        <v>5419</v>
+      </c>
+      <c r="B2077" s="14" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C2077" s="14" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" s="10" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B2078" s="14" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C2078" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3">
+      <c r="A2079" s="10" t="s">
+        <v>5422</v>
+      </c>
+      <c r="B2079" s="14" t="s">
+        <v>5423</v>
+      </c>
+      <c r="C2079" s="14" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3">
+      <c r="A2080" s="10" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B2080" s="14" t="s">
+        <v>5426</v>
+      </c>
+      <c r="C2080" s="14" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3">
+      <c r="A2081" s="10" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B2081" s="14" t="s">
+        <v>5378</v>
+      </c>
+      <c r="C2081" s="14" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3">
+      <c r="A2082" s="10" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B2082" s="14" t="s">
+        <v>5431</v>
+      </c>
+      <c r="C2082" s="14" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3">
+      <c r="A2083" s="10" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B2083" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C2083" s="14" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3">
+      <c r="A2084" s="10" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B2084" s="14" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C2084" s="14" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3">
+      <c r="A2085" s="10" t="s">
+        <v>5437</v>
+      </c>
+      <c r="B2085" s="14" t="s">
+        <v>5438</v>
+      </c>
+      <c r="C2085" s="14" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3">
+      <c r="A2086" s="10" t="s">
+        <v>5440</v>
+      </c>
+      <c r="B2086" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2086" s="14" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3">
+      <c r="A2087" s="10" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B2087" s="14" t="s">
+        <v>5443</v>
+      </c>
+      <c r="C2087" s="14" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3">
+      <c r="A2088" s="10" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B2088" s="14" t="s">
+        <v>5446</v>
+      </c>
+      <c r="C2088" s="14" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3">
+      <c r="A2089" s="10" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B2089" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C2089" s="14" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3">
+      <c r="A2090" s="10" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B2090" s="14" t="s">
+        <v>5450</v>
+      </c>
+      <c r="C2090" s="14" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3">
+      <c r="A2091" s="10" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B2091" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2091" s="14" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3">
+      <c r="A2092" s="10" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B2092" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C2092" s="14" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3">
+      <c r="A2093" s="10" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B2093" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2093" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3">
+      <c r="A2094" s="10" t="s">
+        <v>5458</v>
+      </c>
+      <c r="B2094" s="14" t="s">
+        <v>5455</v>
+      </c>
+      <c r="C2094" s="14" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3">
+      <c r="A2095" s="10" t="s">
+        <v>5459</v>
+      </c>
+      <c r="B2095" s="14" t="s">
+        <v>5460</v>
+      </c>
+      <c r="C2095" s="14" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3">
+      <c r="A2096" s="10" t="s">
+        <v>5464</v>
+      </c>
+      <c r="B2096" s="14" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C2096" s="14" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3">
+      <c r="A2097" s="10" t="s">
+        <v>5465</v>
+      </c>
+      <c r="B2097" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2097" s="14" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3">
+      <c r="A2098" s="10" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B2098" s="14" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C2098" s="14" t="s">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3">
+      <c r="A2099" s="10" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B2099" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="C2099" s="14" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3">
+      <c r="A2100" s="10" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B2100" s="14" t="s">
+        <v>5472</v>
+      </c>
+      <c r="C2100" s="14" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3">
+      <c r="A2101" s="10" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B2101" s="14" t="s">
+        <v>5475</v>
+      </c>
+      <c r="C2101" s="14" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3">
+      <c r="A2102" s="10" t="s">
+        <v>5477</v>
+      </c>
+      <c r="B2102" s="14" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C2102" s="14" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3">
+      <c r="A2103" s="10" t="s">
+        <v>5480</v>
+      </c>
+      <c r="B2103" s="14" t="s">
+        <v>5481</v>
+      </c>
+      <c r="C2103" s="14" t="s">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3">
+      <c r="A2104" s="10" t="s">
+        <v>5483</v>
+      </c>
+      <c r="B2104" s="14" t="s">
+        <v>5484</v>
+      </c>
+      <c r="C2104" s="14" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3">
+      <c r="A2105" s="10" t="s">
+        <v>5486</v>
+      </c>
+      <c r="B2105" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="C2105" s="14" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3">
+      <c r="A2106" s="10" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B2106" s="14" t="s">
+        <v>5489</v>
+      </c>
+      <c r="C2106" s="14" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3">
+      <c r="A2107" s="10" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B2107" s="14" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C2107" s="14" t="s">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3">
+      <c r="A2108" s="10" t="s">
+        <v>5494</v>
+      </c>
+      <c r="B2108" s="14" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C2108" s="14" t="s">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3">
+      <c r="A2109" s="10" t="s">
+        <v>5496</v>
+      </c>
+      <c r="B2109" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C2109" s="14" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3">
+      <c r="A2110" s="10" t="s">
+        <v>5498</v>
+      </c>
+      <c r="B2110" s="14" t="s">
+        <v>5499</v>
+      </c>
+      <c r="C2110" s="14" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3">
+      <c r="A2111" s="10" t="s">
+        <v>5501</v>
+      </c>
+      <c r="B2111" s="14" t="s">
+        <v>5502</v>
+      </c>
+      <c r="C2111" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3">
+      <c r="A2112" s="10" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B2112" s="14" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C2112" s="14" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3">
+      <c r="A2113" s="10" t="s">
+        <v>5506</v>
+      </c>
+      <c r="B2113" s="14" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C2113" s="14" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3">
+      <c r="A2114" s="10" t="s">
+        <v>5509</v>
+      </c>
+      <c r="B2114" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C2114" s="14" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3">
+      <c r="A2115" s="10" t="s">
+        <v>5511</v>
+      </c>
+      <c r="B2115" s="14" t="s">
+        <v>5512</v>
+      </c>
+      <c r="C2115" s="14" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3">
+      <c r="A2116" s="10" t="s">
+        <v>5514</v>
+      </c>
+      <c r="B2116" s="14" t="s">
+        <v>5515</v>
+      </c>
+      <c r="C2116" s="14" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3">
+      <c r="A2117" s="10" t="s">
+        <v>5517</v>
+      </c>
+      <c r="B2117" s="14" t="s">
+        <v>5518</v>
+      </c>
+      <c r="C2117" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3">
+      <c r="A2118" s="10" t="s">
+        <v>5519</v>
+      </c>
+      <c r="B2118" s="14" t="s">
+        <v>5780</v>
+      </c>
+      <c r="C2118" s="14" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3">
+      <c r="A2119" s="10" t="s">
+        <v>5520</v>
+      </c>
+      <c r="B2119" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2119" s="14" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3">
+      <c r="A2120" s="10" t="s">
+        <v>5522</v>
+      </c>
+      <c r="B2120" s="14" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C2120" s="14" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3">
+      <c r="A2121" s="10" t="s">
+        <v>5525</v>
+      </c>
+      <c r="B2121" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="C2121" s="14" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3">
+      <c r="A2122" s="10" t="s">
+        <v>5530</v>
+      </c>
+      <c r="B2122" s="14" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C2122" s="14" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3">
+      <c r="A2123" s="10" t="s">
+        <v>5531</v>
+      </c>
+      <c r="B2123" s="14" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C2123" s="14" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3">
+      <c r="A2124" s="10" t="s">
+        <v>5533</v>
+      </c>
+      <c r="B2124" s="14" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C2124" s="14" t="s">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3">
+      <c r="A2125" s="10" t="s">
+        <v>5535</v>
+      </c>
+      <c r="B2125" s="14" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C2125" s="14" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:3">
+      <c r="A2126" s="10" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B2126" s="14" t="s">
+        <v>5539</v>
+      </c>
+      <c r="C2126" s="14" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3">
+      <c r="A2127" s="10" t="s">
+        <v>5540</v>
+      </c>
+      <c r="B2127" s="14" t="s">
+        <v>5541</v>
+      </c>
+      <c r="C2127" s="14" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3">
+      <c r="A2128" s="10" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B2128" s="14" t="s">
+        <v>5544</v>
+      </c>
+      <c r="C2128" s="14" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3">
+      <c r="A2129" s="10" t="s">
+        <v>5546</v>
+      </c>
+      <c r="B2129" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="C2129" s="14" t="s">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3">
+      <c r="A2130" s="10" t="s">
+        <v>5548</v>
+      </c>
+      <c r="B2130" s="14" t="s">
+        <v>5549</v>
+      </c>
+      <c r="C2130" s="14" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3">
+      <c r="A2131" s="10" t="s">
+        <v>5551</v>
+      </c>
+      <c r="B2131" s="14" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C2131" s="14" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3">
+      <c r="A2132" s="10" t="s">
+        <v>5554</v>
+      </c>
+      <c r="B2132" s="14" t="s">
+        <v>5555</v>
+      </c>
+      <c r="C2132" s="14" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3">
+      <c r="A2133" s="10" t="s">
+        <v>5557</v>
+      </c>
+      <c r="B2133" s="14" t="s">
+        <v>5558</v>
+      </c>
+      <c r="C2133" s="14" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3">
+      <c r="A2134" s="10" t="s">
+        <v>5560</v>
+      </c>
+      <c r="B2134" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2134" s="14" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3">
+      <c r="A2135" s="10" t="s">
+        <v>5562</v>
+      </c>
+      <c r="B2135" s="14" t="s">
+        <v>5563</v>
+      </c>
+      <c r="C2135" s="14" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3">
+      <c r="A2136" s="10" t="s">
+        <v>5565</v>
+      </c>
+      <c r="B2136" s="14" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C2136" s="14" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3">
+      <c r="A2137" s="10" t="s">
+        <v>5567</v>
+      </c>
+      <c r="B2137" s="14" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C2137" s="14" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3">
+      <c r="A2138" s="10" t="s">
+        <v>5570</v>
+      </c>
+      <c r="B2138" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="C2138" s="14" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3">
+      <c r="A2139" s="10" t="s">
+        <v>5572</v>
+      </c>
+      <c r="B2139" s="14" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C2139" s="14" t="s">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3">
+      <c r="A2140" s="10" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B2140" s="14" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C2140" s="14" t="s">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3">
+      <c r="A2141" s="10" t="s">
+        <v>5578</v>
+      </c>
+      <c r="B2141" s="14" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C2141" s="14" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3">
+      <c r="A2142" s="10" t="s">
+        <v>5580</v>
+      </c>
+      <c r="B2142" s="14" t="s">
+        <v>5581</v>
+      </c>
+      <c r="C2142" s="14" t="s">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3">
+      <c r="A2143" s="10" t="s">
+        <v>5583</v>
+      </c>
+      <c r="B2143" s="14" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C2143" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3">
+      <c r="A2144" s="10" t="s">
+        <v>5585</v>
+      </c>
+      <c r="B2144" s="14" t="s">
+        <v>5586</v>
+      </c>
+      <c r="C2144" s="14" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3">
+      <c r="A2145" s="10" t="s">
+        <v>5588</v>
+      </c>
+      <c r="B2145" s="14" t="s">
+        <v>5589</v>
+      </c>
+      <c r="C2145" s="14" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3">
+      <c r="A2146" s="10" t="s">
+        <v>5591</v>
+      </c>
+      <c r="B2146" s="14" t="s">
+        <v>5592</v>
+      </c>
+      <c r="C2146" s="14" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3">
+      <c r="A2147" s="10" t="s">
+        <v>5594</v>
+      </c>
+      <c r="B2147" s="14" t="s">
+        <v>5595</v>
+      </c>
+      <c r="C2147" s="14" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3">
+      <c r="A2148" s="10" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B2148" s="14" t="s">
+        <v>5598</v>
+      </c>
+      <c r="C2148" s="14" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3">
+      <c r="A2149" s="10" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B2149" s="14" t="s">
+        <v>5601</v>
+      </c>
+      <c r="C2149" s="14" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3">
+      <c r="A2150" s="10" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B2150" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2150" s="14" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3">
+      <c r="A2151" s="10" t="s">
+        <v>5605</v>
+      </c>
+      <c r="B2151" s="14" t="s">
+        <v>5606</v>
+      </c>
+      <c r="C2151" s="14" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3">
+      <c r="A2152" s="10" t="s">
+        <v>5608</v>
+      </c>
+      <c r="B2152" s="14" t="s">
+        <v>5609</v>
+      </c>
+      <c r="C2152" s="14" t="s">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3">
+      <c r="A2153" s="10" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B2153" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C2153" s="14" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3">
+      <c r="A2154" s="10" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B2154" s="14" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C2154" s="14" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3">
+      <c r="A2155" s="10" t="s">
+        <v>5615</v>
+      </c>
+      <c r="B2155" s="14" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C2155" s="14" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3">
+      <c r="A2156" s="10" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B2156" s="14" t="s">
+        <v>5618</v>
+      </c>
+      <c r="C2156" s="14" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3">
+      <c r="A2157" s="10" t="s">
+        <v>5620</v>
+      </c>
+      <c r="B2157" s="14" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C2157" s="14" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3">
+      <c r="A2158" s="10" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B2158" s="14" t="s">
+        <v>5622</v>
+      </c>
+      <c r="C2158" s="14" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3">
+      <c r="A2159" s="10" t="s">
+        <v>5624</v>
+      </c>
+      <c r="B2159" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2159" s="14" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3">
+      <c r="A2160" s="10" t="s">
+        <v>5626</v>
+      </c>
+      <c r="B2160" s="14" t="s">
+        <v>5627</v>
+      </c>
+      <c r="C2160" s="14" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3">
+      <c r="A2161" s="10" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B2161" s="14" t="s">
+        <v>5630</v>
+      </c>
+      <c r="C2161" s="14" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3">
+      <c r="A2162" s="10" t="s">
+        <v>5632</v>
+      </c>
+      <c r="B2162" s="14" t="s">
+        <v>5633</v>
+      </c>
+      <c r="C2162" s="14" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3">
+      <c r="A2163" s="10" t="s">
+        <v>5635</v>
+      </c>
+      <c r="B2163" s="14" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C2163" s="14" t="s">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3">
+      <c r="A2164" s="10" t="s">
+        <v>5638</v>
+      </c>
+      <c r="B2164" s="14" t="s">
+        <v>5639</v>
+      </c>
+      <c r="C2164" s="14" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3">
+      <c r="A2165" s="10" t="s">
+        <v>5641</v>
+      </c>
+      <c r="B2165" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="C2165" s="14" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3">
+      <c r="A2166" s="10" t="s">
+        <v>5643</v>
+      </c>
+      <c r="B2166" s="14" t="s">
+        <v>5644</v>
+      </c>
+      <c r="C2166" s="14" t="s">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3">
+      <c r="A2167" s="10" t="s">
+        <v>5646</v>
+      </c>
+      <c r="B2167" s="14" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C2167" s="14" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:3">
+      <c r="A2168" s="10" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B2168" s="14" t="s">
+        <v>5649</v>
+      </c>
+      <c r="C2168" s="14" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:3">
+      <c r="A2169" s="10" t="s">
+        <v>5651</v>
+      </c>
+      <c r="B2169" s="14" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C2169" s="14" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:3">
+      <c r="A2170" s="10" t="s">
+        <v>5654</v>
+      </c>
+      <c r="B2170" s="14" t="s">
+        <v>5655</v>
+      </c>
+      <c r="C2170" s="14" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:3">
+      <c r="A2171" s="10" t="s">
+        <v>5657</v>
+      </c>
+      <c r="B2171" s="14" t="s">
+        <v>5658</v>
+      </c>
+      <c r="C2171" s="14" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:3">
+      <c r="A2172" s="10" t="s">
+        <v>5660</v>
+      </c>
+      <c r="B2172" s="14" t="s">
+        <v>5661</v>
+      </c>
+      <c r="C2172" s="14" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:3">
+      <c r="A2173" s="10" t="s">
+        <v>5663</v>
+      </c>
+      <c r="B2173" s="14" t="s">
+        <v>5664</v>
+      </c>
+      <c r="C2173" s="14" t="s">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:3">
+      <c r="A2174" s="10" t="s">
+        <v>5666</v>
+      </c>
+      <c r="B2174" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="C2174" s="14" t="s">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:3">
+      <c r="A2175" s="10" t="s">
+        <v>5668</v>
+      </c>
+      <c r="B2175" s="14" t="s">
+        <v>5669</v>
+      </c>
+      <c r="C2175" s="14" t="s">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:3">
+      <c r="A2176" s="10" t="s">
+        <v>5671</v>
+      </c>
+      <c r="B2176" s="14" t="s">
+        <v>5672</v>
+      </c>
+      <c r="C2176" s="14" t="s">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:3">
+      <c r="A2177" s="10" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B2177" s="14" t="s">
+        <v>5675</v>
+      </c>
+      <c r="C2177" s="14" t="s">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:3">
+      <c r="A2178" s="10" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B2178" s="14" t="s">
+        <v>5678</v>
+      </c>
+      <c r="C2178" s="14" t="s">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:3">
+      <c r="A2179" s="10" t="s">
+        <v>5680</v>
+      </c>
+      <c r="B2179" s="14" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C2179" s="14" t="s">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:3">
+      <c r="A2180" s="10" t="s">
+        <v>5683</v>
+      </c>
+      <c r="B2180" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2180" s="14" t="s">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:3">
+      <c r="A2181" s="10" t="s">
+        <v>5685</v>
+      </c>
+      <c r="B2181" s="14" t="s">
+        <v>5686</v>
+      </c>
+      <c r="C2181" s="14" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:3">
+      <c r="A2182" s="10" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B2182" s="14" t="s">
+        <v>5689</v>
+      </c>
+      <c r="C2182" s="14" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:3">
+      <c r="A2183" s="10" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B2183" s="14" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C2183" s="14" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:3">
+      <c r="A2184" s="10" t="s">
+        <v>5693</v>
+      </c>
+      <c r="B2184" s="14" t="s">
+        <v>5694</v>
+      </c>
+      <c r="C2184" s="14" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:3">
+      <c r="A2185" s="10" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B2185" s="14" t="s">
+        <v>5697</v>
+      </c>
+      <c r="C2185" s="14" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:3">
+      <c r="A2186" s="10" t="s">
+        <v>5699</v>
+      </c>
+      <c r="B2186" s="14" t="s">
+        <v>5700</v>
+      </c>
+      <c r="C2186" s="14" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:3">
+      <c r="A2187" s="10" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B2187" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C2187" s="14" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3">
+      <c r="A2188" s="10" t="s">
+        <v>5704</v>
+      </c>
+      <c r="B2188" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2188" s="14" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:3">
+      <c r="A2189" s="10" t="s">
+        <v>5706</v>
+      </c>
+      <c r="B2189" s="14" t="s">
+        <v>5707</v>
+      </c>
+      <c r="C2189" s="14" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:3">
+      <c r="A2190" s="10" t="s">
+        <v>5709</v>
+      </c>
+      <c r="B2190" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2190" s="14" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3">
+      <c r="A2191" s="10" t="s">
+        <v>5711</v>
+      </c>
+      <c r="B2191" s="14" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C2191" s="14" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:3">
+      <c r="A2192" s="10" t="s">
+        <v>5714</v>
+      </c>
+      <c r="B2192" s="14" t="s">
+        <v>5715</v>
+      </c>
+      <c r="C2192" s="14" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3">
+      <c r="A2193" s="10" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B2193" s="14" t="s">
+        <v>5718</v>
+      </c>
+      <c r="C2193" s="14" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3">
+      <c r="A2194" s="10" t="s">
+        <v>5720</v>
+      </c>
+      <c r="B2194" s="14" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C2194" s="14" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3">
+      <c r="A2195" s="10" t="s">
+        <v>5723</v>
+      </c>
+      <c r="B2195" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C2195" s="14" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3">
+      <c r="A2196" s="10" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B2196" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2196" s="14" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3">
+      <c r="A2197" s="10" t="s">
+        <v>5727</v>
+      </c>
+      <c r="B2197" s="14" t="s">
+        <v>5728</v>
+      </c>
+      <c r="C2197" s="14" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3">
+      <c r="A2198" s="10" t="s">
+        <v>5730</v>
+      </c>
+      <c r="B2198" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2198" s="14" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3">
+      <c r="A2199" s="10" t="s">
+        <v>5732</v>
+      </c>
+      <c r="B2199" s="14" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C2199" s="14" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:3">
+      <c r="A2200" s="10" t="s">
+        <v>5735</v>
+      </c>
+      <c r="B2200" s="14" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C2200" s="14" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:3">
+      <c r="A2201" s="10" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B2201" s="14" t="s">
+        <v>5739</v>
+      </c>
+      <c r="C2201" s="14" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:3">
+      <c r="A2202" s="10" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B2202" s="14" t="s">
+        <v>5742</v>
+      </c>
+      <c r="C2202" s="14" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:3">
+      <c r="A2203" s="10" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B2203" s="14" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C2203" s="14" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:3">
+      <c r="A2204" s="10" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B2204" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2204" s="14" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:3">
+      <c r="A2205" s="10" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B2205" s="14" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C2205" s="14" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:3">
+      <c r="A2206" s="10" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B2206" s="14" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C2206" s="14" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:3">
+      <c r="A2207" s="10" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B2207" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C2207" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:3">
+      <c r="A2208" s="10" t="s">
+        <v>5754</v>
+      </c>
+      <c r="B2208" s="14" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C2208" s="14" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:3">
+      <c r="A2209" s="10" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B2209" s="14" t="s">
+        <v>5757</v>
+      </c>
+      <c r="C2209" s="14" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:3">
+      <c r="A2210" s="10" t="s">
+        <v>5759</v>
+      </c>
+      <c r="B2210" s="14" t="s">
+        <v>5760</v>
+      </c>
+      <c r="C2210" s="14" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:3">
+      <c r="A2211" s="10" t="s">
+        <v>5762</v>
+      </c>
+      <c r="B2211" s="14" t="s">
+        <v>5763</v>
+      </c>
+      <c r="C2211" s="14" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:3">
+      <c r="A2212" s="10" t="s">
+        <v>5765</v>
+      </c>
+      <c r="B2212" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2212" s="14" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:3">
+      <c r="A2213" s="10" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B2213" s="14" t="s">
+        <v>5768</v>
+      </c>
+      <c r="C2213" s="14" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3">
+      <c r="A2214" s="10" t="s">
+        <v>5770</v>
+      </c>
+      <c r="B2214" s="14" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C2214" s="14" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:3">
+      <c r="A2215" s="10" t="s">
+        <v>5773</v>
+      </c>
+      <c r="B2215" s="14" t="s">
+        <v>5779</v>
+      </c>
+      <c r="C2215" s="14" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:3">
+      <c r="A2216" s="10" t="s">
+        <v>5775</v>
+      </c>
+      <c r="B2216" s="14" t="s">
+        <v>5776</v>
+      </c>
+      <c r="C2216" s="14" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:3">
+      <c r="A2217" s="10" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B2217" s="14" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C2217" s="14" t="s">
+        <v>5202</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="5781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="5817">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -17363,6 +17363,114 @@
   </si>
   <si>
     <t>The Darkness</t>
+  </si>
+  <si>
+    <t>WP-0272</t>
+  </si>
+  <si>
+    <t>Fergal Sharkey</t>
+  </si>
+  <si>
+    <t>A Good Heart</t>
+  </si>
+  <si>
+    <t>WP-0273</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>Love Cats</t>
+  </si>
+  <si>
+    <t>WP-0274</t>
+  </si>
+  <si>
+    <t>WP-0275</t>
+  </si>
+  <si>
+    <t>Rivers of Babylon</t>
+  </si>
+  <si>
+    <t>WP-0276</t>
+  </si>
+  <si>
+    <t>OMD</t>
+  </si>
+  <si>
+    <t>Enola Gay</t>
+  </si>
+  <si>
+    <t>WP-0277</t>
+  </si>
+  <si>
+    <t>Eurythmics &amp; Aretha Franklin</t>
+  </si>
+  <si>
+    <t>Sisters Are Doin' It For Themselves</t>
+  </si>
+  <si>
+    <t>WP-0278</t>
+  </si>
+  <si>
+    <t>WP-0279</t>
+  </si>
+  <si>
+    <t>Love Affair</t>
+  </si>
+  <si>
+    <t>Everlasting Love</t>
+  </si>
+  <si>
+    <t>WP-0280</t>
+  </si>
+  <si>
+    <t>Bad Manners</t>
+  </si>
+  <si>
+    <t>Lip Up Fatty</t>
+  </si>
+  <si>
+    <t>WP-0281</t>
+  </si>
+  <si>
+    <t>Special Brew</t>
+  </si>
+  <si>
+    <t>WP-0282</t>
+  </si>
+  <si>
+    <t>Mull of Kintyre</t>
+  </si>
+  <si>
+    <t>WP-0283</t>
+  </si>
+  <si>
+    <t>All Summer Long</t>
+  </si>
+  <si>
+    <t>WP-0284</t>
+  </si>
+  <si>
+    <t>Fat Larry's Band</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>WP-0285</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Laid</t>
+  </si>
+  <si>
+    <t>WP-0286</t>
+  </si>
+  <si>
+    <t>Golden Touch</t>
   </si>
 </sst>
 </file>
@@ -17775,9 +17883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2217"/>
+  <dimension ref="A1:E2232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2231" sqref="E2231"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -42744,6 +42854,171 @@
       </c>
       <c r="C2217" s="14" t="s">
         <v>5202</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:3">
+      <c r="A2218" s="10" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B2218" s="14" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C2218" s="14" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:3">
+      <c r="A2219" s="10" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B2219" s="14" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C2219" s="14" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:3">
+      <c r="A2220" s="10" t="s">
+        <v>5787</v>
+      </c>
+      <c r="B2220" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2220" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3">
+      <c r="A2221" s="10" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B2221" s="14" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C2221" s="14" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3">
+      <c r="A2222" s="10" t="s">
+        <v>5790</v>
+      </c>
+      <c r="B2222" s="14" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C2222" s="14" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:3">
+      <c r="A2223" s="10" t="s">
+        <v>5793</v>
+      </c>
+      <c r="B2223" s="14" t="s">
+        <v>5794</v>
+      </c>
+      <c r="C2223" s="14" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:3">
+      <c r="A2224" s="10" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B2224" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2224" s="14" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:3">
+      <c r="A2225" s="10" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B2225" s="14" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C2225" s="14" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:3">
+      <c r="A2226" s="10" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B2226" s="14" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2226" s="14" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:3">
+      <c r="A2227" s="10" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B2227" s="14" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2227" s="14" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:3">
+      <c r="A2228" s="10" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B2228" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2228" s="14" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:3">
+      <c r="A2229" s="10" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B2229" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2229" s="14" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:3">
+      <c r="A2230" s="10" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B2230" s="14" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C2230" s="14" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:3">
+      <c r="A2231" s="10" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B2231" s="14" t="s">
+        <v>5813</v>
+      </c>
+      <c r="C2231" s="14" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:3">
+      <c r="A2232" s="10" t="s">
+        <v>5815</v>
+      </c>
+      <c r="B2232" s="14" t="s">
+        <v>5718</v>
+      </c>
+      <c r="C2232" s="14" t="s">
+        <v>5816</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="5817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6829" uniqueCount="5933">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -17471,6 +17471,354 @@
   </si>
   <si>
     <t>Golden Touch</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>The Bad Touch</t>
+  </si>
+  <si>
+    <t>WP-0287</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>WP-0288</t>
+  </si>
+  <si>
+    <t>Any Way You Want It</t>
+  </si>
+  <si>
+    <t>WP-0289</t>
+  </si>
+  <si>
+    <t>Womack and Womack</t>
+  </si>
+  <si>
+    <t>Teardrops</t>
+  </si>
+  <si>
+    <t>WP-0290</t>
+  </si>
+  <si>
+    <t>Dancing With Tears In My Eyes</t>
+  </si>
+  <si>
+    <t>WP-0291</t>
+  </si>
+  <si>
+    <t>Blancmange</t>
+  </si>
+  <si>
+    <t>Living On The Ceiling</t>
+  </si>
+  <si>
+    <t>WP-0292</t>
+  </si>
+  <si>
+    <t>Mirror Man</t>
+  </si>
+  <si>
+    <t>WP-0293</t>
+  </si>
+  <si>
+    <t>Hold Me Now</t>
+  </si>
+  <si>
+    <t>WP-0294</t>
+  </si>
+  <si>
+    <t>A Flock of Seagulls</t>
+  </si>
+  <si>
+    <t>I Ran</t>
+  </si>
+  <si>
+    <t>WP-0295</t>
+  </si>
+  <si>
+    <t>Modern English</t>
+  </si>
+  <si>
+    <t>I Melt With You</t>
+  </si>
+  <si>
+    <t>WP-0296</t>
+  </si>
+  <si>
+    <t>Eyes Without A Face</t>
+  </si>
+  <si>
+    <t>WP-0297</t>
+  </si>
+  <si>
+    <t>Chris Stapleton</t>
+  </si>
+  <si>
+    <t>Tennessee Whiskey</t>
+  </si>
+  <si>
+    <t>WP-0298</t>
+  </si>
+  <si>
+    <t>Leave Me Alone (I'm Lonely)</t>
+  </si>
+  <si>
+    <t>WP-0299</t>
+  </si>
+  <si>
+    <t>Tenacious D</t>
+  </si>
+  <si>
+    <t>Tribute</t>
+  </si>
+  <si>
+    <t>WP-0300</t>
+  </si>
+  <si>
+    <t>Angel Eyes</t>
+  </si>
+  <si>
+    <t>WP-0301</t>
+  </si>
+  <si>
+    <t>Enjoy The Silence</t>
+  </si>
+  <si>
+    <t>WP-0302</t>
+  </si>
+  <si>
+    <t>WP-0303</t>
+  </si>
+  <si>
+    <t>Road to Nowhere</t>
+  </si>
+  <si>
+    <t>WP-0304</t>
+  </si>
+  <si>
+    <t>Just Like Heaven</t>
+  </si>
+  <si>
+    <t>WP-0305</t>
+  </si>
+  <si>
+    <t>Deep Blue Something</t>
+  </si>
+  <si>
+    <t>Breakfast at Tiffany's</t>
+  </si>
+  <si>
+    <t>WP-0306</t>
+  </si>
+  <si>
+    <t>REM</t>
+  </si>
+  <si>
+    <t>Shiny Happy People</t>
+  </si>
+  <si>
+    <t>WP-0307</t>
+  </si>
+  <si>
+    <t>The One I Love</t>
+  </si>
+  <si>
+    <t>WP-0308</t>
+  </si>
+  <si>
+    <t>Sister Sledge</t>
+  </si>
+  <si>
+    <t>Frankie</t>
+  </si>
+  <si>
+    <t>WP-0309</t>
+  </si>
+  <si>
+    <t>Jim Diamond</t>
+  </si>
+  <si>
+    <t>I Should Have Known Better</t>
+  </si>
+  <si>
+    <t>WP-0310</t>
+  </si>
+  <si>
+    <t>Hi Ho Silver</t>
+  </si>
+  <si>
+    <t>WP-0311</t>
+  </si>
+  <si>
+    <t>Paul McCartney and Wings</t>
+  </si>
+  <si>
+    <t>Band on the Run</t>
+  </si>
+  <si>
+    <t>WP-0312</t>
+  </si>
+  <si>
+    <t>Source feat Candi Staton</t>
+  </si>
+  <si>
+    <t>You Got The Love</t>
+  </si>
+  <si>
+    <t>WP-0313</t>
+  </si>
+  <si>
+    <t>Both Sides Now</t>
+  </si>
+  <si>
+    <t>WP-0314</t>
+  </si>
+  <si>
+    <t>Spice Girls</t>
+  </si>
+  <si>
+    <t>WP-0315</t>
+  </si>
+  <si>
+    <t>Noah Kahan</t>
+  </si>
+  <si>
+    <t>Stick Season</t>
+  </si>
+  <si>
+    <t>WP-0316</t>
+  </si>
+  <si>
+    <t>Big Country</t>
+  </si>
+  <si>
+    <t>In A Big Country</t>
+  </si>
+  <si>
+    <t>WP-0317</t>
+  </si>
+  <si>
+    <t>Six the Musical</t>
+  </si>
+  <si>
+    <t>Don't Lose Ur Head</t>
+  </si>
+  <si>
+    <t>WP-0318</t>
+  </si>
+  <si>
+    <t>Shaboozey</t>
+  </si>
+  <si>
+    <t>A Bar Song (Tipsy)</t>
+  </si>
+  <si>
+    <t>WP-0319</t>
+  </si>
+  <si>
+    <t>Mark Ambor</t>
+  </si>
+  <si>
+    <t>Belong Together</t>
+  </si>
+  <si>
+    <t>WP-0320</t>
+  </si>
+  <si>
+    <t>Dasha</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>WP-0321</t>
+  </si>
+  <si>
+    <t>Who Knew</t>
+  </si>
+  <si>
+    <t>WP-0322</t>
+  </si>
+  <si>
+    <t>Left Outside Alone</t>
+  </si>
+  <si>
+    <t>WP-0323</t>
+  </si>
+  <si>
+    <t>Prince Ali</t>
+  </si>
+  <si>
+    <t>WP-0324</t>
+  </si>
+  <si>
+    <t>Benson Boone</t>
+  </si>
+  <si>
+    <t>Beautiful Things</t>
+  </si>
+  <si>
+    <t>WP-0325</t>
+  </si>
+  <si>
+    <t>Teddy Swims</t>
+  </si>
+  <si>
+    <t>I Lose Control</t>
+  </si>
+  <si>
+    <t>WP-0326</t>
+  </si>
+  <si>
+    <t>Stephanie Mills</t>
+  </si>
+  <si>
+    <t>Never Knew Love Like This Before</t>
+  </si>
+  <si>
+    <t>WP-0327</t>
+  </si>
+  <si>
+    <t>Gladys Knight and The Pips</t>
+  </si>
+  <si>
+    <t>Midnight Train to Georgia</t>
+  </si>
+  <si>
+    <t>WP-0328</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>Heaven Must Be Missing An Angel</t>
+  </si>
+  <si>
+    <t>WP-0329</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>One Day Like This</t>
+  </si>
+  <si>
+    <t>WP-0330</t>
+  </si>
+  <si>
+    <t>Johnny Preston</t>
+  </si>
+  <si>
+    <t>Running Bear</t>
+  </si>
+  <si>
+    <t>WP-0271</t>
   </si>
 </sst>
 </file>
@@ -17883,10 +18231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2232"/>
+  <dimension ref="A1:E2277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2231" sqref="E2231"/>
+    <sheetView tabSelected="1" topLeftCell="A2259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2225" sqref="D2225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -42858,167 +43206,662 @@
     </row>
     <row r="2218" spans="1:3">
       <c r="A2218" s="10" t="s">
-        <v>5781</v>
+        <v>5932</v>
       </c>
       <c r="B2218" s="14" t="s">
-        <v>5782</v>
+        <v>5891</v>
       </c>
       <c r="C2218" s="14" t="s">
-        <v>5783</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
       <c r="A2219" s="10" t="s">
-        <v>5784</v>
+        <v>5781</v>
       </c>
       <c r="B2219" s="14" t="s">
-        <v>5785</v>
+        <v>5894</v>
       </c>
       <c r="C2219" s="14" t="s">
-        <v>5786</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
       <c r="A2220" s="10" t="s">
-        <v>5787</v>
+        <v>5784</v>
       </c>
       <c r="B2220" s="14" t="s">
-        <v>551</v>
+        <v>5897</v>
       </c>
       <c r="C2220" s="14" t="s">
-        <v>356</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="2221" spans="1:3">
       <c r="A2221" s="10" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="B2221" s="14" t="s">
-        <v>2485</v>
+        <v>5900</v>
       </c>
       <c r="C2221" s="14" t="s">
-        <v>5789</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
       <c r="A2222" s="10" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="B2222" s="14" t="s">
-        <v>5791</v>
+        <v>5903</v>
       </c>
       <c r="C2222" s="14" t="s">
-        <v>5792</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
       <c r="A2223" s="10" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="B2223" s="14" t="s">
-        <v>5794</v>
+        <v>1000</v>
       </c>
       <c r="C2223" s="14" t="s">
-        <v>5795</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
       <c r="A2224" s="10" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="B2224" s="14" t="s">
-        <v>672</v>
+        <v>1712</v>
       </c>
       <c r="C2224" s="14" t="s">
-        <v>1027</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
       <c r="A2225" s="10" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="B2225" s="14" t="s">
-        <v>5798</v>
+        <v>1567</v>
       </c>
       <c r="C2225" s="14" t="s">
-        <v>5799</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
       <c r="A2226" s="10" t="s">
-        <v>5800</v>
+        <v>5797</v>
       </c>
       <c r="B2226" s="14" t="s">
-        <v>5801</v>
+        <v>5912</v>
       </c>
       <c r="C2226" s="14" t="s">
-        <v>5802</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
       <c r="A2227" s="10" t="s">
-        <v>5803</v>
+        <v>5800</v>
       </c>
       <c r="B2227" s="14" t="s">
-        <v>5801</v>
+        <v>5915</v>
       </c>
       <c r="C2227" s="14" t="s">
-        <v>5804</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
       <c r="A2228" s="10" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="B2228" s="14" t="s">
-        <v>377</v>
+        <v>5918</v>
       </c>
       <c r="C2228" s="14" t="s">
-        <v>5806</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
       <c r="A2229" s="10" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="B2229" s="14" t="s">
-        <v>1035</v>
+        <v>5921</v>
       </c>
       <c r="C2229" s="14" t="s">
-        <v>5808</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
       <c r="A2230" s="10" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="B2230" s="14" t="s">
-        <v>5810</v>
+        <v>5924</v>
       </c>
       <c r="C2230" s="14" t="s">
-        <v>5811</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
       <c r="A2231" s="10" t="s">
-        <v>5812</v>
+        <v>5809</v>
       </c>
       <c r="B2231" s="14" t="s">
-        <v>5813</v>
+        <v>5927</v>
       </c>
       <c r="C2231" s="14" t="s">
-        <v>5814</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
       <c r="A2232" s="10" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B2232" s="14" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C2232" s="14" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:3">
+      <c r="A2233" s="14" t="s">
         <v>5815</v>
       </c>
-      <c r="B2232" s="14" t="s">
+      <c r="B2233" s="14" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C2233" s="14" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:3">
+      <c r="A2234" s="14" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B2234" s="14" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C2234" s="14" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:3">
+      <c r="A2235" s="14" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B2235" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2235" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:3">
+      <c r="A2236" s="14" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B2236" s="14" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C2236" s="14" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:3">
+      <c r="A2237" s="14" t="s">
+        <v>5827</v>
+      </c>
+      <c r="B2237" s="14" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C2237" s="14" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:3">
+      <c r="A2238" s="14" t="s">
+        <v>5829</v>
+      </c>
+      <c r="B2238" s="14" t="s">
+        <v>5794</v>
+      </c>
+      <c r="C2238" s="14" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:3">
+      <c r="A2239" s="14" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B2239" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2239" s="14" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:3">
+      <c r="A2240" s="14" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B2240" s="14" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C2240" s="14" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:3">
+      <c r="A2241" s="14" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B2241" s="14" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2241" s="14" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:3">
+      <c r="A2242" s="14" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B2242" s="14" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2242" s="14" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:3">
+      <c r="A2243" s="14" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B2243" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2243" s="14" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:3">
+      <c r="A2244" s="14" t="s">
+        <v>5844</v>
+      </c>
+      <c r="B2244" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C2244" s="14" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:3">
+      <c r="A2245" s="14" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B2245" s="14" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C2245" s="14" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:3">
+      <c r="A2246" s="14" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B2246" s="14" t="s">
+        <v>5813</v>
+      </c>
+      <c r="C2246" s="14" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:3">
+      <c r="A2247" s="14" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B2247" s="14" t="s">
         <v>5718</v>
       </c>
-      <c r="C2232" s="14" t="s">
+      <c r="C2247" s="14" t="s">
         <v>5816</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:3">
+      <c r="A2248" s="14" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B2248" s="14" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C2248" s="14" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:3">
+      <c r="A2249" s="14" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B2249" s="10" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C2249" s="10" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:3">
+      <c r="A2250" s="14" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B2250" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2250" s="9" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:3">
+      <c r="A2251" s="14" t="s">
+        <v>5859</v>
+      </c>
+      <c r="B2251" s="10" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C2251" s="9" t="s">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:3">
+      <c r="A2252" s="14" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B2252" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2252" s="9" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:3">
+      <c r="A2253" s="14" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B2253" s="10" t="s">
+        <v>5830</v>
+      </c>
+      <c r="C2253" s="9" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:3">
+      <c r="A2254" s="14" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B2254" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2254" s="9" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:3">
+      <c r="A2255" s="14" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B2255" s="10" t="s">
+        <v>4798</v>
+      </c>
+      <c r="C2255" s="9" t="s">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:3">
+      <c r="A2256" s="14" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B2256" s="10" t="s">
+        <v>5837</v>
+      </c>
+      <c r="C2256" s="9" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:3">
+      <c r="A2257" s="14" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B2257" s="10" t="s">
+        <v>5840</v>
+      </c>
+      <c r="C2257" s="9" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3">
+      <c r="A2258" s="14" t="s">
+        <v>5877</v>
+      </c>
+      <c r="B2258" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2258" s="9" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3">
+      <c r="A2259" s="14" t="s">
+        <v>5880</v>
+      </c>
+      <c r="B2259" s="10" t="s">
+        <v>5845</v>
+      </c>
+      <c r="C2259" s="9" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3">
+      <c r="A2260" s="14" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B2260" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2260" s="9" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3">
+      <c r="A2261" s="14" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B2261" s="10" t="s">
+        <v>5850</v>
+      </c>
+      <c r="C2261" s="9" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3">
+      <c r="A2262" s="14" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B2262" s="10" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C2262" s="9" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3">
+      <c r="A2263" s="14" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B2263" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2263" s="9" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3">
+      <c r="A2264" s="14" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B2264" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="C2264" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3">
+      <c r="A2265" s="14" t="s">
+        <v>5896</v>
+      </c>
+      <c r="B2265" s="10" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C2265" s="9" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3">
+      <c r="A2266" s="14" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B2266" s="10" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C2266" s="9" t="s">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3">
+      <c r="A2267" s="14" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B2267" s="10" t="s">
+        <v>5862</v>
+      </c>
+      <c r="C2267" s="9" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3">
+      <c r="A2268" s="14" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B2268" s="10" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C2268" s="9" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3">
+      <c r="A2269" s="14" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B2269" s="10" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C2269" s="9" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3">
+      <c r="A2270" s="14" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B2270" s="10" t="s">
+        <v>5870</v>
+      </c>
+      <c r="C2270" s="9" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3">
+      <c r="A2271" s="14" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B2271" s="10" t="s">
+        <v>5873</v>
+      </c>
+      <c r="C2271" s="9" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3">
+      <c r="A2272" s="14" t="s">
+        <v>5914</v>
+      </c>
+      <c r="B2272" s="10" t="s">
+        <v>5873</v>
+      </c>
+      <c r="C2272" s="9" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3">
+      <c r="A2273" s="14" t="s">
+        <v>5917</v>
+      </c>
+      <c r="B2273" s="10" t="s">
+        <v>5878</v>
+      </c>
+      <c r="C2273" s="9" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3">
+      <c r="A2274" s="14" t="s">
+        <v>5920</v>
+      </c>
+      <c r="B2274" s="10" t="s">
+        <v>5881</v>
+      </c>
+      <c r="C2274" s="9" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3">
+      <c r="A2275" s="14" t="s">
+        <v>5923</v>
+      </c>
+      <c r="B2275" s="10" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C2275" s="10" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3">
+      <c r="A2276" s="14" t="s">
+        <v>5926</v>
+      </c>
+      <c r="B2276" s="10" t="s">
+        <v>5886</v>
+      </c>
+      <c r="C2276" s="10" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3">
+      <c r="A2277" s="14" t="s">
+        <v>5929</v>
+      </c>
+      <c r="B2277" s="10" t="s">
+        <v>5888</v>
+      </c>
+      <c r="C2277" s="10" t="s">
+        <v>5889</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/songlist/Jock's Karaoke De-duped.xlsx
+++ b/frontend/songlist/Jock's Karaoke De-duped.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6829" uniqueCount="5933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="5972">
   <si>
     <t xml:space="preserve">4 Non Blondes </t>
   </si>
@@ -17819,6 +17819,123 @@
   </si>
   <si>
     <t>WP-0271</t>
+  </si>
+  <si>
+    <t>WP-0331</t>
+  </si>
+  <si>
+    <t>Simon &amp; Garfunkel</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>WP-0332</t>
+  </si>
+  <si>
+    <t>DeBarge</t>
+  </si>
+  <si>
+    <t>Rhythm of the Night</t>
+  </si>
+  <si>
+    <t>WP-0333</t>
+  </si>
+  <si>
+    <t>Solomon Burke</t>
+  </si>
+  <si>
+    <t>Cry to Me</t>
+  </si>
+  <si>
+    <t>WP-0334</t>
+  </si>
+  <si>
+    <t>Wouldn't it be Good</t>
+  </si>
+  <si>
+    <t>WP-0335</t>
+  </si>
+  <si>
+    <t>Something Blue</t>
+  </si>
+  <si>
+    <t>WP-0336</t>
+  </si>
+  <si>
+    <t>Lena Martell</t>
+  </si>
+  <si>
+    <t>One Day at a Time</t>
+  </si>
+  <si>
+    <t>WP-0337</t>
+  </si>
+  <si>
+    <t>Reef</t>
+  </si>
+  <si>
+    <t>Place Your Hands</t>
+  </si>
+  <si>
+    <t>WP-0338</t>
+  </si>
+  <si>
+    <t>Tom Odell</t>
+  </si>
+  <si>
+    <t>Another Love</t>
+  </si>
+  <si>
+    <t>WP-0339</t>
+  </si>
+  <si>
+    <t>O'Jays</t>
+  </si>
+  <si>
+    <t>Love Train</t>
+  </si>
+  <si>
+    <t>WP-0340</t>
+  </si>
+  <si>
+    <t>Secret Love</t>
+  </si>
+  <si>
+    <t>WP-0341</t>
+  </si>
+  <si>
+    <t>Queens of the Stone Age</t>
+  </si>
+  <si>
+    <t>No One Knows</t>
+  </si>
+  <si>
+    <t>WP-0342</t>
+  </si>
+  <si>
+    <t>Texas Hold 'Em</t>
+  </si>
+  <si>
+    <t>WP-0343</t>
+  </si>
+  <si>
+    <t>New Radicals</t>
+  </si>
+  <si>
+    <t>You Get What You Give</t>
+  </si>
+  <si>
+    <t>WP-0344</t>
+  </si>
+  <si>
+    <t>Chiquitita</t>
+  </si>
+  <si>
+    <t>WP-0345</t>
+  </si>
+  <si>
+    <t>I'm Every Woman</t>
   </si>
 </sst>
 </file>
@@ -18231,10 +18348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2277"/>
+  <dimension ref="A1:E2292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2225" sqref="D2225"/>
+    <sheetView tabSelected="1" topLeftCell="A2268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2284" sqref="E2284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -43862,6 +43979,171 @@
       </c>
       <c r="C2277" s="10" t="s">
         <v>5889</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3">
+      <c r="A2278" s="14" t="s">
+        <v>5933</v>
+      </c>
+      <c r="B2278" s="14" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C2278" s="14" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3">
+      <c r="A2279" s="14" t="s">
+        <v>5936</v>
+      </c>
+      <c r="B2279" s="14" t="s">
+        <v>5937</v>
+      </c>
+      <c r="C2279" s="14" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3">
+      <c r="A2280" s="14" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B2280" s="14" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C2280" s="14" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3">
+      <c r="A2281" s="14" t="s">
+        <v>5942</v>
+      </c>
+      <c r="B2281" s="14" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C2281" s="14" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3">
+      <c r="A2282" s="14" t="s">
+        <v>5944</v>
+      </c>
+      <c r="B2282" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C2282" s="14" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3">
+      <c r="A2283" s="14" t="s">
+        <v>5946</v>
+      </c>
+      <c r="B2283" s="14" t="s">
+        <v>5947</v>
+      </c>
+      <c r="C2283" s="14" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3">
+      <c r="A2284" s="14" t="s">
+        <v>5949</v>
+      </c>
+      <c r="B2284" s="14" t="s">
+        <v>5950</v>
+      </c>
+      <c r="C2284" s="14" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3">
+      <c r="A2285" s="14" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B2285" s="14" t="s">
+        <v>5953</v>
+      </c>
+      <c r="C2285" s="14" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3">
+      <c r="A2286" s="14" t="s">
+        <v>5955</v>
+      </c>
+      <c r="B2286" s="14" t="s">
+        <v>5956</v>
+      </c>
+      <c r="C2286" s="14" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3">
+      <c r="A2287" s="14" t="s">
+        <v>5958</v>
+      </c>
+      <c r="B2287" s="14" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C2287" s="14" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3">
+      <c r="A2288" s="14" t="s">
+        <v>5960</v>
+      </c>
+      <c r="B2288" s="14" t="s">
+        <v>5961</v>
+      </c>
+      <c r="C2288" s="14" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3">
+      <c r="A2289" s="14" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B2289" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2289" s="14" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3">
+      <c r="A2290" s="14" t="s">
+        <v>5965</v>
+      </c>
+      <c r="B2290" s="14" t="s">
+        <v>5966</v>
+      </c>
+      <c r="C2290" s="14" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3">
+      <c r="A2291" s="14" t="s">
+        <v>5968</v>
+      </c>
+      <c r="B2291" s="14" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C2291" s="14" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3">
+      <c r="A2292" s="14" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B2292" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2292" s="14" t="s">
+        <v>5971</v>
       </c>
     </row>
   </sheetData>
